--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.663</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.913</v>
+        <v>17.371</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1720042817.951</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1165222.635</v>
+        <v>31.411</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.945</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.345</v>
+        <v>13.987</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1128367.484335531</v>
+        <v>19.03448115866344</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1330911.99239124</v>
+        <v>19.10973517615333</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-866118.8327472843</v>
+        <v>19.12717183126536</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1812623.436095901</v>
+        <v>19.03252472654555</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1292055.132783355</v>
+        <v>19.08153788128585</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1226393.549403316</v>
+        <v>19.10116282795043</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1790836.098762523</v>
+        <v>19.0735336969081</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-198650.485219863</v>
+        <v>19.11269370847591</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-59005.37110814522</v>
+        <v>19.12696611589203</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1252525.782524429</v>
+        <v>19.11099873498192</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-855259.5673423461</v>
+        <v>19.13486902764661</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-688947.6203329319</v>
+        <v>19.14977556107673</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-475502.1470236367</v>
+        <v>19.02460819303115</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1030065.933188305</v>
+        <v>19.09250360424321</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-622759.7989703431</v>
+        <v>19.11861571588326</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-611016.0227147019</v>
+        <v>19.00548712570403</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-461045.4997861102</v>
+        <v>19.11239148216436</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-262964.1231759641</v>
+        <v>19.14586964406489</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-835196.7903877352</v>
+        <v>18.98480544128566</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-955481.7810790995</v>
+        <v>19.05892698872105</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-819488.8812571729</v>
+        <v>19.09612857923233</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1447008.861042861</v>
+        <v>19.0443505939293</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-812149.0424701474</v>
+        <v>19.10304171925133</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-699919.2764029365</v>
+        <v>19.05409145215848</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-291880.8954886059</v>
+        <v>19.14652728299543</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-155434.5432111096</v>
+        <v>19.16336319536184</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1476656.644863927</v>
+        <v>19.06513197691836</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38404.13547786372</v>
+        <v>19.13031228556434</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>74952.94085139246</v>
+        <v>19.14897870114439</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1609451.29928524</v>
+        <v>19.110844136371</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>888954.2964992877</v>
+        <v>19.1633185576233</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>969363.0873343025</v>
+        <v>19.17673017042442</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>526611.059139233</v>
+        <v>19.1831241789937</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>957338.1005025319</v>
+        <v>19.21242753138424</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1099630.110401686</v>
+        <v>19.22672657523406</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-82054.40529519226</v>
+        <v>19.0781602932579</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>500245.9849137011</v>
+        <v>19.16865278876555</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>601497.8196708156</v>
+        <v>19.1930464820542</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-458440.6028289738</v>
+        <v>19.04280964567457</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-79721.38704550872</v>
+        <v>19.17394659195684</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>106968.4128004886</v>
+        <v>19.20777182556852</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-714512.9705570885</v>
+        <v>19.04073940258964</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-162687.9981803176</v>
+        <v>19.13803213691323</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>145372.5407314693</v>
+        <v>19.17522146441775</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>306219.7602742098</v>
+        <v>19.18440142343788</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1021048.220538486</v>
+        <v>19.04913174180804</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-515978.0311540994</v>
+        <v>19.14163691556158</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-213936.4929891989</v>
+        <v>19.15872223028939</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1528353.187519752</v>
+        <v>19.06351640788158</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>39163.5827840697</v>
+        <v>19.12993383951384</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>361527.0773149399</v>
+        <v>19.14887791680476</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1487569.164230662</v>
+        <v>19.10808147985098</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1126639.279061509</v>
+        <v>19.16163237009263</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1496361.897349531</v>
+        <v>19.17534814345261</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>732723.5970981718</v>
+        <v>19.18182772960244</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1003237.465003078</v>
+        <v>19.21126811340093</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1373010.899071096</v>
+        <v>19.2258820355083</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-552235.8189607324</v>
+        <v>19.07664496249654</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>119889.4173178546</v>
+        <v>19.16891125126679</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>428406.1743509329</v>
+        <v>19.19359565891322</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-691358.3212826345</v>
+        <v>19.03738905703349</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-332389.3946866793</v>
+        <v>19.16856709238917</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>19041.3324468541</v>
+        <v>19.20255454903426</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-842857.1050667288</v>
+        <v>19.04052863333841</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-323651.756059616</v>
+        <v>19.13937733057248</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>255692.755858234</v>
+        <v>19.17676282710273</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1085791.639623906</v>
+        <v>19.10480774567248</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>255825.402011174</v>
+        <v>19.18389116986236</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-2351633.369700514</v>
+        <v>19.05853828431057</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-1456550.83406879</v>
+        <v>19.13182967928276</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-604371.8258471303</v>
+        <v>19.14919058050443</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-2324743.485450022</v>
+        <v>19.06834961189054</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-364873.4948047975</v>
+        <v>19.11904097153042</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>447512.4686157452</v>
+        <v>19.13855083978273</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-2731521.108302102</v>
+        <v>19.10320158315746</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>706158.2876852585</v>
+        <v>19.14392010626538</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1563598.575583556</v>
+        <v>19.15834062042172</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-62279.36460569198</v>
+        <v>19.15064514500026</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>267431.68678452</v>
+        <v>19.17419900765895</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>824045.1958141075</v>
+        <v>19.18944219581272</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-1150499.551931198</v>
+        <v>19.06753631576631</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-516794.3632358739</v>
+        <v>19.1378141888916</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>386198.4245338773</v>
+        <v>19.16367988546145</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1289268.085787514</v>
+        <v>19.04295620407193</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-479699.7736645237</v>
+        <v>19.14697674284189</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>162473.1181849383</v>
+        <v>19.1795253621244</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1151817.020422484</v>
+        <v>19.0405447299251</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-443148.5617661546</v>
+        <v>19.11648509854745</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>448563.9939909285</v>
+        <v>19.15265689102763</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-1723086.060571024</v>
+        <v>19.09127851190225</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>77670.82466639485</v>
+        <v>19.15177468926829</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-482497.5630250624</v>
+        <v>19.13110905389089</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-609346.4402840813</v>
+        <v>19.10977771370318</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>120402.65038669</v>
+        <v>19.15410886633138</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>212134.3613397402</v>
+        <v>19.18287322160048</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-716779.9640135798</v>
+        <v>18.99653807673234</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-606360.4230545049</v>
+        <v>19.1048616074681</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-475921.2501064183</v>
+        <v>19.15157507773077</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-323051.4509492331</v>
+        <v>19.00509233042285</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-314835.1211000748</v>
+        <v>19.1306926610823</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>171871.9965318993</v>
+        <v>19.17084547931334</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-778984.9732877692</v>
+        <v>18.98080652194831</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-912345.9951076264</v>
+        <v>19.07374809091784</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-614225.8582274094</v>
+        <v>19.11887714221549</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-1111594.708577488</v>
+        <v>19.05900430034686</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-422606.4906703897</v>
+        <v>19.13322262911885</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>233448.7734143545</v>
+        <v>19.16748246642138</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-284116.3292144574</v>
+        <v>19.17044263443009</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>297052.5061170885</v>
+        <v>19.22085634103189</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>479789.7924797821</v>
+        <v>19.25756158620795</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-606145.1814530625</v>
+        <v>19.02865320055308</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-503940.1228073682</v>
+        <v>19.16394495112764</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-170213.0440623078</v>
+        <v>19.2209608144724</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>851616.8740787242</v>
+        <v>19.21235679328455</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>346427.7719071071</v>
+        <v>19.22383860916985</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>680596.2990672579</v>
+        <v>19.27641382134458</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>862925.9214902549</v>
+        <v>19.30517001534882</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-188923.650041183</v>
+        <v>19.08618207627974</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>528221.0361608595</v>
+        <v>19.22734744939637</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>606812.1701033919</v>
+        <v>19.27309353672334</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-35831.71473680122</v>
+        <v>19.063534777406</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>430528.2369563673</v>
+        <v>19.2163769244219</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>698037.599171059</v>
+        <v>19.25649268216897</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-454774.1488248541</v>
+        <v>19.06155558570363</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>344443.2163066044</v>
+        <v>19.18084098118028</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>557507.4219339859</v>
+        <v>19.22552005878938</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-561177.3274547748</v>
+        <v>19.14694978916637</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1111065.208465974</v>
+        <v>19.24281649058281</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1578490.109682839</v>
+        <v>19.27658118826381</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1224097.038692927</v>
+        <v>19.32206164358839</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1402156.108473649</v>
+        <v>19.38133125444747</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1582348.891613816</v>
+        <v>19.41808795227162</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>287448.7372008238</v>
+        <v>19.15239817930244</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1125287.641567909</v>
+        <v>19.32492205466028</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1305031.964872407</v>
+        <v>19.38036716049789</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1108750.546883219</v>
+        <v>19.21210972813063</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>169519.1770983334</v>
+        <v>19.22357895404628</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>343544.9188061528</v>
+        <v>19.27593932198111</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>784008.689780093</v>
+        <v>19.30498196193274</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-403664.4194815679</v>
+        <v>19.08589214418917</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>396619.3467128836</v>
+        <v>19.22911610803101</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>637264.4233314847</v>
+        <v>19.27507458517514</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-268323.8301072377</v>
+        <v>19.06362159697818</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>295688.9322198729</v>
+        <v>19.21626844360912</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>709435.7445077098</v>
+        <v>19.25627666546462</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-575156.7264547829</v>
+        <v>19.06807362881364</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>340945.9740262432</v>
+        <v>19.18872477228092</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>773317.8519530192</v>
+        <v>19.2332802109509</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-637346.9494092949</v>
+        <v>19.15094729482811</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1224086.190261255</v>
+        <v>19.24803935021759</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1921496.927829066</v>
+        <v>19.28181682610451</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1243811.015255376</v>
+        <v>19.32828117028989</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1363387.644756237</v>
+        <v>19.38723140361473</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1698569.203513212</v>
+        <v>19.4240165693234</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62486.97285630391</v>
+        <v>19.15911086049665</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1057091.933296889</v>
+        <v>19.33337738890566</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1424514.700656323</v>
+        <v>19.38862942504107</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1283086.229053812</v>
+        <v>19.17932120164823</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-458626.863178578</v>
+        <v>19.16924912158003</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-45662.24205556232</v>
+        <v>19.21187124235983</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>578651.9139452915</v>
+        <v>19.24039662617071</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-822123.6905570588</v>
+        <v>19.06087887113861</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>342861.3479682966</v>
+        <v>19.1711776588484</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>852035.6890226793</v>
+        <v>19.21663905048155</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-575071.119463529</v>
+        <v>19.06021201328562</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>427554.1187186902</v>
+        <v>19.18174228726121</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1337418.924955934</v>
+        <v>19.22022766063273</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-765078.5437036974</v>
+        <v>19.0575317566425</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>356497.8511571665</v>
+        <v>19.1512098626939</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1273520.079700336</v>
+        <v>19.19443305230454</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-1039777.96797647</v>
+        <v>19.12415589888326</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1316926.435551113</v>
+        <v>19.19929007151636</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2652732.20150392</v>
+        <v>19.23234876229726</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1075486.332286494</v>
+        <v>19.24910565767902</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1480394.56708881</v>
+        <v>19.2973874252803</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2221150.561528142</v>
+        <v>19.33312977170938</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-334626.2834634047</v>
+        <v>19.11434185775601</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1008894.275471371</v>
+        <v>19.24996182086185</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1855305.67508297</v>
+        <v>19.30461835394253</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-732271.1760425677</v>
+        <v>19.05085319874224</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-23581.54739622451</v>
+        <v>19.17222796232021</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>459102.6034843098</v>
+        <v>19.19539395257842</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-747034.3021369029</v>
+        <v>19.05697809690465</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>462655.5058392984</v>
+        <v>19.14384739415521</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>650841.5264118384</v>
+        <v>19.16989401439591</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-374734.962042093</v>
+        <v>19.12067646158121</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1499739.119725456</v>
+        <v>19.19066655819416</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1754039.114869</v>
+        <v>19.20947663231233</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>272659.1645342387</v>
+        <v>19.20693179266088</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>486301.2613400642</v>
+        <v>19.2495170300901</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>562707.9500897157</v>
+        <v>19.26594430870637</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-202642.5932296736</v>
+        <v>19.07015664710622</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>125361.8993512169</v>
+        <v>19.18979849681473</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>597956.1882890003</v>
+        <v>19.22403024194288</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-214951.2266500469</v>
+        <v>19.00911362681733</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>233460.7866308412</v>
+        <v>19.17940309670863</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>223162.3979549315</v>
+        <v>19.22357424296792</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-465492.6118971064</v>
+        <v>18.98979358679168</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-15433.10051431466</v>
+        <v>19.11706027834558</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-45420.30687177891</v>
+        <v>19.16598884773914</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-403203.83594693</v>
+        <v>19.08232597416829</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>448474.7675638814</v>
+        <v>19.18402392305661</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-369612.6585649573</v>
+        <v>19.07950860072172</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>503832.2943355943</v>
+        <v>19.22637957734263</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>726595.1875868405</v>
+        <v>19.24841480512273</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-555344.4177936062</v>
+        <v>19.10402406424634</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>950144.8622075368</v>
+        <v>19.2151532031381</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1001868.109363816</v>
+        <v>19.23953230151003</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-282141.3437871315</v>
+        <v>19.17520363434937</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1811324.375024164</v>
+        <v>19.2651939543263</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1902464.087044162</v>
+        <v>19.28253004428672</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1002459.5216648</v>
+        <v>19.3121863733827</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1171740.423162186</v>
+        <v>19.36327680259424</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1180246.233618428</v>
+        <v>19.37832091165179</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-76751.19818439198</v>
+        <v>19.14794908165748</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>741186.2717804685</v>
+        <v>19.30146661916462</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>911964.4581760769</v>
+        <v>19.33280567615932</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>9916.431847940958</v>
+        <v>19.06130996045567</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>473008.0410490494</v>
+        <v>19.26738725682528</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>417102.7370217892</v>
+        <v>19.31153713264392</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-310286.4343794521</v>
+        <v>19.068186819916</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>332633.1556209925</v>
+        <v>19.22999144314968</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>288710.4971196941</v>
+        <v>19.27832475478082</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-133741.8653610976</v>
+        <v>19.17092598807819</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>894200.0994425677</v>
+        <v>19.30099795161558</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-652550.3960315272</v>
+        <v>19.06890506650403</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>275394.8212885264</v>
+        <v>19.21535288969668</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>550769.948598901</v>
+        <v>19.23772499891563</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-701155.5803091018</v>
+        <v>19.09769017212198</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>848529.1993507559</v>
+        <v>19.20995663411606</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>993462.9961703981</v>
+        <v>19.2347109791726</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-405722.3827998882</v>
+        <v>19.16712528402091</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1756821.444195118</v>
+        <v>19.25813089711095</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1940822.688864416</v>
+        <v>19.27588128494933</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1105526.278971725</v>
+        <v>19.30476593808497</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1227593.060676467</v>
+        <v>19.35576615483904</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1291036.087272107</v>
+        <v>19.37133536552764</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-390913.9421803609</v>
+        <v>19.14067948174968</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>510971.1443376248</v>
+        <v>19.29589091846472</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>721195.866167778</v>
+        <v>19.32762947549918</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-89257.97855692706</v>
+        <v>19.04949457377616</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>363553.5734589839</v>
+        <v>19.25495472895514</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>365276.2515530181</v>
+        <v>19.29934301554167</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-386937.0086009685</v>
+        <v>19.06318560526337</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>246609.6639772498</v>
+        <v>19.22639738727646</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>288664.1547920102</v>
+        <v>19.27502133684392</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-193116.3499128347</v>
+        <v>19.16336435388283</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>843566.123907736</v>
+        <v>19.2947300735059</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-1390125.399226962</v>
+        <v>19.07545113751418</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-19046.84938931092</v>
+        <v>19.19233525462404</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>640262.8407971243</v>
+        <v>19.21542070475302</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-999864.5859200809</v>
+        <v>19.09694113281386</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1073985.508122107</v>
+        <v>19.18416799830243</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1518586.265731766</v>
+        <v>19.21008337198444</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-709408.8071349432</v>
+        <v>19.15142595264765</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2239034.154824795</v>
+        <v>19.22194938960109</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2739121.820675584</v>
+        <v>19.24099006321566</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1236685.25870412</v>
+        <v>19.24756824804965</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1503220.760938588</v>
+        <v>19.28873071893531</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1629913.937609492</v>
+        <v>19.30598246608723</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-582715.198549265</v>
+        <v>19.11699595305429</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>520242.1312798121</v>
+        <v>19.23731755725109</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1113632.399942744</v>
+        <v>19.27128970063232</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-372606.0370179691</v>
+        <v>19.05129111111235</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>385991.087405798</v>
+        <v>19.21527727571767</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>477712.5632658544</v>
+        <v>19.25828598719177</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-601856.7426792884</v>
+        <v>19.05626219962621</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>259029.5237217207</v>
+        <v>19.18348533402492</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>405818.3086218293</v>
+        <v>19.23114008180811</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-439361.0888867446</v>
+        <v>19.13560014895737</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>967893.1988643605</v>
+        <v>19.23768089846934</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>471383.9661662206</v>
+        <v>19.22072286449693</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>210279.6454285333</v>
+        <v>19.21356664087589</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>496525.8608580739</v>
+        <v>19.28745054331672</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>496283.430458289</v>
+        <v>19.32125528028045</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-28120.40291030175</v>
+        <v>19.03545605455956</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>284108.9023576999</v>
+        <v>19.21872077075912</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>302286.1751815189</v>
+        <v>19.27923886114033</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-97357.91303922795</v>
+        <v>19.00899972339155</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>218051.2935547812</v>
+        <v>19.2064098830079</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>434914.0054009746</v>
+        <v>19.25982747863582</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-408126.2421035502</v>
+        <v>18.98523107885942</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-48192.98905814579</v>
+        <v>19.13991874913095</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>111575.2837818224</v>
+        <v>19.19979564018474</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-211792.5007699693</v>
+        <v>19.10421673051934</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>544210.9452960916</v>
+        <v>19.22854801554783</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>839436.5440115497</v>
+        <v>19.27380913744881</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>255923.6771197949</v>
+        <v>19.29999811972694</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>549807.9923559201</v>
+        <v>19.38301730038259</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>605609.0056867806</v>
+        <v>19.42765083524401</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-25293.64855738938</v>
+        <v>19.08114926307246</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>299123.1066411583</v>
+        <v>19.30366118848004</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>453080.6162668553</v>
+        <v>19.37826301604935</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>922850.1510237653</v>
+        <v>19.33706231047572</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>641200.3210418306</v>
+        <v>19.37678995953875</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>754463.6696453332</v>
+        <v>19.46337348190824</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>731806.1494445766</v>
+        <v>19.49639735986334</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>147563.9996346462</v>
+        <v>19.16267853485517</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>692994.5773777796</v>
+        <v>19.39481466017705</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>606220.466319117</v>
+        <v>19.45313211784842</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-8300.053051042893</v>
+        <v>19.08921951114803</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-311481.3704591575</v>
+        <v>19.09673239295179</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>357563.2456010298</v>
+        <v>19.29049007376622</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>361496.1749333927</v>
+        <v>19.34908777948638</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-138171.1915777934</v>
+        <v>19.22710840134213</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>928225.7197814037</v>
+        <v>19.38357981157925</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1023181.54764704</v>
+        <v>19.42761327485965</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>721465.6146851898</v>
+        <v>19.5138174165678</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>808652.6645075652</v>
+        <v>19.61045657280598</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>833760.4867298593</v>
+        <v>19.65434810143788</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>171926.6080797559</v>
+        <v>19.25410770453707</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>754314.2102401265</v>
+        <v>19.53176674798108</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>753244.5382571814</v>
+        <v>19.60321676986188</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>973346.1186777962</v>
+        <v>19.33117538905926</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>606079.9184069542</v>
+        <v>19.36982647936883</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>667498.921970265</v>
+        <v>19.45574812390627</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>718074.212101885</v>
+        <v>19.48929714767231</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36297.93218571</v>
+        <v>19.15625588577106</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>639883.5119402399</v>
+        <v>19.39025356251643</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>587346.4631587191</v>
+        <v>19.44890810677501</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-124232.5990550013</v>
+        <v>19.08480294154664</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>362875.6348242785</v>
+        <v>19.32131878183042</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>438518.1485361818</v>
+        <v>19.37397419886253</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-398885.8305785598</v>
+        <v>19.10079941382251</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>324921.9661101501</v>
+        <v>19.29566785776153</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>376374.6792265085</v>
+        <v>19.35410121527187</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-225867.8730390093</v>
+        <v>19.22743463981261</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>920944.4017267056</v>
+        <v>19.38495886134811</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1066119.832884626</v>
+        <v>19.42901605998292</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>732323.7435290411</v>
+        <v>19.51549491966939</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>804061.8220562035</v>
+        <v>19.61131298330875</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>866913.3591799706</v>
+        <v>19.65536672815602</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>58377.33612560813</v>
+        <v>19.25709163317354</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>733611.4594518852</v>
+        <v>19.53613199098642</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>762934.1169996294</v>
+        <v>19.60734403318991</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1213492.272279541</v>
+        <v>19.27378703046623</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>462975.0189197894</v>
+        <v>19.27944782176943</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>641647.3212683846</v>
+        <v>19.34967641156307</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>734702.7997100095</v>
+        <v>19.38366479319203</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-37214.03122909728</v>
+        <v>19.11018443289454</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>796970.3124575554</v>
+        <v>19.29276986918816</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>826525.1165432289</v>
+        <v>19.35183341128738</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-250567.7692235908</v>
+        <v>19.0753344542475</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>542257.6778830629</v>
+        <v>19.26469163345719</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>793457.8993415638</v>
+        <v>19.31589917992823</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-510794.4799050642</v>
+        <v>19.08043612008349</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>461412.4736316117</v>
+        <v>19.23346238625853</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>695041.1845648105</v>
+        <v>19.29082753250506</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-283644.3526118173</v>
+        <v>19.18233172767132</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1251802.683565174</v>
+        <v>19.30571639009163</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1636832.828300098</v>
+        <v>19.3494205832502</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>850258.5446594759</v>
+        <v>19.39195268845436</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1102942.134116751</v>
+        <v>19.47067520869976</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1265038.677736538</v>
+        <v>19.51447780746107</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>61756.81674488424</v>
+        <v>19.18506864788964</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1028168.167331397</v>
+        <v>19.40446155378082</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1204954.049531443</v>
+        <v>19.47605320532236</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-738587.9946870198</v>
+        <v>19.08066647774578</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>447925.9700954499</v>
+        <v>19.18085215567332</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>800563.6602424739</v>
+        <v>19.19878945920784</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1686890.53999615</v>
+        <v>19.08164289876583</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-113437.0311630851</v>
+        <v>19.1538067254737</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-69427.17308592168</v>
+        <v>19.17373645727674</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1186803.368834259</v>
+        <v>19.13462572471741</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1618655.436753458</v>
+        <v>19.19266800439996</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1669702.045631905</v>
+        <v>19.20693301189024</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>81274.79411975504</v>
+        <v>19.20427099587998</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>405848.7478446573</v>
+        <v>19.23929576425339</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>361968.4686940748</v>
+        <v>19.25122620511367</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-696957.7729654859</v>
+        <v>19.09007832003179</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-142100.5041982051</v>
+        <v>19.19004863189982</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>146491.4119649536</v>
+        <v>19.21597076597669</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-146388.4172049369</v>
+        <v>19.05216072726772</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>566509.1119119623</v>
+        <v>19.19221591964118</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>527812.9623858613</v>
+        <v>19.22715718931395</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-654569.9916420323</v>
+        <v>19.03131645540163</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1651.612316364774</v>
+        <v>19.13636628833176</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-8941.667737355221</v>
+        <v>19.17475548994746</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-658306.2404090265</v>
+        <v>19.10809780429789</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>662654.7912257276</v>
+        <v>19.19190941596883</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-254061.8474009447</v>
+        <v>19.1049007212458</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1273711.672028156</v>
+        <v>19.22616007056802</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1245518.086572145</v>
+        <v>19.24299004641091</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-1146340.156011885</v>
+        <v>19.12059141341631</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1050289.328815013</v>
+        <v>19.2128517646986</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>881654.0350330002</v>
+        <v>19.23118920006775</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-806476.2276869733</v>
+        <v>19.17981084209612</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>2461027.60149822</v>
+        <v>19.25441332741478</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2267492.108363402</v>
+        <v>19.26728472192674</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1249526.978685345</v>
+        <v>19.29083515812826</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1555736.164327849</v>
+        <v>19.33294828947396</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1433101.299507837</v>
+        <v>19.34354712224412</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-377372.5452382442</v>
+        <v>19.15385367411479</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1027637.900239983</v>
+        <v>19.28194792146364</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>956127.5903395609</v>
+        <v>19.30517350014314</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>124081.4181814186</v>
+        <v>19.09626527235511</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>935199.3406740396</v>
+        <v>19.26585733488886</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>848885.0728856993</v>
+        <v>19.30054672077372</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-413115.679635964</v>
+        <v>19.09646995027844</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>628053.0098027663</v>
+        <v>19.23007548505468</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>596898.2420927652</v>
+        <v>19.26768589479393</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-221342.0721659724</v>
+        <v>19.18175003006222</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1455064.700291303</v>
+        <v>19.28901133477013</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-605862.5993578593</v>
+        <v>19.09512636658217</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>986343.6587990902</v>
+        <v>19.21601554940699</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1009012.81041656</v>
+        <v>19.23315706440302</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1253258.335338781</v>
+        <v>19.11440877858804</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>993103.3445588056</v>
+        <v>19.20756902338593</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>941264.7597348306</v>
+        <v>19.22626259749234</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-882549.437891674</v>
+        <v>19.17218054388511</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2464554.901900909</v>
+        <v>19.24759274587253</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2383738.847014005</v>
+        <v>19.26084279978182</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1407087.6410596</v>
+        <v>19.28361755492858</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1638256.274253681</v>
+        <v>19.32567245081689</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1593593.869517929</v>
+        <v>19.33675440653499</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-802276.5577731684</v>
+        <v>19.14684177827716</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>717580.0806504862</v>
+        <v>19.27626702108713</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>656034.5124570741</v>
+        <v>19.29988775892542</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-21536.94074029842</v>
+        <v>19.0850249778476</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>767392.9074764105</v>
+        <v>19.25409294131721</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>784963.8828069991</v>
+        <v>19.28902379836923</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-510185.5260546939</v>
+        <v>19.09091163421688</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>508430.4974012098</v>
+        <v>19.22564307869152</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>624732.8297955206</v>
+        <v>19.26355491361793</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-296542.8491990752</v>
+        <v>19.1740802848967</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1381433.284520709</v>
+        <v>19.28238467938423</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1214572.51111484</v>
+        <v>19.09847008115448</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1067881.176517857</v>
+        <v>19.19490376244446</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1601206.281324045</v>
+        <v>19.2128937131363</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-1508200.355734571</v>
+        <v>19.1124732973418</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1406611.555436722</v>
+        <v>19.18482990354774</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1815453.760297224</v>
+        <v>19.20481385559163</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1116261.335040267</v>
+        <v>19.15780608019887</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>3375606.708346928</v>
+        <v>19.21621638602715</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3743539.850848915</v>
+        <v>19.23080111020931</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1744972.09365458</v>
+        <v>19.23545746995328</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2246613.343199771</v>
+        <v>19.26934723717813</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2274805.821097098</v>
+        <v>19.28213534462792</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-893592.5099001131</v>
+        <v>19.12661647558635</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>974507.5635731006</v>
+        <v>19.22695781558593</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>1272156.040249905</v>
+        <v>19.25289973784741</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-233889.4509516588</v>
+        <v>19.08317544933805</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>968120.5571529248</v>
+        <v>19.21801244820913</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1140375.833944938</v>
+        <v>19.25215166453949</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-635397.6641810389</v>
+        <v>19.08273281138684</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>644937.7733413957</v>
+        <v>19.18766570874227</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>979192.0239932096</v>
+        <v>19.2252168637924</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-468911.4787856926</v>
+        <v>19.14860233240329</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1698023.863944361</v>
+        <v>19.23267795482342</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>692525.1182463656</v>
+        <v>19.22058132049431</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>372886.3662776089</v>
+        <v>19.21348640625673</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>843224.4748484476</v>
+        <v>19.27382214358068</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>813032.7627878584</v>
+        <v>19.29971525171391</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-89643.46911358339</v>
+        <v>19.06511595053527</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>362851.9112852534</v>
+        <v>19.21715859238703</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>479541.6360439591</v>
+        <v>19.26412790494775</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-8634.586920336818</v>
+        <v>19.05169504532298</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>575464.7212278955</v>
+        <v>19.21406580647011</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>739140.4454441912</v>
+        <v>19.25642163685528</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-656062.945877259</v>
+        <v>19.0269428390349</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-76750.0421835687</v>
+        <v>19.15460357170738</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>84975.62641467364</v>
+        <v>19.20171762282169</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-483415.5992724749</v>
+        <v>19.12538708864768</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>732952.550347415</v>
+        <v>19.22786428888053</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>1086689.246344228</v>
+        <v>19.26334925722867</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>436112.3178648266</v>
+        <v>19.28360490574173</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>858701.6493314544</v>
+        <v>19.35135670780993</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>923873.6208907678</v>
+        <v>19.38622217873124</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-95236.67055724002</v>
+        <v>19.10204152992364</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>442887.9407403818</v>
+        <v>19.28640605255739</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>645752.8114273093</v>
+        <v>19.34459583430361</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1504758.109682924</v>
+        <v>19.31692193784412</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1043416.148587711</v>
+        <v>19.34805336554737</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1302381.303253021</v>
+        <v>19.41892650955708</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1247134.360608189</v>
+        <v>19.44392749350343</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>177881.7397135186</v>
+        <v>19.1698184129374</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1083519.550434445</v>
+        <v>19.36235258717556</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1059999.21039483</v>
+        <v>19.4070901919202</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>162971.2674812156</v>
+        <v>19.11856956769043</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1010152.338923739</v>
+        <v>19.31400666967557</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>891483.7579467063</v>
+        <v>19.35558860543579</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-460881.1659314819</v>
+        <v>19.11901901657918</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>673426.181486306</v>
+        <v>19.27896501828989</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>547370.5199592127</v>
+        <v>19.32469288907931</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-283698.3823199329</v>
+        <v>19.22694144967386</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1489813.695497073</v>
+        <v>19.35596856743513</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1486523.321887186</v>
+        <v>19.39016764461575</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1228746.750454838</v>
+        <v>19.45940670834336</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1372895.511492805</v>
+        <v>19.53844276795881</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1382662.901381657</v>
+        <v>19.57244003378856</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>227518.9868166188</v>
+        <v>19.2440105983417</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1228837.007101407</v>
+        <v>19.47403025530653</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1175723.468222044</v>
+        <v>19.52914285215538</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1604096.174397267</v>
+        <v>19.3106586865268</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>987764.7284008996</v>
+        <v>19.34071416287249</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1169919.015196796</v>
+        <v>19.41107904731208</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1247793.593392254</v>
+        <v>19.43657579598402</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18218.47068109276</v>
+        <v>19.16302025957978</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1016308.672147177</v>
+        <v>19.3570245789478</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1045689.556638952</v>
+        <v>19.40212732582784</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-7900.747191742526</v>
+        <v>19.11333639776458</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>895837.5597140312</v>
+        <v>19.30795258205756</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>831164.6671110552</v>
+        <v>19.34946444678894</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-594372.0857428343</v>
+        <v>19.12084163651287</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>612728.1753602177</v>
+        <v>19.28166417880908</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>568411.8377470141</v>
+        <v>19.3273274934042</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-422535.5247078139</v>
+        <v>19.22568836531342</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>1459677.66680462</v>
+        <v>19.35555589415818</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1544115.112001407</v>
+        <v>19.38983119212456</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1232957.424780808</v>
+        <v>19.45909099156029</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1352749.671517949</v>
+        <v>19.53749185853936</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1443304.167896504</v>
+        <v>19.57168271329609</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>55418.95763643226</v>
+        <v>19.24486020569882</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1197074.082759675</v>
+        <v>19.47595008609402</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1188959.923759927</v>
+        <v>19.53096413940435</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>2144088.093554228</v>
+        <v>19.26103157209126</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>875789.1508082672</v>
+        <v>19.26420653894639</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1226750.41378171</v>
+        <v>19.32163137982792</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1386374.070172054</v>
+        <v>19.34789813098628</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>55668.03531779663</v>
+        <v>19.12340436875101</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>1347706.536532099</v>
+        <v>19.27471045656518</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1496075.721853531</v>
+        <v>19.32078810721043</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-170353.2913888965</v>
+        <v>19.10246086353042</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1163891.41687875</v>
+        <v>19.25816761462722</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1368395.376155899</v>
+        <v>19.29887912509528</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-694898.9891389991</v>
+        <v>19.10189356433804</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>820611.777961472</v>
+        <v>19.22809268848701</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1107738.414134994</v>
+        <v>19.27337997865089</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-524574.6206069624</v>
+        <v>19.1862348135171</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1880353.368572275</v>
+        <v>19.2878711749085</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>2388103.124617679</v>
+        <v>19.3222687568727</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1379311.116357307</v>
+        <v>19.35567001296328</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1758653.095955675</v>
+        <v>19.41999580199673</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>2043989.523942686</v>
+        <v>19.45439126408294</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>112450.2920024481</v>
+        <v>19.18421369182755</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1666125.516574457</v>
+        <v>19.36582332262115</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1889456.815205656</v>
+        <v>19.42187775961384</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-632990.8277354192</v>
+        <v>19.04405817067825</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-340761.3907513412</v>
+        <v>19.13646521880218</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>244036.3858657017</v>
+        <v>19.15347038984474</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1647683.699715866</v>
+        <v>19.03983754247131</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-809780.4420626808</v>
+        <v>19.10491322415349</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-668324.4237684974</v>
+        <v>19.12381246119348</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1457128.968562714</v>
+        <v>19.09151152617061</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>550336.6031182132</v>
+        <v>19.14377564034241</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>758742.8914710179</v>
+        <v>19.15729313650279</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-434151.1590095812</v>
+        <v>19.14689960780294</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-223443.6515095544</v>
+        <v>19.17805920637224</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-182006.7372558829</v>
+        <v>19.18878922801337</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-482332.4056156461</v>
+        <v>19.04331414386283</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-371788.8966700168</v>
+        <v>19.13401792132646</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>116508.2103086393</v>
+        <v>19.15887064550443</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-476873.4732151923</v>
+        <v>19.00251938160786</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-104432.3091947383</v>
+        <v>19.1324377940641</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-41012.29259148263</v>
+        <v>19.16581282152201</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-903439.8293186657</v>
+        <v>18.97552128454027</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-623740.8009182551</v>
+        <v>19.07137068509152</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-563025.4588493925</v>
+        <v>19.10804740408345</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1189481.231295283</v>
+        <v>19.0505992052662</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-222795.202082477</v>
+        <v>19.12693808260233</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-408617.0363603529</v>
+        <v>19.06219864287996</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>172760.1082568604</v>
+        <v>19.17437995404527</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>382535.1691385977</v>
+        <v>19.19030927048689</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1268625.496105723</v>
+        <v>19.07151706019459</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>116424.8249901899</v>
+        <v>19.15536679800948</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>76604.35169755865</v>
+        <v>19.17273233467886</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1166612.348262397</v>
+        <v>19.12929977311857</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1234269.086659451</v>
+        <v>19.19703520808433</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1215174.976424227</v>
+        <v>19.20920991551679</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>711212.0758636673</v>
+        <v>19.2229941232662</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>943280.0680451373</v>
+        <v>19.26072816062872</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>940081.012982025</v>
+        <v>19.27009304972009</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-150982.1538870902</v>
+        <v>19.0982232347923</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>781943.0930152911</v>
+        <v>19.21527350269227</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>872492.0636929087</v>
+        <v>19.23755197386342</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-327765.8752426453</v>
+        <v>19.03855113077894</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>162533.8954020148</v>
+        <v>19.19626948243297</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>208835.8740094929</v>
+        <v>19.22940322729408</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-726164.2546731303</v>
+        <v>19.0310100814096</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-19856.14662941184</v>
+        <v>19.15364488878481</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>62897.88965488819</v>
+        <v>19.18958770892549</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-773929.6166284534</v>
+        <v>19.1144003477578</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>592571.2378107535</v>
+        <v>19.21273422577325</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-804943.1574528628</v>
+        <v>19.05357472451478</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-211930.1985214871</v>
+        <v>19.1654973305982</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>72897.45470698911</v>
+        <v>19.18172908281857</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1401512.370575498</v>
+        <v>19.06646074794203</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-27334.34402814938</v>
+        <v>19.15127957376966</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>79946.54523257259</v>
+        <v>19.16899165631011</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1236413.148505049</v>
+        <v>19.12284782586268</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1182022.853043862</v>
+        <v>19.19144755609658</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1307298.947555129</v>
+        <v>19.20398867977685</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>830362.6130318866</v>
+        <v>19.21718806220591</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>988838.6906563106</v>
+        <v>19.25494181669489</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1097166.962484937</v>
+        <v>19.2647886222651</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-619870.1024134549</v>
+        <v>19.09245734705452</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>417967.4126116018</v>
+        <v>19.21091804334355</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>528642.3219736752</v>
+        <v>19.233574731383</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-536959.6450754156</v>
+        <v>19.0289752822636</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-85317.69174237165</v>
+        <v>19.18630556428374</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>104699.6470282068</v>
+        <v>19.21967484156956</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-866648.2161108732</v>
+        <v>19.02707119193922</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-204852.0725081247</v>
+        <v>19.15091018155426</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>73622.39648154721</v>
+        <v>19.18714771443297</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-878594.4773275463</v>
+        <v>19.10840769140545</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>468736.6306210735</v>
+        <v>19.2078452313403</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1832157.137742311</v>
+        <v>19.0640387438954</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-768777.9822363469</v>
+        <v>19.15320090789645</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>100341.5450243831</v>
+        <v>19.17026655590371</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-2014015.03898125</v>
+        <v>19.07275626815748</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-139425.9519766719</v>
+        <v>19.13841032914744</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>464960.6770627062</v>
+        <v>19.15737300162516</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-2060549.183416903</v>
+        <v>19.11705623685832</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1317792.069206923</v>
+        <v>19.16999785452217</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1954226.257781679</v>
+        <v>19.18382958909966</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>753074.069579515</v>
+        <v>19.18103936351286</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1106198.246886227</v>
+        <v>19.21136637240615</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1305264.94534028</v>
+        <v>19.22298173957842</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1034503.865434674</v>
+        <v>19.0820083752501</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>332812.2078278137</v>
+        <v>19.17356175453743</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>869256.8016726737</v>
+        <v>19.19842119406905</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-934008.7419320421</v>
+        <v>19.03668049369014</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-159282.0283464598</v>
+        <v>19.16201532247658</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>234431.299455695</v>
+        <v>19.19462842352419</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1108341.403554889</v>
+        <v>19.02990770903982</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-303357.9993556058</v>
+        <v>19.12610779553045</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>241459.0417436996</v>
+        <v>19.16198922087464</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1271527.285506831</v>
+        <v>19.09441507466938</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>456289.1246371695</v>
+        <v>19.17139000934541</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-116542.4676070344</v>
+        <v>19.15434521398116</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-287506.7979825875</v>
+        <v>19.1357485816567</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>58313.11359262769</v>
+        <v>19.19057241398647</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19917.19639825484</v>
+        <v>19.21427762393118</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-521766.4338739544</v>
+        <v>19.00047009503955</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-288590.5265777124</v>
+        <v>19.14010263462004</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-148517.2250202588</v>
+        <v>19.18534025618603</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-136853.8719853282</v>
+        <v>19.01201587883731</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>169724.2126755277</v>
+        <v>19.16331058934988</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>425379.8559717404</v>
+        <v>19.2034502647492</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-800466.4837682571</v>
+        <v>18.98181217590107</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-489624.3441803984</v>
+        <v>19.0993159397907</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-279510.4265113289</v>
+        <v>19.14396748884956</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-769348.7660058272</v>
+        <v>19.07741296152656</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>223799.1096532822</v>
+        <v>19.17162834067238</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>619405.4336256413</v>
+        <v>19.20525045774612</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>120472.7509371149</v>
+        <v>19.2153505192148</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>375264.6826006565</v>
+        <v>19.2772461193572</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>434553.0509978461</v>
+        <v>19.30917377615237</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-333815.5639603371</v>
+        <v>19.04845489580728</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>8511.680018711604</v>
+        <v>19.21898061867298</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>253440.7861062197</v>
+        <v>19.27452930255343</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>758224.7418267047</v>
+        <v>19.23942174251188</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>431757.3363665859</v>
+        <v>19.25621824912695</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>634201.857820664</v>
+        <v>19.32088240457968</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>574809.4812754942</v>
+        <v>19.34359676782755</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>-189199.4724909165</v>
+        <v>19.0931024043502</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>544004.9149553379</v>
+        <v>19.27081323634828</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>555214.5452597508</v>
+        <v>19.3139571818408</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>79017.55995380809</v>
+        <v>19.07107987527017</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>691047.3476475741</v>
+        <v>19.2535458324331</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>676807.7425778855</v>
+        <v>19.29291870343653</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-472958.3258138308</v>
+        <v>19.06438868687721</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>456004.112536222</v>
+        <v>19.21223828818592</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>403851.797894874</v>
+        <v>19.25554632577945</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-365664.0037472111</v>
+        <v>19.16920813487124</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>1249970.076197912</v>
+        <v>19.28837825074555</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1302580.940601217</v>
+        <v>19.32075551613772</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1150990.622626755</v>
+        <v>19.37684844170105</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1165881.9025236</v>
+        <v>19.44930375543634</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1161572.08464455</v>
+        <v>19.48022767062028</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>226920.679242869</v>
+        <v>19.17834533122479</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1071366.367775453</v>
+        <v>19.39187414710464</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1075893.555656827</v>
+        <v>19.44449011546855</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>857137.9307085101</v>
+        <v>19.23488468987685</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>327669.396827824</v>
+        <v>19.25094220455911</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>462436.6453120479</v>
+        <v>19.31521664909763</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>562577.6529180747</v>
+        <v>19.33843750947569</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-387470.6011847273</v>
+        <v>19.08815809134161</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>449387.1683741579</v>
+        <v>19.26743867347229</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>539968.0446722908</v>
+        <v>19.31093022014618</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-114687.2021398225</v>
+        <v>19.06701231035557</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>581014.1284557648</v>
+        <v>19.24880682458605</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>640396.12221405</v>
+        <v>19.28812654609956</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-599620.1757555559</v>
+        <v>19.06726577632553</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>428813.7316576841</v>
+        <v>19.2160818554673</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>482739.7751887091</v>
+        <v>19.2593451942983</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-471864.983302467</v>
+        <v>19.16911124544609</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>1283753.553093579</v>
+        <v>19.2891918054695</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1446947.042492383</v>
+        <v>19.32165497372533</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1182961.976258773</v>
+        <v>19.37799417988525</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1186282.274315048</v>
+        <v>19.44994194437018</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1277368.34344818</v>
+        <v>19.4810923289121</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>52928.13889909338</v>
+        <v>19.18041555715085</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1077191.192839258</v>
+        <v>19.39513481226804</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1146132.186826119</v>
+        <v>19.44766689566469</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1120096.279869328</v>
+        <v>19.1984959833257</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-58576.32585409808</v>
+        <v>19.19077073078661</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>147418.6676226866</v>
+        <v>19.24312955553085</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>346909.5545701508</v>
+        <v>19.26729747306192</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-608786.1654501366</v>
+        <v>19.06206036357752</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>497573.8337262846</v>
+        <v>19.20157433676253</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>721723.9468967598</v>
+        <v>19.24593050860713</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-450744.0231474913</v>
+        <v>19.06418499865514</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>682806.0294302055</v>
+        <v>19.20951419535746</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1018304.316996563</v>
+        <v>19.24811708137929</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-831711.3543007692</v>
+        <v>19.05779265747688</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>503625.7033196255</v>
+        <v>19.1743629875118</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>886122.2881681926</v>
+        <v>19.21730831610472</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-778955.6179882789</v>
+        <v>19.1397815229919</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1521961.49093524</v>
+        <v>19.23357779072611</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>2106570.311042627</v>
+        <v>19.26619138288282</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1161908.730137799</v>
+        <v>19.28967930165336</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1342201.492800608</v>
+        <v>19.3486247017982</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>1652218.019308027</v>
+        <v>19.38023941774552</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-151711.6600058815</v>
+        <v>19.13176395113491</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1342060.312211001</v>
+        <v>19.30024989212988</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1641086.72755538</v>
+        <v>19.35376653002627</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-1331108.2964227</v>
+        <v>19.08034823303112</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-526621.0103418976</v>
+        <v>19.1606006131577</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>453976.0261481182</v>
+        <v>19.17834549160202</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-2289747.371516369</v>
+        <v>19.08407652375724</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-322661.18166465</v>
+        <v>19.14013159143584</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-40235.84866963455</v>
+        <v>19.16028787372427</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-1611748.2248432</v>
+        <v>19.12602252441516</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1931381.009472798</v>
+        <v>19.17108015157111</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2412125.352933316</v>
+        <v>19.18583487001307</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-245448.3500063155</v>
+        <v>19.18352354636932</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>307853.7317823094</v>
+        <v>19.21083701701163</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>598446.3932631365</v>
+        <v>19.22539583756182</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-532010.7944906107</v>
+        <v>19.09264621436845</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-195395.7101366627</v>
+        <v>19.16986034986799</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>647972.4424691838</v>
+        <v>19.19652514670929</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-492505.3367349735</v>
+        <v>19.06130788503609</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>441436.6864644573</v>
+        <v>19.17471417759186</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>850981.6022686546</v>
+        <v>19.20809594414539</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1337714.53300737</v>
+        <v>19.04811190693105</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-597819.7896080881</v>
+        <v>19.13141221978236</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-278428.0818711139</v>
+        <v>19.16873318679115</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-1445432.330804511</v>
+        <v>19.10883750135377</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>360583.1247476542</v>
+        <v>19.17524315553681</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-845176.8247860007</v>
+        <v>19.10523780075694</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>825315.7343480759</v>
+        <v>19.2027789291263</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>1213770.938305755</v>
+        <v>19.2200052139233</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-1839211.984357189</v>
+        <v>19.12222716850546</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1423842.821310445</v>
+        <v>19.19469577434255</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1491071.757127885</v>
+        <v>19.21401190837432</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-1493942.751949027</v>
+        <v>19.1688562793013</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>3219963.121117437</v>
+        <v>19.22743674160379</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3412065.111187295</v>
+        <v>19.24142964254336</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2033354.287688225</v>
+        <v>19.26243631466441</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2636020.618231306</v>
+        <v>19.29536788602771</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2735996.693142139</v>
+        <v>19.30932444068527</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-8746.024805410298</v>
+        <v>19.15295204081679</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1879227.483042609</v>
+        <v>19.25306307023182</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2144385.561211769</v>
+        <v>19.27816449195755</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-127825.2269344731</v>
+        <v>19.10489812331111</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1154210.677899233</v>
+        <v>19.24264291212763</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1447844.07429483</v>
+        <v>19.27641907181428</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-909030.2299121255</v>
+        <v>19.11057305396858</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>704425.8087901403</v>
+        <v>19.21732947181118</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>1103947.3266459</v>
+        <v>19.25472253018144</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-707726.0168030587</v>
+        <v>19.17767811362086</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>1976499.218067973</v>
+        <v>19.26334063911959</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-1565906.015303141</v>
+        <v>19.09942694298684</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>313899.1575716591</v>
+        <v>19.19680273601306</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>896305.1330989017</v>
+        <v>19.21423682190315</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-2150420.458222934</v>
+        <v>19.11951297274214</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1281755.308854865</v>
+        <v>19.19290947211727</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1680999.304571238</v>
+        <v>19.21245044045603</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-1716075.277282827</v>
+        <v>19.16494803347814</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>3252220.622080589</v>
+        <v>19.22434668487248</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3777342.151949381</v>
+        <v>19.23859840262227</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2262135.207257356</v>
+        <v>19.25937507199917</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2715483.316971273</v>
+        <v>19.29230572954271</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3042806.356688366</v>
+        <v>19.30655215395334</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>-744217.3678063971</v>
+        <v>19.14989513680624</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1355442.227901284</v>
+        <v>19.25136452580835</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>1859359.760391446</v>
+        <v>19.27669307954974</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-501806.59736806</v>
+        <v>19.09848899959109</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>828496.1600377493</v>
+        <v>19.23596202681537</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1326621.507129923</v>
+        <v>19.26985355560002</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-1144746.468463231</v>
+        <v>19.10904341301246</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>510321.8578680449</v>
+        <v>19.21694419333866</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1234060.363535813</v>
+        <v>19.25447298936853</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-906124.1371119122</v>
+        <v>19.17440687968697</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>1885570.557358868</v>
+        <v>19.26110468730513</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3123228.887116462</v>
+        <v>19.09989713704439</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-510291.8381126992</v>
+        <v>19.17746397050652</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>984344.498131128</v>
+        <v>19.19502823672801</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-2927175.992353396</v>
+        <v>19.11450418578024</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1353652.145865423</v>
+        <v>19.17127125513401</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2500919.807025635</v>
+        <v>19.19117515005651</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-2714177.260215772</v>
+        <v>19.1502246685565</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>3717800.181082351</v>
+        <v>19.19603354709713</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>5036504.402190794</v>
+        <v>19.21081723177616</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1999229.718273893</v>
+        <v>19.21534652185347</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2630276.835871024</v>
+        <v>19.24189953806731</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3253399.796974844</v>
+        <v>19.25674666464459</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1244832.263080291</v>
+        <v>19.12838735327285</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1066169.005952427</v>
+        <v>19.20669326111858</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>2498753.140219166</v>
+        <v>19.23294778955096</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1193726.215777783</v>
+        <v>19.09311106299085</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>872047.2563125449</v>
+        <v>19.2026705870033</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1857127.946753729</v>
+        <v>19.23502410813523</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1671498.264682261</v>
+        <v>19.09698587925434</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>445826.844129282</v>
+        <v>19.18081978791185</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1682606.331916555</v>
+        <v>19.21697570058065</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1599504.519024386</v>
+        <v>19.14881797865319</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2029899.862726907</v>
+        <v>19.21595247286628</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>947750.1892657257</v>
+        <v>19.20347803440617</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>159200.5037305326</v>
+        <v>19.19920779004885</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>1106219.751548246</v>
+        <v>19.24776550241744</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>1330090.914089044</v>
+        <v>19.27574864267967</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-650418.1742517137</v>
+        <v>19.08008165800411</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>198933.4806975697</v>
+        <v>19.20034764439163</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>575022.9256370821</v>
+        <v>19.24711616317811</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-253282.1693558572</v>
+        <v>19.05683459640126</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>350755.8106995123</v>
+        <v>19.18857096200213</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1001422.598031295</v>
+        <v>19.22842679556097</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-1126031.571436722</v>
+        <v>19.0401319151388</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-576026.0537448346</v>
+        <v>19.14191161783231</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-158239.9561398316</v>
+        <v>19.18692273375792</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1113114.705079349</v>
+        <v>19.11907597016328</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>524231.0126889916</v>
+        <v>19.20073257554066</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1369068.166273697</v>
+        <v>19.23497979164331</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>366592.8638489686</v>
+        <v>19.25317140615864</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1174165.846547102</v>
+        <v>19.30781729861406</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1372582.887932681</v>
+        <v>19.34342915903025</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-593125.0520390242</v>
+        <v>19.10611726517386</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>180149.8347302009</v>
+        <v>19.25287883675294</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>661598.4844548563</v>
+        <v>19.30962640817154</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>2674869.814294465</v>
+        <v>19.29153616890759</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1552382.927694812</v>
+        <v>19.32115752101636</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2038165.401527536</v>
+        <v>19.37817692442632</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>2255110.788687597</v>
+        <v>19.40612494748587</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>164845.5610023626</v>
+        <v>19.17756916936937</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1853805.144992161</v>
+        <v>19.33099930335744</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>2036747.79435028</v>
+        <v>19.376925018188</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>68722.37765884935</v>
+        <v>19.12023203560652</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1305586.267416355</v>
+        <v>19.27924188427487</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1563397.489835865</v>
+        <v>19.31911560706295</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-687548.4562408047</v>
+        <v>19.12594286343239</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1051376.913396326</v>
+        <v>19.25427528858591</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1211857.00815549</v>
+        <v>19.29892935119243</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-521819.2218290569</v>
+        <v>19.21204395862859</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>2355473.155922683</v>
+        <v>19.3155303556499</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2809202.073938831</v>
+        <v>19.34936317249002</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2120865.284239211</v>
+        <v>19.41066607709229</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2441527.197291204</v>
+        <v>19.47438459327209</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2552292.352915058</v>
+        <v>19.51001280979198</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>420873.2692676533</v>
+        <v>19.23578503202752</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>2169384.717348415</v>
+        <v>19.41999840782304</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>2341593.698290265</v>
+        <v>19.47531254716372</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2949308.480460101</v>
+        <v>19.28951091788238</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1379410.326938426</v>
+        <v>19.3187448890618</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1715560.800898723</v>
+        <v>19.3753780733393</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>2219394.897627112</v>
+        <v>19.40358233763076</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-124240.6168049057</v>
+        <v>19.17541419857752</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1749852.691990817</v>
+        <v>19.33035613648434</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>2124842.247241904</v>
+        <v>19.37642080132478</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-318197.0148266072</v>
+        <v>19.11923970615792</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1109036.106995978</v>
+        <v>19.27774292706843</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1503246.228344481</v>
+        <v>19.31746842099924</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-919016.3911559138</v>
+        <v>19.13100771761541</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1040192.079174663</v>
+        <v>19.2602936429877</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1415820.012985771</v>
+        <v>19.30477096623882</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-750099.7713487342</v>
+        <v>19.21454843458602</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2436216.328532364</v>
+        <v>19.31891496358705</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>3114472.431518744</v>
+        <v>19.35271352854392</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2141177.369492934</v>
+        <v>19.41461562755671</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>2424112.351991218</v>
+        <v>19.47784126763815</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2687952.696081185</v>
+        <v>19.51347623723352</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>106001.9033419888</v>
+        <v>19.24050892450531</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>2131255.326935678</v>
+        <v>19.42591842215859</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2487596.665568495</v>
+        <v>19.48097574761672</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>3678986.466455799</v>
+        <v>19.24354607953206</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>843923.9986877963</v>
+        <v>19.24873752323784</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1558543.087853928</v>
+        <v>19.29503263028056</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2367113.902883828</v>
+        <v>19.32273360991249</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-582951.2667668064</v>
+        <v>19.13530643747364</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1916698.885397</v>
+        <v>19.25585285789892</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2756975.900967118</v>
+        <v>19.30120528113643</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-646368.748599462</v>
+        <v>19.10605385328814</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1466613.444396872</v>
+        <v>19.23277355361114</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2477613.197729009</v>
+        <v>19.27087984065417</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1171799.414500754</v>
+        <v>19.10964071319698</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1233530.377341497</v>
+        <v>19.21088203218426</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2212517.625006741</v>
+        <v>19.25387192338278</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1077754.814624778</v>
+        <v>19.17700211861143</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2933096.544331146</v>
+        <v>19.25850637790038</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>4399855.234400824</v>
+        <v>19.29144649672605</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2251532.915165411</v>
+        <v>19.32164402803911</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2977812.551675366</v>
+        <v>19.37359845039505</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3709453.92347266</v>
+        <v>19.40822808095725</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-221671.1009730459</v>
+        <v>19.18240512917288</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2421582.86571299</v>
+        <v>19.32781691989426</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3362453.845336179</v>
+        <v>19.38206744673635</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.554</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.371</v>
+        <v>14.913</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.25</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.411</v>
+        <v>16.254</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.733</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.987</v>
+        <v>6.345</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.03448115866344</v>
+        <v>11.23157763721083</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.10973517615333</v>
+        <v>9.292269347996621</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.12717183126536</v>
+        <v>13.74253677770981</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.03252472654555</v>
+        <v>2.381956903269732</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.08153788128585</v>
+        <v>8.026228312540244</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.10116282795043</v>
+        <v>8.738165238783132</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.0735336969081</v>
+        <v>4.729111574384813</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.11269370847591</v>
+        <v>20.11566812925579</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.12696611589203</v>
+        <v>21.46516998859621</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.11099873498192</v>
+        <v>3.772056413076388</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.13486902764661</v>
+        <v>9.564640337639927</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.14977556107673</v>
+        <v>11.98965377672164</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.02460819303115</v>
+        <v>14.9495199225925</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.09250360424321</v>
+        <v>6.685623217585739</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.11861571588326</v>
+        <v>12.75514290939915</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.00548712570403</v>
+        <v>11.91316965314415</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.11239148216436</v>
+        <v>14.39757462653104</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19.14586964406489</v>
+        <v>17.67898184960279</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18.98480544128566</v>
+        <v>6.367346890603658</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.05892698872105</v>
+        <v>4.11086574426913</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.09612857923233</v>
+        <v>6.662018741162534</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.0443505939293</v>
+        <v>-2.158845331622484</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.10304171925133</v>
+        <v>8.456049237211934</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.05409145215848</v>
+        <v>14.26480397927674</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.14652728299543</v>
+        <v>18.79487311325753</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19.16336319536184</v>
+        <v>20.30970955465222</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.06513197691836</v>
+        <v>3.470656430303364</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.13031228556434</v>
+        <v>22.51814213659413</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>19.14897870114439</v>
+        <v>22.97763713307735</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19.110844136371</v>
+        <v>4.000897218442947</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.1633185576233</v>
+        <v>31.99639012209952</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>19.17673017042442</v>
+        <v>32.89739824384353</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.1831241789937</v>
+        <v>30.9386718342619</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.21242753138424</v>
+        <v>38.22100044319268</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19.22672657523406</v>
+        <v>40.62674021572144</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.0781602932579</v>
+        <v>20.61742543333607</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.16865278876555</v>
+        <v>30.67881320959401</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19.1930464820542</v>
+        <v>32.42831224768244</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.04280964567457</v>
+        <v>13.22920977924936</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>19.17394659195684</v>
+        <v>20.50384561779299</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>19.20777182556852</v>
+        <v>24.08988047435673</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>19.04073940258964</v>
+        <v>6.493086729537559</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>19.13803213691323</v>
+        <v>18.4963422939131</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>19.17522146441775</v>
+        <v>25.19725211669891</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>19.18440142343788</v>
+        <v>27.97191786215205</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>19.04913174180804</v>
+        <v>11.24518588154069</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.14163691556158</v>
+        <v>16.58264024238711</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.15872223028939</v>
+        <v>19.77453902976101</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>19.06351640788158</v>
+        <v>3.745493178481041</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19.12993383951384</v>
+        <v>22.50400669233868</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>19.14887791680476</v>
+        <v>26.36173892403981</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.10808147985098</v>
+        <v>6.168869973368786</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>19.16163237009263</v>
+        <v>34.05215971408454</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>19.17534814345261</v>
+        <v>37.99564131206952</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>19.18182772960244</v>
+        <v>33.8272296651087</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>19.21126811340093</v>
+        <v>38.18070704863035</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>19.2258820355083</v>
+        <v>44.13160448213188</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.07664496249654</v>
+        <v>12.95255658963996</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.16891125126679</v>
+        <v>24.00707004712612</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>19.19359565891322</v>
+        <v>29.08127714187042</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>19.03738905703349</v>
+        <v>9.394361686137859</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19.16856709238917</v>
+        <v>15.95776961196618</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>19.20255454903426</v>
+        <v>22.38334867731902</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>19.04052863333841</v>
+        <v>4.5837423000639</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>19.13937733057248</v>
+        <v>15.33391608259144</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>19.17676282710273</v>
+        <v>27.32927436420578</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.10480774567248</v>
+        <v>1.997837066818359</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.18389116986236</v>
+        <v>26.75623090349487</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>19.05853828431057</v>
+        <v>4.218147587289582</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19.13182967928276</v>
+        <v>10.99979143073842</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.14919058050443</v>
+        <v>17.45637425362288</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>19.06834961189054</v>
+        <v>2.089643720411491</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.11904097153042</v>
+        <v>18.90487881498042</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19.13855083978273</v>
+        <v>25.87496408984452</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.10320158315746</v>
+        <v>1.147384271688399</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.14392010626538</v>
+        <v>27.43544962033332</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19.15834062042172</v>
+        <v>33.99232817833396</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>19.15064514500026</v>
+        <v>21.31675583363912</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.17419900765895</v>
+        <v>25.12101169689163</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>19.18944219581272</v>
+        <v>31.5433023552193</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19.06753631576631</v>
+        <v>8.468916384901423</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.1378141888916</v>
+        <v>15.94142027083389</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19.16367988546145</v>
+        <v>26.58930076155515</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19.04295620407193</v>
+        <v>5.134589061208544</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>19.14697674284189</v>
+        <v>15.74703516047935</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19.1795253621244</v>
+        <v>24.16513292828052</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>19.0405447299251</v>
+        <v>4.937115705400846</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.11648509854745</v>
+        <v>15.45694969590151</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.15265689102763</v>
+        <v>28.69398309173799</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>19.09127851190225</v>
+        <v>-0.7623555647712301</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.15177468926829</v>
+        <v>23.06294788858369</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19.13110905389089</v>
+        <v>13.96784191395684</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.10977771370318</v>
+        <v>6.66252231936444</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.15410886633138</v>
+        <v>25.07254682745143</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19.18287322160048</v>
+        <v>27.38674367730702</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18.99653807673234</v>
+        <v>3.554717201497933</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.1048616074681</v>
+        <v>6.401598854527387</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.15157507773077</v>
+        <v>9.764634826937876</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>19.00509233042285</v>
+        <v>15.94717768980477</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.1306926610823</v>
+        <v>16.10201700068987</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.17084547931334</v>
+        <v>25.27416515930567</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>18.98080652194831</v>
+        <v>5.411101744313907</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.07374809091784</v>
+        <v>2.565094085847139</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.11887714221549</v>
+        <v>8.927164360400877</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.05900430034686</v>
+        <v>0.8919564445535713</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.13322262911885</v>
+        <v>13.99694117617379</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.16748246642138</v>
+        <v>26.47552062858702</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.17044263443009</v>
+        <v>13.88109459125943</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.22085634103189</v>
+        <v>30.56009431438033</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>19.25756158620795</v>
+        <v>35.80448280074631</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>19.02865320055308</v>
+        <v>4.256784194885647</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.16394495112764</v>
+        <v>7.254446782462697</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.2209608144724</v>
+        <v>17.04262352901641</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>19.21235679328455</v>
+        <v>38.54564531834468</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>19.22383860916985</v>
+        <v>32.16872172774134</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>19.27641382134458</v>
+        <v>41.9438796210048</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>19.30517001534882</v>
+        <v>47.27741854805478</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.08618207627974</v>
+        <v>16.38703694211868</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.22734744939637</v>
+        <v>37.82619338736147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>19.27309353672334</v>
+        <v>40.1756880545062</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.063534777406</v>
+        <v>21.25214139156175</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.2163769244219</v>
+        <v>31.44279512227713</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>19.25649268216897</v>
+        <v>37.28826978226306</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>19.06155558570363</v>
+        <v>10.7817417267929</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>19.18084098118028</v>
+        <v>30.55824447217232</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>19.22552005878938</v>
+        <v>35.83048332904315</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>19.14694978916637</v>
+        <v>9.658486648967639</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>19.24281649058281</v>
+        <v>46.53937917517484</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>19.27658118826381</v>
+        <v>56.84831892257867</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>19.32206164358839</v>
+        <v>62.76923172896963</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>19.38133125444747</v>
+        <v>68.69451634920893</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>19.41808795227162</v>
+        <v>74.69080470415521</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>19.15239817930244</v>
+        <v>31.81055677719809</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>19.32492205466028</v>
+        <v>60.30422157712624</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>19.38036716049789</v>
+        <v>66.41706077715912</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19.21210972813063</v>
+        <v>42.49623419400903</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.22357895404628</v>
+        <v>26.7551340946113</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.27593932198111</v>
+        <v>31.60076526329878</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>19.30498196193274</v>
+        <v>43.86518635619642</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.08589214418917</v>
+        <v>10.54814676712802</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.22911610803101</v>
+        <v>33.32131949404502</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.27507458517514</v>
+        <v>40.16920536554942</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>19.06362159697818</v>
+        <v>16.45405509262948</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.21626844360912</v>
+        <v>28.1854148088526</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.25627666546462</v>
+        <v>36.79127093587007</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.06807362881364</v>
+        <v>8.487883901885269</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.18872477228092</v>
+        <v>30.06569416436625</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>19.2332802109509</v>
+        <v>40.24974704385077</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>19.15094729482811</v>
+        <v>8.655118363587476</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>19.24803935021759</v>
+        <v>47.73274886773672</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.28181682610451</v>
+        <v>62.37370401755415</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>19.32828117028989</v>
+        <v>61.43326033835822</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>19.38723140361473</v>
+        <v>65.22091214681511</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>19.4240165693234</v>
+        <v>75.83796200418958</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>19.15911086049665</v>
+        <v>24.05769921615603</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.33337738890566</v>
+        <v>56.25481975113979</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>19.38862942504107</v>
+        <v>68.14894415077025</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.17932120164823</v>
+        <v>39.01145711396455</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19.16924912158003</v>
+        <v>12.87958007401931</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19.21187124235983</v>
+        <v>21.12360248469784</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.24039662617071</v>
+        <v>33.58680061382405</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>19.06087887113861</v>
+        <v>5.262326691010863</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.1711776588484</v>
+        <v>29.03014597303064</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>19.21663905048155</v>
+        <v>39.41823107371166</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.06021201328562</v>
+        <v>13.45955332158691</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.18174228726121</v>
+        <v>28.41114778070252</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>19.22022766063273</v>
+        <v>41.97945733188078</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>19.0575317566425</v>
+        <v>9.115340573751926</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.1512098626939</v>
+        <v>28.05540809320209</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>19.19443305230454</v>
+        <v>43.54116814042503</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.12415589888326</v>
+        <v>6.385393054443345</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.19929007151636</v>
+        <v>41.8565496681469</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>19.23234876229726</v>
+        <v>61.96198820285521</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>19.24910565767902</v>
+        <v>46.4591715139203</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>19.2973874252803</v>
+        <v>55.65455414963893</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>19.33312977170938</v>
+        <v>72.47697025065203</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.11434185775601</v>
+        <v>14.2687559691459</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>19.24996182086185</v>
+        <v>45.45048441004789</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19.30461835394253</v>
+        <v>65.09482125063954</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>19.05085319874224</v>
+        <v>7.161945729763183</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.17222796232021</v>
+        <v>21.5561849450125</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.19539395257842</v>
+        <v>31.36001281597281</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.05697809690465</v>
+        <v>4.852963211756038</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.14384739415521</v>
+        <v>32.67637904208584</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.16989401439591</v>
+        <v>37.00474311469468</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.12067646158121</v>
+        <v>14.35307790028168</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.19066655819416</v>
+        <v>52.77980877277871</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19.20947663231233</v>
+        <v>57.99296032782365</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19.20693179266088</v>
+        <v>30.46859603533895</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.2495170300901</v>
+        <v>37.07680534574355</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.26594430870637</v>
+        <v>39.44015694882958</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.07015664710622</v>
+        <v>15.62914661426432</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.18979849681473</v>
+        <v>25.99772995997873</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.22403024194288</v>
+        <v>40.93695605107192</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19.00911362681733</v>
+        <v>14.48107335027733</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.17940309670863</v>
+        <v>30.23903285879437</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.22357424296792</v>
+        <v>29.87712999501804</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18.98979358679168</v>
+        <v>3.510527931530103</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>19.11706027834558</v>
+        <v>21.42056445533629</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.16598884773914</v>
+        <v>20.22722902407572</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.08232597416829</v>
+        <v>7.733739843680544</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.18402392305661</v>
+        <v>37.94159136013121</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.07950860072172</v>
+        <v>13.33031770202314</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.22637957734263</v>
+        <v>33.90085382909462</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.24841480512273</v>
+        <v>39.14715140993086</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.10402406424634</v>
+        <v>7.22428782339993</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>19.2151532031381</v>
+        <v>47.37484021486489</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>19.23953230151003</v>
+        <v>48.75427012671672</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.17520363434937</v>
+        <v>15.32854052129877</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.2651939543263</v>
+        <v>65.0904784124935</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.28253004428672</v>
+        <v>67.25688058865919</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.3121863733827</v>
+        <v>57.98831360572048</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>19.36327680259424</v>
+        <v>64.05962284927374</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>19.37832091165179</v>
+        <v>64.36468623911954</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.14794908165748</v>
+        <v>19.22158062084066</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.30146661916462</v>
+        <v>49.20196295620849</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>19.33280567615932</v>
+        <v>55.46160444555235</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>19.06130996045567</v>
+        <v>22.43876996340951</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.26738725682528</v>
+        <v>41.30856076710755</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>19.31153713264392</v>
+        <v>39.03056356126038</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>19.068186819916</v>
+        <v>7.717096625634536</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>19.22999144314968</v>
+        <v>37.38320771102168</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.27832475478082</v>
+        <v>35.35649319410363</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>19.17092598807819</v>
+        <v>16.53436047436365</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.30099795161558</v>
+        <v>58.80999450366041</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>19.06890506650403</v>
+        <v>7.406505206535215</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.21535288969668</v>
+        <v>28.20878977568951</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.23772499891563</v>
+        <v>34.38203325456807</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.09769017212198</v>
+        <v>4.235577371400797</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.20995663411606</v>
+        <v>43.57571265899441</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.2347109791726</v>
+        <v>47.25498682459626</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.16712528402091</v>
+        <v>12.85517753756367</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.25813089711095</v>
+        <v>61.7851502223842</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.27588128494933</v>
+        <v>65.94838417087347</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>19.30476593808497</v>
+        <v>59.77660105634324</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>19.35576615483904</v>
+        <v>63.94386021662882</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.37133536552764</v>
+        <v>66.109752771873</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.14067948174968</v>
+        <v>8.396008414529648</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.29589091846472</v>
+        <v>39.86239637907839</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.32762947549918</v>
+        <v>47.1970477174067</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.04949457377616</v>
+        <v>18.57275382598556</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>19.25495472895514</v>
+        <v>36.13565653717595</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>19.29934301554167</v>
+        <v>36.20247291505703</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.06318560526337</v>
+        <v>5.039565016732023</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>19.22639738727646</v>
+        <v>32.86623247846143</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.27502133684392</v>
+        <v>34.71335184918168</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>19.16336435388283</v>
+        <v>14.47478130539772</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.2947300735059</v>
+        <v>55.05794634307391</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.07545113751418</v>
+        <v>-0.3072740550847399</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.19233525462404</v>
+        <v>21.72911786464182</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.21542070475302</v>
+        <v>32.32574395228885</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>19.09694113281386</v>
+        <v>3.837220228969592</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>19.18416799830243</v>
+        <v>41.58220878922127</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.21008337198444</v>
+        <v>49.67413913561753</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.15142595264765</v>
+        <v>10.52734112403786</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.22194938960109</v>
+        <v>58.35644478928656</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.24099006321566</v>
+        <v>66.46877564332878</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>19.24756824804965</v>
+        <v>52.30430909592049</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19.28873071893531</v>
+        <v>58.82806249342754</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19.30598246608723</v>
+        <v>61.92901915705613</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.11699595305429</v>
+        <v>7.458942559651966</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>19.23731755725109</v>
+        <v>35.04844412542906</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>19.27128970063232</v>
+        <v>49.89157658725243</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>19.05129111111235</v>
+        <v>11.6735931651073</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>19.21527727571767</v>
+        <v>32.76858908238906</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>19.25828598719177</v>
+        <v>35.31917106655435</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>19.05626219962621</v>
+        <v>3.082463162205567</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>19.18348533402492</v>
+        <v>30.19173292931885</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>19.23114008180811</v>
+        <v>34.81410515658072</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>19.13560014895737</v>
+        <v>9.703613826871955</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>19.23768089846934</v>
+        <v>49.20043960176063</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.22072286449693</v>
+        <v>38.7541486638936</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>19.21356664087589</v>
+        <v>33.28783354304687</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.28745054331672</v>
+        <v>48.60670649948275</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.32125528028045</v>
+        <v>48.59373249215913</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.03545605455956</v>
+        <v>20.49641153399616</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>19.21872077075912</v>
+        <v>37.57308978808447</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.27923886114033</v>
+        <v>38.56725476335007</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.00899972339155</v>
+        <v>18.14264577733893</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.2064098830079</v>
+        <v>30.75174280697767</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.25982747863582</v>
+        <v>39.42125187206616</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>18.98523107885942</v>
+        <v>3.558602352091306</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.13991874913095</v>
+        <v>19.85288998682692</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.19979564018474</v>
+        <v>27.0856482011146</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.10421673051934</v>
+        <v>13.48912938312008</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.22854801554783</v>
+        <v>43.99298636231565</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.27380913744881</v>
+        <v>55.9049948150212</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19.29999811972694</v>
+        <v>37.61486550788699</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.38301730038259</v>
+        <v>55.50651365821993</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.42765083524401</v>
+        <v>58.90367385081296</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.08114926307246</v>
+        <v>20.46050549972219</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.30366118848004</v>
+        <v>40.6450934928304</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.37826301604935</v>
+        <v>50.2240343164558</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>19.33706231047572</v>
+        <v>59.98827025952859</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.37678995953875</v>
+        <v>61.82279166738046</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>19.46337348190824</v>
+        <v>68.85114992452283</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>19.49639735986334</v>
+        <v>67.44517728506993</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.16267853485517</v>
+        <v>31.39229923787241</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.39481466017705</v>
+        <v>65.98198742761383</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.45313211784842</v>
+        <v>60.47901497440085</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.08921951114803</v>
+        <v>21.64983683803706</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.09673239295179</v>
+        <v>5.684247876299136</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19.29049007376622</v>
+        <v>40.80355341696196</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.34908777948638</v>
+        <v>41.00999965922674</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.22710840134213</v>
+        <v>15.57020216579411</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.38357981157925</v>
+        <v>65.46178608726038</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.42761327485965</v>
+        <v>69.9043126965626</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.5138174165678</v>
+        <v>72.96326157861593</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.61045657280598</v>
+        <v>79.11791150770286</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>19.65434810143788</v>
+        <v>80.89030610729897</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>19.25410770453707</v>
+        <v>34.43730599762681</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>19.53176674798108</v>
+        <v>76.45247999181554</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19.60321676986188</v>
+        <v>76.37531067311214</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>19.33117538905926</v>
+        <v>60.13846335705645</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>19.36982647936883</v>
+        <v>57.83347171002544</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>19.45574812390627</v>
+        <v>61.46129299044421</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>19.48929714767231</v>
+        <v>64.44861129842963</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>19.15625588577106</v>
+        <v>24.22539623623163</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.39025356251643</v>
+        <v>60.66088881725783</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.44890810677501</v>
+        <v>57.48948559737526</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.08480294154664</v>
+        <v>16.55310341367514</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.32131878183042</v>
+        <v>38.04581189563876</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>19.37397419886253</v>
+        <v>41.38339147852896</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.10079941382251</v>
+        <v>2.104003335406556</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.29566785776153</v>
+        <v>38.26935732786261</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.35410121527187</v>
+        <v>40.84021328194125</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.22743463981261</v>
+        <v>11.97592570913659</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>19.38495886134811</v>
+        <v>63.04751469312333</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.42901605998292</v>
+        <v>69.51268786384605</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.51549491966939</v>
+        <v>71.24182336767167</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.61131298330875</v>
+        <v>76.06218629258576</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>19.65536672815602</v>
+        <v>80.28542763868056</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.25709163317354</v>
+        <v>26.04290915282877</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>19.53613199098642</v>
+        <v>72.41183665602104</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>19.60734403318991</v>
+        <v>74.42544961641835</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.27378703046623</v>
+        <v>56.09356751587448</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.27944782176943</v>
+        <v>41.64071679248029</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.34967641156307</v>
+        <v>49.20712568813508</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>19.38366479319203</v>
+        <v>53.14783608708849</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.11018443289454</v>
+        <v>20.42406637084702</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.29276986918816</v>
+        <v>56.52656666562737</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>19.35183341128738</v>
+        <v>57.80566322418797</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19.0753344542475</v>
+        <v>14.10842223195011</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.26469163345719</v>
+        <v>39.18872150271412</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.31589917992823</v>
+        <v>47.13520802639216</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.08043612008349</v>
+        <v>3.73674657865342</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>19.23346238625853</v>
+        <v>38.56387299670021</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>19.29082753250506</v>
+        <v>46.9330958467904</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.18233172767132</v>
+        <v>12.97859869209618</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.30571639009163</v>
+        <v>62.00289108404165</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.3494205832502</v>
+        <v>74.29626881082761</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.39195268845436</v>
+        <v>62.99552851686025</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19.47067520869976</v>
+        <v>75.16849681089981</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>19.51447780746107</v>
+        <v>82.9774569823746</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.18506864788964</v>
+        <v>25.07502803779364</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.40446155378082</v>
+        <v>72.65499624333002</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>19.47605320532236</v>
+        <v>81.35881232450612</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.08066647774578</v>
+        <v>12.07113322175714</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>19.18085215567332</v>
+        <v>28.0781965756976</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.19878945920784</v>
+        <v>32.83557323936465</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.08164289876583</v>
+        <v>-3.735632682058387</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.1538067254737</v>
+        <v>20.30226659840153</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.17373645727674</v>
+        <v>20.97461219353183</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.13462572471741</v>
+        <v>5.875388648876292</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.19266800439996</v>
+        <v>44.07545048778998</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.20693301189024</v>
+        <v>44.77051812233859</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.20427099587998</v>
+        <v>23.70492512194194</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.23929576425339</v>
+        <v>30.37325069499351</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.25122620511367</v>
+        <v>29.47173662014421</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.09007832003179</v>
+        <v>7.401499454946833</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.19004863189982</v>
+        <v>19.05153047205116</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.21597076597669</v>
+        <v>25.1109352304243</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>19.05216072726772</v>
+        <v>18.61815802358637</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.19221591964118</v>
+        <v>35.25826145760666</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.22715718931395</v>
+        <v>34.35503497089084</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.03131645540163</v>
+        <v>4.733315853234192</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.13636628833176</v>
+        <v>22.07867202713419</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.17475548994746</v>
+        <v>21.79866872569795</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>19.10809780429789</v>
+        <v>6.526277919181451</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.19190941596883</v>
+        <v>37.64632736027703</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.1049007212458</v>
+        <v>18.06099941451388</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>19.22616007056802</v>
+        <v>41.95975129494555</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.24299004641091</v>
+        <v>41.51872289979151</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.12059141341631</v>
+        <v>1.72878051541425</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.2128517646986</v>
+        <v>40.6401787558848</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.23118920006775</v>
+        <v>37.65294985857811</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>19.17981084209612</v>
+        <v>9.302296811061094</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.25441332741478</v>
+        <v>60.89089268198762</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>19.26728472192674</v>
+        <v>57.8352805499274</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.29083515812826</v>
+        <v>51.801466050801</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>19.33294828947396</v>
+        <v>59.09602060556111</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>19.34354712224412</v>
+        <v>56.17459710264308</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.15385367411479</v>
+        <v>12.84764306201775</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>19.28194792146364</v>
+        <v>47.05368211578666</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>19.30517350014314</v>
+        <v>45.31270968310922</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.09626527235511</v>
+        <v>25.39325293721105</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>19.26585733488886</v>
+        <v>47.34607423468493</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>19.30054672077372</v>
+        <v>45.00998765142091</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.09646995027844</v>
+        <v>9.373521097586156</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>19.23007548505468</v>
+        <v>41.28384627663034</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>19.26768589479393</v>
+        <v>40.32899738558374</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>19.18175003006222</v>
+        <v>15.98866922738465</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.28901133477013</v>
+        <v>61.7825143731164</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>19.09512636658217</v>
+        <v>13.01397307287972</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.21601554940699</v>
+        <v>36.72193346209521</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.23315706440302</v>
+        <v>37.05947726074024</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.11440877858804</v>
+        <v>0.9032928146486405</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>19.20756902338593</v>
+        <v>38.78053357603194</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>19.22626259749234</v>
+        <v>37.90645235586238</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.17218054388511</v>
+        <v>8.771855355991757</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.24759274587253</v>
+        <v>59.0738813609878</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.26084279978182</v>
+        <v>57.85933562776654</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.28361755492858</v>
+        <v>53.94168494625816</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.32567245081689</v>
+        <v>59.18357722095082</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.33675440653499</v>
+        <v>58.17082946569201</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.14684177827716</v>
+        <v>3.443094548606407</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.27626702108713</v>
+        <v>38.66432169529163</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.29988775892542</v>
+        <v>37.23806188735369</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.0850249778476</v>
+        <v>21.48018954519257</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>19.25409294131721</v>
+        <v>41.80485267063509</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.28902379836923</v>
+        <v>42.25752175799049</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.09091163421688</v>
+        <v>7.151050971228075</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>19.22564307869152</v>
+        <v>36.8676605433033</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.26355491361793</v>
+        <v>40.26060835140637</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.1740802848967</v>
+        <v>14.32432620503727</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.28238467938423</v>
+        <v>57.95501891990978</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>19.09847008115448</v>
+        <v>9.069311223284807</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>19.19490376244446</v>
+        <v>33.43542660908119</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>19.2128937131363</v>
+        <v>39.12888760338835</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.1124732973418</v>
+        <v>3.802793567956957</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>19.18482990354774</v>
+        <v>39.03977064870121</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.20481385559163</v>
+        <v>43.98223823883849</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.15780608019887</v>
+        <v>10.00796663472788</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.21621638602715</v>
+        <v>58.40655245813839</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.23080111020931</v>
+        <v>62.37092621147605</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.23545746995328</v>
+        <v>50.40378989210942</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.26934723717813</v>
+        <v>58.55912635343833</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.28213534462792</v>
+        <v>59.01746015900112</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.12661647558635</v>
+        <v>7.188501868649196</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.22695781558593</v>
+        <v>38.22633914408026</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.25289973784741</v>
+        <v>43.17166574384795</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.08317544933805</v>
+        <v>17.71517873363953</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.21801244820913</v>
+        <v>39.91668847510964</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.25215166453949</v>
+        <v>43.09829859476879</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.08273281138684</v>
+        <v>8.745173278699991</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.18766570874227</v>
+        <v>35.52464323866232</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>19.2252168637924</v>
+        <v>42.51589834415321</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.14860233240329</v>
+        <v>13.29367417105064</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.23267795482342</v>
+        <v>53.68998801896228</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>19.22058132049431</v>
+        <v>38.35003173265635</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.21348640625673</v>
+        <v>35.28951044676101</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.27382214358068</v>
+        <v>52.00824492138314</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>19.29971525171391</v>
+        <v>50.93504415776971</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>19.06511595053527</v>
+        <v>18.77827222255662</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>19.21715859238703</v>
+        <v>35.21631301729877</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.26412790494775</v>
+        <v>39.45536282642729</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.05169504532298</v>
+        <v>21.80573833008174</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.21406580647011</v>
+        <v>37.31540569434776</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.25642163685528</v>
+        <v>41.66150917844223</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.0269428390349</v>
+        <v>2.307752553878458</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.15460357170738</v>
+        <v>19.72713603239942</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.20171762282169</v>
+        <v>24.59007179935794</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.12538708864768</v>
+        <v>9.079399834079013</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.22786428888053</v>
+        <v>41.6782432291574</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.26334925722867</v>
+        <v>51.15843815163761</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.28360490574173</v>
+        <v>39.66982959932618</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.35135670780993</v>
+        <v>56.75812097285078</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>19.38622217873124</v>
+        <v>59.39348716992863</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.10204152992364</v>
+        <v>18.09894282508676</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.28640605255739</v>
+        <v>40.337450427842</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.34459583430361</v>
+        <v>48.72103273273802</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.31692193784412</v>
+        <v>63.1399726772883</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.34805336554737</v>
+        <v>65.04060814402592</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.41892650955708</v>
+        <v>75.71423449483478</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>19.44392749350343</v>
+        <v>73.43715121860048</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>19.1698184129374</v>
+        <v>29.52748033407484</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.36235258717556</v>
+        <v>67.67513853061863</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.4070901919202</v>
+        <v>66.68440483788122</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.11856956769043</v>
+        <v>27.05261543377433</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>19.31400666967557</v>
+        <v>53.13633173230421</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.35558860543579</v>
+        <v>49.4826646425953</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.11901901657918</v>
+        <v>5.965937051397511</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.27896501828989</v>
+        <v>45.5142311843255</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.32469288907931</v>
+        <v>41.11922625859435</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.22694144967386</v>
+        <v>13.21891682627568</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.35596856743513</v>
+        <v>68.3312420657802</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>19.39016764461575</v>
+        <v>68.22899289431133</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>19.45940670834336</v>
+        <v>79.64749080824615</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>19.53844276795881</v>
+        <v>86.40627310914189</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>19.57244003378856</v>
+        <v>86.86424209501011</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>19.2440105983417</v>
+        <v>32.93683617971323</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>19.47403025530653</v>
+        <v>80.91816244810357</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.52914285215538</v>
+        <v>78.37305890795706</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.3106586865268</v>
+        <v>63.74469371443436</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>19.34071416287249</v>
+        <v>60.78750890954402</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>19.41107904731208</v>
+        <v>67.93393135457276</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.43657579598402</v>
+        <v>70.98916899570949</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.16302025957978</v>
+        <v>22.7651877829068</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.3570245789478</v>
+        <v>62.78377501436343</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>19.40212732582784</v>
+        <v>63.96180630576849</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.11333639776458</v>
+        <v>21.80340553623574</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>19.30795258205756</v>
+        <v>48.28929361726259</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>19.34946444678894</v>
+        <v>46.39392304121219</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>19.12084163651287</v>
+        <v>2.309094102897053</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.28166417880908</v>
+        <v>42.36983512274139</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.3273274934042</v>
+        <v>40.89908295634847</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>19.22568836531342</v>
+        <v>9.536488940594875</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>19.35555589415818</v>
+        <v>65.21171913683449</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.38983119212456</v>
+        <v>67.70935023394455</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.45909099156029</v>
+        <v>77.06268121006774</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>19.53749185853936</v>
+        <v>82.40912344239695</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.57168271329609</v>
+        <v>86.45065698862084</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>19.24486020569882</v>
+        <v>24.56236159717229</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>19.47595008609402</v>
+        <v>76.6355021681362</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>19.53096413940435</v>
+        <v>76.26539938235616</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>19.26103157209126</v>
+        <v>62.00558021053507</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.26420653894639</v>
+        <v>46.66917003387724</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>19.32163137982792</v>
+        <v>56.54100596497891</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.34789813098628</v>
+        <v>61.03089904678858</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.12340436875101</v>
+        <v>23.6352134141848</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.27471045656518</v>
+        <v>60.77649385902467</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.32078810721043</v>
+        <v>65.04155369757878</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.10246086353042</v>
+        <v>18.45572260191724</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>19.25816761462722</v>
+        <v>46.49047942392778</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.29887912509528</v>
+        <v>50.78745638171296</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.10189356433804</v>
+        <v>5.500738040982402</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.22809268848701</v>
+        <v>41.56060471074646</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>19.27337997865089</v>
+        <v>48.39245865894604</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>19.1862348135171</v>
+        <v>10.91038968754583</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.2878711749085</v>
+        <v>61.91210012569222</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.3222687568727</v>
+        <v>72.68003419664342</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.35567001296328</v>
+        <v>66.17037434878456</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.41999580199673</v>
+        <v>78.3086369965885</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.45439126408294</v>
+        <v>87.43889067839754</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>19.18421369182755</v>
+        <v>25.71217668603128</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>19.36582332262115</v>
+        <v>76.51975985566307</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>19.42187775961384</v>
+        <v>83.82303878431649</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.04405817067825</v>
+        <v>14.30582552205009</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.13646521880218</v>
+        <v>17.87426373401662</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.15347038984474</v>
+        <v>25.01527852667348</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.03983754247131</v>
+        <v>-0.7488045151330915</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.10491322415349</v>
+        <v>10.83768531986109</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.12381246119348</v>
+        <v>12.79373299373587</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.09151152617061</v>
+        <v>4.076681926942889</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.14377564034241</v>
+        <v>28.81804861087478</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.15729313650279</v>
+        <v>31.38658899936964</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.14689960780294</v>
+        <v>13.96173260891028</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.17805920637224</v>
+        <v>17.88004041807547</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.18878922801337</v>
+        <v>18.65059950557194</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.04331414386283</v>
+        <v>12.86859325452987</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.13401792132646</v>
+        <v>14.96944041557983</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.15887064550443</v>
+        <v>24.24938458172438</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.00251938160786</v>
+        <v>11.96007681254964</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.1324377940641</v>
+        <v>19.82875887003033</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.16581282152201</v>
+        <v>21.16865358345075</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.97552128454027</v>
+        <v>0.4204646987586536</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.07137068509152</v>
+        <v>7.112204814091502</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.10804740408345</v>
+        <v>8.564806535527087</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.0505992052662</v>
+        <v>-3.329194154561119</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.12693808260233</v>
+        <v>17.2842767421373</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.06219864287996</v>
+        <v>16.24969055287036</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.17437995404527</v>
+        <v>24.48139192678119</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.19030927048689</v>
+        <v>27.45159065726111</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.07151706019459</v>
+        <v>1.69440594031213</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.15536679800948</v>
+        <v>23.90197343580223</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.17273233467886</v>
+        <v>23.26350143599192</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.12929977311857</v>
+        <v>5.363595606277197</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>19.19703520808433</v>
+        <v>39.6738332275448</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>19.20920991551679</v>
+        <v>39.40096533419151</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.2229941232662</v>
+        <v>37.37052315645703</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.26072816062872</v>
+        <v>42.3744530576534</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.27009304972009</v>
+        <v>42.30547393159875</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>19.0982232347923</v>
+        <v>18.70802541300814</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.21527350269227</v>
+        <v>39.26624452694161</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.23755197386342</v>
+        <v>41.26160866347051</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.03855113077894</v>
+        <v>14.00561466155655</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.19626948243297</v>
+        <v>26.01673296816019</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.22940322729408</v>
+        <v>27.15101565842774</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.0310100814096</v>
+        <v>1.890305883611372</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>19.15364488878481</v>
+        <v>21.48415378394066</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>19.18958770892549</v>
+        <v>23.77985162688868</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.1144003477578</v>
+        <v>2.899343926936773</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.21273422577325</v>
+        <v>36.68660770015305</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.05357472451478</v>
+        <v>11.18665701801434</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.1654973305982</v>
+        <v>19.17900639805754</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.18172908281857</v>
+        <v>23.01777936821634</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.06646074794203</v>
+        <v>0.6452519636923419</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.15127957376966</v>
+        <v>21.61808321194781</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.16899165631011</v>
+        <v>23.25541399672302</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.12284782586268</v>
+        <v>5.216489540992587</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.19144755609658</v>
+        <v>38.11424256953596</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.20398867977685</v>
+        <v>39.81836127061919</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.21718806220591</v>
+        <v>39.07800286800568</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.25494181669489</v>
+        <v>42.33066018107895</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>19.2647886222651</v>
+        <v>44.55405408921867</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.09245734705452</v>
+        <v>9.032903150568121</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.21091804334355</v>
+        <v>30.80231189740726</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.233574731383</v>
+        <v>33.12379990014556</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>19.0289752822636</v>
+        <v>9.513998143352728</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.18630556428374</v>
+        <v>20.04560541891546</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>19.21967484156956</v>
+        <v>24.47652237140569</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.02707119193922</v>
+        <v>-0.8497773428272737</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.15091018155426</v>
+        <v>16.6256738335668</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.18714771443297</v>
+        <v>23.97909683813277</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.10840769140545</v>
+        <v>1.357000326260284</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.2078452313403</v>
+        <v>33.06698820999771</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.0640387438954</v>
+        <v>4.331750693287194</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.15320090789645</v>
+        <v>14.60689371014101</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.17026655590371</v>
+        <v>23.00495887354501</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.07275626815748</v>
+        <v>-0.002340349886573279</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.13841032914744</v>
+        <v>20.50973499054991</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.15737300162516</v>
+        <v>27.12303715663573</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.11705623685832</v>
+        <v>1.939640433287689</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.16999785452217</v>
+        <v>34.88730295613482</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.18382958909966</v>
+        <v>41.09420074861735</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>19.18103936351286</v>
+        <v>33.11685607209574</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.21136637240615</v>
+        <v>38.31312364006406</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>19.22298173957842</v>
+        <v>41.24241564416562</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.0820083752501</v>
+        <v>6.477802059951767</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.17356175453743</v>
+        <v>27.04028919794521</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.19842119406905</v>
+        <v>35.10765217047411</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>19.03668049369014</v>
+        <v>6.420273999630538</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.16201532247658</v>
+        <v>19.37231963629365</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.19462842352419</v>
+        <v>25.95450261776789</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>19.02990770903982</v>
+        <v>1.05220106730691</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.12610779553045</v>
+        <v>16.29204599001601</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>19.16198922087464</v>
+        <v>26.60645393220329</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.09441507466938</v>
+        <v>0.5798139604063515</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.17139000934541</v>
+        <v>29.73452821823087</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.15434521398116</v>
+        <v>19.54999444531749</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.1357485816567</v>
+        <v>12.78456973940815</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>19.19057241398647</v>
+        <v>23.91107141404778</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>19.21427762393118</v>
+        <v>22.67571097740812</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.00047009503955</v>
+        <v>4.878423352526816</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>19.14010263462004</v>
+        <v>12.54559153157911</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.18534025618603</v>
+        <v>17.15140854281767</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.01201587883731</v>
+        <v>18.74588425425928</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.16331058934988</v>
+        <v>26.11426923401095</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>19.2034502647492</v>
+        <v>32.25876975868621</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.98181217590107</v>
+        <v>0.2489668943121011</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>19.0993159397907</v>
+        <v>8.709054839494659</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.14396748884956</v>
+        <v>14.42765600581035</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>19.07741296152656</v>
+        <v>3.372306296601302</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.17162834067238</v>
+        <v>27.46395268380369</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.20525045774612</v>
+        <v>37.06051720281683</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.2153505192148</v>
+        <v>26.44424151858395</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>19.2772461193572</v>
+        <v>35.76993621126219</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.30917377615237</v>
+        <v>37.93996262807046</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.04845489580728</v>
+        <v>9.54815797260548</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.21898061867298</v>
+        <v>22.35316018059393</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.27452930255343</v>
+        <v>31.51491344275456</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.23942174251188</v>
+        <v>40.78245485382406</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.25621824912695</v>
+        <v>38.14218994185964</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>19.32088240457968</v>
+        <v>45.69471375017582</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>19.34359676782755</v>
+        <v>43.47898405461197</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>19.0931024043502</v>
+        <v>14.8212149337049</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.27081323634828</v>
+        <v>42.77584836708219</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.3139571818408</v>
+        <v>43.20323411578839</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.07107987527017</v>
+        <v>24.23706042082622</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>19.2535458324331</v>
+        <v>41.29321778370188</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.29291870343653</v>
+        <v>40.89638588150257</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.06438868687721</v>
+        <v>7.109183203809362</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>19.21223828818592</v>
+        <v>36.4255788732123</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>19.25554632577945</v>
+        <v>34.77974495358012</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.16920813487124</v>
+        <v>11.74979169250882</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>19.28837825074555</v>
+        <v>57.19342010286016</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>19.32075551613772</v>
+        <v>58.67322831065165</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>19.37684844170105</v>
+        <v>70.88243333383197</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>19.44930375543634</v>
+        <v>71.51441572975499</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>19.48022767062028</v>
+        <v>71.33150807856164</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>19.17834533122479</v>
+        <v>31.87678674010408</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>19.39187414710464</v>
+        <v>68.50260609629217</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.44449011546855</v>
+        <v>68.69896208198361</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>19.23488468987685</v>
+        <v>42.20817143299377</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>19.25094220455911</v>
+        <v>33.6707323643715</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>19.31521664909763</v>
+        <v>38.45647192181941</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.33843750947569</v>
+        <v>42.01259395304896</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>19.08815809134161</v>
+        <v>7.972830362700579</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.26743867347229</v>
+        <v>38.34382558421267</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>19.31093022014618</v>
+        <v>41.63116001699298</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.06701231035557</v>
+        <v>18.99271299842654</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>19.24880682458605</v>
+        <v>37.4475448495749</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>19.28812654609956</v>
+        <v>39.02276781034841</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>19.06726577632553</v>
+        <v>4.022715226077761</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>19.2160818554673</v>
+        <v>34.91623785829314</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>19.2593451942983</v>
+        <v>36.53614306978353</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>19.16911124544609</v>
+        <v>9.401430741435956</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>19.2891918054695</v>
+        <v>56.40585919579431</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>19.32165497372533</v>
+        <v>60.77515499533024</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>19.37799417988525</v>
+        <v>69.82309472246153</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>19.44994194437018</v>
+        <v>69.95722556410779</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>19.4810923289121</v>
+        <v>73.63685037730859</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>19.18041555715085</v>
+        <v>24.21983713113516</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.39513481226804</v>
+        <v>66.50672832104898</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.44766689566469</v>
+        <v>69.3529701141439</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>19.1984959833257</v>
+        <v>40.93543348772144</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.19077073078661</v>
+        <v>20.54369908888233</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>19.24312955553085</v>
+        <v>25.78828036447772</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>19.26729747306192</v>
+        <v>30.86726870627207</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.06206036357752</v>
+        <v>6.194791127686074</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>19.20157433676253</v>
+        <v>34.98158460770205</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>19.24593050860713</v>
+        <v>40.81383000808197</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>19.06418499865514</v>
+        <v>13.46269554901598</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>19.20951419535746</v>
+        <v>35.02113973822858</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>19.24811708137929</v>
+        <v>41.40182058388505</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>19.05779265747688</v>
+        <v>4.122750937625622</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>19.1743629875118</v>
+        <v>32.8815934172423</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>19.21730831610472</v>
+        <v>41.1193330724675</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.1397815229919</v>
+        <v>7.082779874113893</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>19.23357779072611</v>
+        <v>51.24989649472613</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>19.26619138288282</v>
+        <v>62.47172010366175</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.28967930165336</v>
+        <v>55.68712864935912</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>19.3486247017982</v>
+        <v>60.90891775722994</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>19.38023941774552</v>
+        <v>69.88787452436435</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.13176395113491</v>
+        <v>17.54436417957833</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>19.30024989212988</v>
+        <v>61.75919962119816</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>19.35376653002627</v>
+        <v>70.61021837978809</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>19.08034823303112</v>
+        <v>10.47202910864115</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>19.1606006131577</v>
+        <v>17.46063463193135</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.17834549160202</v>
+        <v>25.97911091354044</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.08407652375724</v>
+        <v>-0.4895089438573024</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.14013159143584</v>
+        <v>18.86127293446285</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.16028787372427</v>
+        <v>21.63957062365066</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.12602252441516</v>
+        <v>7.903852223546018</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.17108015157111</v>
+        <v>38.96944861865015</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.18583487001307</v>
+        <v>43.18453894008967</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.18352354636932</v>
+        <v>18.7882064127752</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.21083701701163</v>
+        <v>26.10798536870122</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>19.22539583756182</v>
+        <v>29.95231221702572</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.09264621436845</v>
+        <v>14.84248772184575</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.16986034986799</v>
+        <v>19.39354087520051</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.19652514670929</v>
+        <v>30.79592142425656</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.06130788503609</v>
+        <v>14.63287038782565</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.17471417759186</v>
+        <v>28.6700986308366</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>19.20809594414539</v>
+        <v>34.82559363599144</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>19.04811190693105</v>
+        <v>-0.7329751129761384</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.13141221978236</v>
+        <v>11.86019796837754</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.16873318679115</v>
+        <v>17.29631586509627</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.10883750135377</v>
+        <v>0.1081962258387392</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.17524315553681</v>
+        <v>27.50527554701138</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.10523780075694</v>
+        <v>13.52210786799042</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.2027789291263</v>
+        <v>30.34858966359688</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.2200052139233</v>
+        <v>34.26140830026876</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>19.12222716850546</v>
+        <v>1.056368416343826</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>19.19469577434255</v>
+        <v>38.27641640811751</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>19.21401190837432</v>
+        <v>39.04326353958986</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.1688562793013</v>
+        <v>6.84725230421348</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.22743674160379</v>
+        <v>54.77102955758019</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>19.24142964254336</v>
+        <v>56.72402845699371</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.26243631466441</v>
+        <v>53.22603466033179</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.29536788602771</v>
+        <v>62.47067508470403</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>19.30932444068527</v>
+        <v>64.00426476235906</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.15295204081679</v>
+        <v>21.89814418354009</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.25306307023182</v>
+        <v>51.49541474089434</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.27816449195755</v>
+        <v>55.65222909629485</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.10489812331111</v>
+        <v>19.80752120242114</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.24264291212763</v>
+        <v>42.15039667573353</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.27641907181428</v>
+        <v>47.26773729446036</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.11057305396858</v>
+        <v>4.095223803247368</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>19.21732947181118</v>
+        <v>35.93718433467433</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>19.25472253018144</v>
+        <v>43.82184192549965</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>19.17767811362086</v>
+        <v>9.586471148169295</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>19.26334063911959</v>
+        <v>56.8013839348167</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>19.09942694298684</v>
+        <v>7.021502302429438</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.19680273601306</v>
+        <v>25.04504829334435</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.21423682190315</v>
+        <v>30.62914872926656</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>19.11951297274214</v>
+        <v>-1.312902992125625</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.19290947211727</v>
+        <v>35.95206096081043</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>19.21245044045603</v>
+        <v>40.28686608690771</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.16494803347814</v>
+        <v>5.42861850436001</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.22434668487248</v>
+        <v>53.50770553280798</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.23859840262227</v>
+        <v>58.58940039287326</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.25937507199917</v>
+        <v>55.06540664302383</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>19.29230572954271</v>
+        <v>61.68488136332672</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>19.30655215395334</v>
+        <v>66.46422540459203</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>19.14989513680624</v>
+        <v>10.92987032953537</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.25136452580835</v>
+        <v>42.26152143968252</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>19.27669307954974</v>
+        <v>49.78110620882556</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.09848899959109</v>
+        <v>13.71081547128615</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>19.23596202681537</v>
+        <v>35.77907040242485</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>19.26985355560002</v>
+        <v>44.04242029484185</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.10904341301246</v>
+        <v>0.5306229343356428</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>19.21694419333866</v>
+        <v>31.62180361531297</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>19.25447298936853</v>
+        <v>45.21754723961135</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.17440687968697</v>
+        <v>6.863798352688782</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.26110468730513</v>
+        <v>53.60574359588902</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.09989713704439</v>
+        <v>0.5660097455926199</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>19.17746397050652</v>
+        <v>18.52764204152307</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>19.19502823672801</v>
+        <v>28.80194554913427</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>19.11450418578024</v>
+        <v>-0.750645263966252</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.17127125513401</v>
+        <v>32.57268775971735</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.19117515005651</v>
+        <v>41.5033855372853</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>19.1502246685565</v>
+        <v>3.204314136192693</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>19.19603354709713</v>
+        <v>47.82977633880257</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>19.21081723177616</v>
+        <v>56.97902879072309</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>19.21534652185347</v>
+        <v>42.96414622002574</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>19.24189953806731</v>
+        <v>49.57021303613892</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.25674666464459</v>
+        <v>56.09332644703709</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.12838735327285</v>
+        <v>8.717495768886062</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>19.20669326111858</v>
+        <v>33.44179725235985</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.23294778955096</v>
+        <v>48.76833233941128</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.09311106299085</v>
+        <v>7.837842884381768</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>19.2026705870033</v>
+        <v>32.40696579600665</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>19.23502410813523</v>
+        <v>44.12294960948221</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.09698587925434</v>
+        <v>-0.4768323991527446</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>19.18081978791185</v>
+        <v>28.03980350993755</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>19.21697570058065</v>
+        <v>44.69704249807612</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.14881797865319</v>
+        <v>2.834779004334493</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>19.21595247286628</v>
+        <v>46.40238296995243</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>19.20347803440617</v>
+        <v>36.41254297483288</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.19920779004885</v>
+        <v>25.67902589857825</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.24776550241744</v>
+        <v>47.35529681687869</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.27574864267967</v>
+        <v>52.47947141122962</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.08008165800411</v>
+        <v>6.820463523063415</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.20034764439163</v>
+        <v>26.68854689763451</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.24711616317811</v>
+        <v>35.48605309522938</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.05683459640126</v>
+        <v>17.70457346313211</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.18857096200213</v>
+        <v>28.03248645867279</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.22842679556097</v>
+        <v>39.15766432916768</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.0401319151388</v>
+        <v>0.2328537456570849</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.14191161783231</v>
+        <v>10.88210703204298</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.18692273375792</v>
+        <v>18.97131673960521</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.11907597016328</v>
+        <v>2.826004095585905</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>19.20073257554066</v>
+        <v>31.0819644497952</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.23497979164331</v>
+        <v>45.66146641959773</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.25317140615864</v>
+        <v>31.58048037636837</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.30781729861406</v>
+        <v>52.60830882844913</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>19.34342915903025</v>
+        <v>57.77475148764518</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>19.10611726517386</v>
+        <v>6.251575301428961</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.25287883675294</v>
+        <v>26.82891476828531</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.30962640817154</v>
+        <v>39.64057136124036</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>19.29153616890759</v>
+        <v>69.08556425069631</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>19.32115752101636</v>
+        <v>63.23547299351216</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>19.37817692442632</v>
+        <v>76.12820748196192</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.40612494748587</v>
+        <v>81.88596826135152</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>19.17756916936937</v>
+        <v>26.50619111175651</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.33099930335744</v>
+        <v>72.31670104345717</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>19.376925018188</v>
+        <v>77.27874758074387</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.12023203560652</v>
+        <v>23.39762246295761</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.27924188427487</v>
+        <v>47.91915826933228</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.31911560706295</v>
+        <v>53.03041357737237</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.12594286343239</v>
+        <v>6.599172176440081</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.25427528858591</v>
+        <v>45.63923304863064</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>19.29892935119243</v>
+        <v>49.24212065816619</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.21204395862859</v>
+        <v>11.59355455652472</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.3155303556499</v>
+        <v>69.16817874397906</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>19.34936317249002</v>
+        <v>78.24729497830961</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>19.41066607709229</v>
+        <v>86.06783182724158</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>19.47438459327209</v>
+        <v>95.74921603882194</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>19.51001280979198</v>
+        <v>99.09342370802628</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>19.23578503202752</v>
+        <v>35.02117882093256</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>19.41999840782304</v>
+        <v>88.97239370898842</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>19.47531254716372</v>
+        <v>94.28598988054701</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>19.28951091788238</v>
+        <v>71.41613663535347</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>19.3187448890618</v>
+        <v>56.88283636624834</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.3753780733393</v>
+        <v>65.37494515165245</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.40358233763076</v>
+        <v>78.10321505056497</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.17541419857752</v>
+        <v>18.82737161994473</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>19.33035613648434</v>
+        <v>67.21292396981465</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.37642080132478</v>
+        <v>76.89444658723106</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.11923970615792</v>
+        <v>16.03035619818603</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.27774292706843</v>
+        <v>42.96425949703585</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>19.31746842099924</v>
+        <v>50.403560845556</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.13100771761541</v>
+        <v>2.395582789650316</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.2602936429877</v>
+        <v>44.2642191661806</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>19.30477096623882</v>
+        <v>52.29145547705151</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.21454843458602</v>
+        <v>7.74805639950069</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.31891496358705</v>
+        <v>68.43770163553526</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.35271352854392</v>
+        <v>81.3564206135292</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>19.41461562755671</v>
+        <v>83.56984371317904</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.47784126763815</v>
+        <v>91.70105691135524</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.51347623723352</v>
+        <v>99.28351302594629</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>19.24050892450531</v>
+        <v>25.14828073108689</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>19.42591842215859</v>
+        <v>84.63099090451274</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.48097574761672</v>
+        <v>95.09691498185481</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.24354607953206</v>
+        <v>66.19812477748147</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>19.24873752323784</v>
+        <v>37.32052245155364</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.29503263028056</v>
+        <v>50.26384845687977</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>19.32273360991249</v>
+        <v>64.90884719255087</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.13530643747364</v>
+        <v>11.24457585988776</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.25585285789892</v>
+        <v>57.51390243194544</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.30120528113643</v>
+        <v>73.0676996746315</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.10605385328814</v>
+        <v>13.29001122450369</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>19.23277355361114</v>
+        <v>41.8783996197466</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>19.27087984065417</v>
+        <v>55.55710155654322</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.10964071319698</v>
+        <v>4.08168786470759</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.21088203218426</v>
+        <v>40.9346374550054</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>19.25387192338278</v>
+        <v>55.93406406590739</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.17700211861143</v>
+        <v>7.3177597908984</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.25850637790038</v>
+        <v>62.08889774890812</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>19.29144649672605</v>
+        <v>82.11857109632319</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>19.32164402803911</v>
+        <v>68.42643559744229</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>19.37359845039505</v>
+        <v>83.39092917350021</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>19.40822808095725</v>
+        <v>98.46589762621912</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>19.18240512917288</v>
+        <v>17.36735985367916</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>19.32781691989426</v>
+        <v>73.02691376411795</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.38206744673635</v>
+        <v>92.8390315829586</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.663</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.913</v>
+        <v>15.778</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.665</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.254</v>
+        <v>15.985</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.945</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.345</v>
+        <v>3.161</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.2315776372106</v>
+        <v>9.189016652063319</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.292269347996768</v>
+        <v>12.30174625295438</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.74253677771018</v>
+        <v>17.48154401460182</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.381956903269238</v>
+        <v>3.446263747142641</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.02622831253997</v>
+        <v>12.13938677496345</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8.738165238782345</v>
+        <v>13.86770340963679</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.729111574384962</v>
+        <v>7.343308485685913</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.11566812925587</v>
+        <v>23.86983592861495</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.46516998859603</v>
+        <v>25.27028424996208</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.772056413076378</v>
+        <v>11.41629136811089</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.564640337639618</v>
+        <v>15.77369785193093</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.98965377672128</v>
+        <v>16.92107777193617</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.94951992259198</v>
+        <v>12.19828636231553</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.685623217585958</v>
+        <v>6.797296239179545</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12.75514290939879</v>
+        <v>16.30690904037997</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.913169653144</v>
+        <v>10.74278397588462</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.39757462653087</v>
+        <v>19.12702166119319</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17.678981849603</v>
+        <v>27.68721022104213</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.367346890603427</v>
+        <v>7.052508664199667</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.110865744269127</v>
+        <v>10.61608589226942</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.662018741162047</v>
+        <v>15.74920616258276</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.158845331622107</v>
+        <v>3.14735042789783</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.456049237211934</v>
+        <v>13.84753499461591</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.26480397927694</v>
+        <v>17.04294166570521</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.79487311325803</v>
+        <v>24.73600488559349</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20.30970955465212</v>
+        <v>24.80147928078502</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.470656430303077</v>
+        <v>2.674788950854623</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.51814213659447</v>
+        <v>27.95862779273116</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.97763713307721</v>
+        <v>31.70306763272356</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.000897218442862</v>
+        <v>6.465446538793277</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.99639012209942</v>
+        <v>39.17640272954584</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.89739824384344</v>
+        <v>38.26006906405143</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.93867183426197</v>
+        <v>37.0936804773995</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.22100044319316</v>
+        <v>44.07963095671391</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.62674021572112</v>
+        <v>45.18304548153476</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.61742543333607</v>
+        <v>18.0347951349199</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.67881320959435</v>
+        <v>25.99657464217034</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.42831224768278</v>
+        <v>29.60643687786288</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.22920977924937</v>
+        <v>17.07754168161281</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20.50384561779364</v>
+        <v>26.9909580989809</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24.08988047435691</v>
+        <v>30.30451658581304</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.49308672953722</v>
+        <v>7.167850519323167</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.49634229391338</v>
+        <v>25.69316505841904</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.19725211669842</v>
+        <v>34.77723045298288</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.97191786215245</v>
+        <v>39.04250025316159</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.24518588154068</v>
+        <v>9.920534860903533</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.58264024238721</v>
+        <v>21.1866640311141</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.77453902976141</v>
+        <v>24.78669768340859</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.745493178480757</v>
+        <v>1.794307014295775</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.50400669233882</v>
+        <v>26.41527921982594</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.36173892403964</v>
+        <v>31.04020655970566</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.168869973368755</v>
+        <v>7.828868101418063</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.05215971408471</v>
+        <v>41.1634135948299</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.99564131206948</v>
+        <v>43.66720731698467</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.8272296651085</v>
+        <v>40.61659370938451</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.1807070486305</v>
+        <v>44.66311885929171</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>44.13160448213161</v>
+        <v>49.01594326627735</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.9525565896397</v>
+        <v>13.24705738636996</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.00707004712602</v>
+        <v>24.42424264656018</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.08127714187016</v>
+        <v>28.61395039435368</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.394361686137877</v>
+        <v>12.25312982426608</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.95776961196615</v>
+        <v>24.83142628974511</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>22.38334867731913</v>
+        <v>30.29715926271825</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.583742300063999</v>
+        <v>6.864033959557077</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.33391608259147</v>
+        <v>21.38177683952993</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.3292743642056</v>
+        <v>34.78712370268757</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.997837066818651</v>
+        <v>4.876314094790576</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.75623090349491</v>
+        <v>36.75863014555823</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.218147587289273</v>
+        <v>5.824583448134184</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.99979143073848</v>
+        <v>16.70685252253818</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.45637425362295</v>
+        <v>21.15703029220061</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.089643720411416</v>
+        <v>1.728213911391691</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.90487881498052</v>
+        <v>26.30976576293289</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.87496408984492</v>
+        <v>30.90730962135594</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.147384271688562</v>
+        <v>2.297420951895077</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.43544962033315</v>
+        <v>36.89420891962255</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.99232817833387</v>
+        <v>40.66987046296489</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.31675583363938</v>
+        <v>26.85523149701562</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.12101169689122</v>
+        <v>31.71740937492029</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.54330235521937</v>
+        <v>36.5238650126596</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.468916384901622</v>
+        <v>9.215358656115633</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.94142027083365</v>
+        <v>17.44318266130043</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.58930076155494</v>
+        <v>29.73897348179784</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5.134589061208288</v>
+        <v>8.936540159773894</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>15.74703516047898</v>
+        <v>23.05967425642138</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.16513292828081</v>
+        <v>29.23594557541778</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4.937115705400515</v>
+        <v>6.247236645456002</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.45694969590104</v>
+        <v>22.58401736070454</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.69398309173775</v>
+        <v>33.62491258201429</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-0.7623555647709956</v>
+        <v>1.097312316742588</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>23.06294788858389</v>
+        <v>32.16001896984345</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>13.96784191395695</v>
+        <v>17.88246070305639</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6.662522319364692</v>
+        <v>15.48317743497066</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.07254682745074</v>
+        <v>33.24899715448612</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.38674367730682</v>
+        <v>37.64395522051354</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3.554717201497805</v>
+        <v>6.183575754466972</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.401598854527997</v>
+        <v>12.11557214823167</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>9.764634826938284</v>
+        <v>18.1835928573745</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>15.94717768980488</v>
+        <v>13.58364421972904</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>16.1020170006899</v>
+        <v>22.14158479448129</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.27416515930564</v>
+        <v>31.73833480793179</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5.411101744313584</v>
+        <v>6.727452252030112</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2.565094085846827</v>
+        <v>10.51568877781579</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>8.927164360400845</v>
+        <v>11.50038596184007</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.8919564445538697</v>
+        <v>3.570406224662463</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>13.99694117617404</v>
+        <v>15.71302398036682</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.47552062858684</v>
+        <v>30.52473404735935</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>13.88109459125921</v>
+        <v>17.63199360929037</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.56009431437989</v>
+        <v>38.4201348731327</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.80448280074636</v>
+        <v>43.67773866589484</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4.256784194885082</v>
+        <v>5.568790420731521</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.254446782462932</v>
+        <v>13.88291513985642</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.04262352901639</v>
+        <v>22.14325529476187</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.545645318345</v>
+        <v>48.4898383625607</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.16872172774154</v>
+        <v>41.1756161266381</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.94387962100518</v>
+        <v>53.27564657714353</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.27741854805494</v>
+        <v>57.91802801223454</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.38703694211884</v>
+        <v>21.17792907341901</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.82619338736166</v>
+        <v>47.08463767831455</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.17568805450645</v>
+        <v>52.7539139520279</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.25214139156174</v>
+        <v>25.52342302848355</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.44279512227702</v>
+        <v>34.55135431107379</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.28826978226294</v>
+        <v>41.22537642296479</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.78174172679239</v>
+        <v>8.482627489707181</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.55824447217273</v>
+        <v>35.51892263342435</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.83048332904301</v>
+        <v>42.32079328349496</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.658486648967493</v>
+        <v>8.586551275580355</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.53937917517479</v>
+        <v>56.55867478725696</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>56.84831892257836</v>
+        <v>63.8363581363015</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>62.76923172896981</v>
+        <v>67.9171280114596</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>68.69451634920875</v>
+        <v>75.63840312922656</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.69080470415498</v>
+        <v>81.81676726698473</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.81055677719808</v>
+        <v>34.65153508276366</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>60.30422157712613</v>
+        <v>68.08374544579939</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.41706077715918</v>
+        <v>72.83178445103806</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.49623419400907</v>
+        <v>52.62327587194243</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.75513409461146</v>
+        <v>35.68814417181755</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.60076526329815</v>
+        <v>42.62524043340543</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.8651863561965</v>
+        <v>55.98263178872703</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.54814676712759</v>
+        <v>16.28550721448534</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.3213194940454</v>
+        <v>44.53306993414413</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>40.16920536554959</v>
+        <v>51.18263674162655</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.45405509262933</v>
+        <v>17.56179274273802</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.18541480885263</v>
+        <v>31.29021435016594</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.79127093587004</v>
+        <v>39.6756931772717</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8.487883901885002</v>
+        <v>7.534993366518471</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.0656941643662</v>
+        <v>32.92564869261619</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.24974704385061</v>
+        <v>43.31226347146257</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.6551183635871</v>
+        <v>8.6535123679271</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>47.73274886773713</v>
+        <v>54.11695080981586</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.37370401755402</v>
+        <v>68.49692337678071</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>61.43326033835835</v>
+        <v>66.52613785595116</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>65.22091214681492</v>
+        <v>72.30239389838472</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>75.83796200418956</v>
+        <v>81.99466042967506</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.05769921615557</v>
+        <v>25.80412526052947</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>56.25481975113973</v>
+        <v>61.82247380218839</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68.14894415077036</v>
+        <v>72.34363260845123</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>39.01145711396523</v>
+        <v>47.68284494466877</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>12.87958007401925</v>
+        <v>23.00486058999627</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.1236024846974</v>
+        <v>29.70746249638198</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.5868006138235</v>
+        <v>40.60336438035476</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5.262326691010738</v>
+        <v>10.73077280741519</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.0301459730305</v>
+        <v>41.08898145103459</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.41823107371152</v>
+        <v>48.86964964417443</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>13.45955332158647</v>
+        <v>14.85267161526809</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.41114778070223</v>
+        <v>32.7590540372351</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.97945733188121</v>
+        <v>44.0694196865966</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9.115340573751094</v>
+        <v>7.906847544442108</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.05540809320143</v>
+        <v>33.45025851476912</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.54116814042476</v>
+        <v>46.00743218550235</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>6.385393054442954</v>
+        <v>3.77081156963774</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>41.8565496681467</v>
+        <v>49.73707488286584</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.96198820285537</v>
+        <v>69.0430753592203</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.45917151392013</v>
+        <v>55.71894946066328</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.6545541496383</v>
+        <v>65.47286984150684</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>72.47697025065186</v>
+        <v>80.23050004135723</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14.26875596914578</v>
+        <v>16.31364240473306</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.45048441004798</v>
+        <v>52.84545167657866</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>65.09482125063991</v>
+        <v>70.79727769662372</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.161945729763247</v>
+        <v>10.63427540790696</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21.55618494501236</v>
+        <v>19.47671094723923</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.36001281597304</v>
+        <v>28.79494585865028</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.852963211756066</v>
+        <v>7.481808437111692</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.67637904208578</v>
+        <v>26.98149777404456</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.00474311469467</v>
+        <v>30.72900260196409</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.3530779002815</v>
+        <v>10.90051317063947</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>52.77980877277849</v>
+        <v>45.46972460592102</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>57.99296032782375</v>
+        <v>48.72715710990069</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.46859603533899</v>
+        <v>21.70651860229638</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.07680534574341</v>
+        <v>27.22095794572947</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>39.44015694882935</v>
+        <v>28.74275228886164</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>15.62914661426424</v>
+        <v>21.19934641874073</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.9977299599787</v>
+        <v>19.41440101173047</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.93695605107193</v>
+        <v>35.73778530181395</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.48107335027763</v>
+        <v>14.84763384100837</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.23903285879406</v>
+        <v>27.82109538948483</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.8771299950178</v>
+        <v>27.31677690116981</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3.51052793152995</v>
+        <v>7.167003783993209</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.42056445533637</v>
+        <v>18.16120198286594</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.22722902407578</v>
+        <v>21.27871329176595</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>7.733739843680569</v>
+        <v>8.606038371599169</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>37.94159136013084</v>
+        <v>30.86053141588824</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>13.33031770202327</v>
+        <v>17.4132288233566</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.90085382909491</v>
+        <v>30.4934657161155</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.14715140993093</v>
+        <v>34.93442992134818</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7.224287823399905</v>
+        <v>7.882297955885853</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.37484021486524</v>
+        <v>38.20526234036566</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>48.75427012671701</v>
+        <v>41.56391377971901</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15.32854052129875</v>
+        <v>11.5799626162172</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>65.0904784124937</v>
+        <v>55.84709374940268</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>67.256880588659</v>
+        <v>54.35882334722805</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>57.98831360572041</v>
+        <v>46.98345035029959</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>64.05962284927362</v>
+        <v>53.79231539770743</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>64.36468623911946</v>
+        <v>53.16965160600606</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.22158062084047</v>
+        <v>22.12687090028124</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.20196295620849</v>
+        <v>35.1111980966811</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>55.46160444555244</v>
+        <v>39.31085279897262</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.43876996340956</v>
+        <v>23.24608175053761</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.30856076710783</v>
+        <v>35.79649932659068</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>39.03056356126062</v>
+        <v>33.46669714056129</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>7.717096625634467</v>
+        <v>7.863677095537749</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>37.38320771102181</v>
+        <v>34.14991248017913</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.35649319410338</v>
+        <v>33.04935491442617</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>16.5343604743639</v>
+        <v>10.43192091897972</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>58.80999450366011</v>
+        <v>51.15979889709858</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7.406505206535343</v>
+        <v>9.305903592916131</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.20878977568984</v>
+        <v>24.28574055090117</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.38203325456799</v>
+        <v>31.36483191385712</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.23557737140089</v>
+        <v>6.840223402978829</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.5757126589944</v>
+        <v>36.16137306211429</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.25498682459681</v>
+        <v>38.95647852768212</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>12.85517753756365</v>
+        <v>10.32083687206631</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>61.78515022238437</v>
+        <v>53.31611459201855</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.94838417087354</v>
+        <v>54.48713877525566</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.77660105634318</v>
+        <v>53.65639829845986</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>63.94386021662909</v>
+        <v>57.40429532900234</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>66.10975277187323</v>
+        <v>58.34333528311866</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.396008414529826</v>
+        <v>11.48191927248583</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>39.8623963790786</v>
+        <v>24.91554141988326</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>47.19704771740663</v>
+        <v>30.87550784457852</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>18.5727538259854</v>
+        <v>18.53840306764796</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.135656537176</v>
+        <v>32.98714737899688</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.20247291505692</v>
+        <v>32.33339613635925</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.039565016731952</v>
+        <v>7.101920193448215</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.86623247846134</v>
+        <v>30.62226717160589</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.71335184918161</v>
+        <v>31.28083650765873</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.47478130539771</v>
+        <v>9.976172269495805</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>55.05794634307389</v>
+        <v>46.86641796688334</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-0.3072740550850099</v>
+        <v>7.418638268224473</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.72911786464175</v>
+        <v>23.88434660181362</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.32574395228893</v>
+        <v>32.01102524926168</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3.837220228969478</v>
+        <v>7.148915744038387</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>41.58220878922136</v>
+        <v>38.25578361514145</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>49.67413913561739</v>
+        <v>41.1756108912414</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10.52734112403787</v>
+        <v>8.031643304175848</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>58.35644478928657</v>
+        <v>53.50169777268503</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>66.46877564332901</v>
+        <v>55.46373198985726</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.30430909592037</v>
+        <v>49.03067232625516</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>58.82806249342734</v>
+        <v>54.81517319728432</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>61.92901915705595</v>
+        <v>56.46775037894989</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7.458942559651959</v>
+        <v>9.884408930886467</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.04844412542903</v>
+        <v>23.13016741169146</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>49.89157658725249</v>
+        <v>36.09143758204468</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>11.67359316510718</v>
+        <v>15.9743721070692</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.76858908238908</v>
+        <v>31.76016646060646</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.31917106655432</v>
+        <v>31.83262990589834</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3.082463162205361</v>
+        <v>7.447260281384757</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.19173292931893</v>
+        <v>29.91155305489845</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>34.81410515658062</v>
+        <v>31.93595163593804</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.70361382687215</v>
+        <v>8.496461050034988</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49.20043960176047</v>
+        <v>43.48502121085711</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.75414866389367</v>
+        <v>30.41108078054636</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.28783354304684</v>
+        <v>25.68091918466208</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.60670649948243</v>
+        <v>40.05346662222802</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>48.59373249215895</v>
+        <v>41.61695938583751</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.49641153399627</v>
+        <v>16.66714760049088</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>37.57308978808474</v>
+        <v>29.52623550051458</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>38.56725476334989</v>
+        <v>33.82833979192276</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.14264577733909</v>
+        <v>19.00686426424674</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.75174280697745</v>
+        <v>29.76216894573947</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.42125187206567</v>
+        <v>36.53195035970427</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3.558602352091164</v>
+        <v>6.814950047455653</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.85288998682697</v>
+        <v>17.23354627603231</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.08564820111438</v>
+        <v>23.4786906843232</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.48912938311993</v>
+        <v>9.345802805330106</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>43.99298636231579</v>
+        <v>32.93787906757458</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>55.90499481502128</v>
+        <v>48.96079604910869</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.6148655078871</v>
+        <v>29.39898205711845</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>55.5065136582197</v>
+        <v>48.24683128763651</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>58.90367385081281</v>
+        <v>49.51494670937554</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>20.46050549972243</v>
+        <v>16.91835752540396</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>40.64509349283034</v>
+        <v>29.89945843771409</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>50.22403431645542</v>
+        <v>40.90339275456765</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>59.98827025952879</v>
+        <v>52.02020330432627</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.82279166738044</v>
+        <v>51.80588733642553</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>68.85114992452324</v>
+        <v>57.57989495921556</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>67.44517728507</v>
+        <v>57.30053691162689</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.39229923787218</v>
+        <v>28.98378998028813</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>65.98198742761375</v>
+        <v>54.86457178435735</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>60.47901497440006</v>
+        <v>52.54856890692935</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.64983683803707</v>
+        <v>24.56663303113478</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>5.684247876298976</v>
+        <v>8.189821624916377</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.80355341696195</v>
+        <v>40.81656924204539</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.00999965922666</v>
+        <v>40.60425390513825</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.57020216579423</v>
+        <v>11.30073210184714</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>65.46178608726038</v>
+        <v>59.19859049076371</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.9043126965625</v>
+        <v>61.47408392320748</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.96326157861586</v>
+        <v>60.40444559701569</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>79.11791150770271</v>
+        <v>66.90305679407736</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>80.89030610729937</v>
+        <v>68.3136721048636</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>34.43730599762668</v>
+        <v>32.44641717201917</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.45247999181534</v>
+        <v>64.88276311632177</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>76.37531067311183</v>
+        <v>64.9130458675186</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>60.13846335705661</v>
+        <v>52.31982328506604</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>57.83347171002536</v>
+        <v>49.62469689178721</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>61.46129299044431</v>
+        <v>53.93709472052643</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.44861129842938</v>
+        <v>56.18580206728707</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.22539623623154</v>
+        <v>23.97540356986519</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>60.66088881725766</v>
+        <v>50.91403394825144</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>57.48948559737455</v>
+        <v>49.48551875261108</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.55310341367517</v>
+        <v>18.05997517506971</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.04581189563913</v>
+        <v>32.81007907039952</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>41.38339147852892</v>
+        <v>37.13283534679433</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>2.104003335406258</v>
+        <v>7.193555442055903</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.26935732786269</v>
+        <v>37.38645661863582</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.84021328194137</v>
+        <v>37.69067216348652</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.97592570913696</v>
+        <v>11.34511667644935</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>63.04751469312333</v>
+        <v>55.4884508812828</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>69.51268786384595</v>
+        <v>61.29043001499689</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>71.24182336767183</v>
+        <v>59.52527740339579</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>76.06218629258584</v>
+        <v>66.23503358005601</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>80.28542763868029</v>
+        <v>68.84015518640332</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.04290915282853</v>
+        <v>25.11398347578604</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>72.41183665602125</v>
+        <v>63.61053682944673</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>74.4254496164184</v>
+        <v>64.39076750326913</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>56.09356751587434</v>
+        <v>49.43368591110536</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>41.64071679248055</v>
+        <v>36.95911522003233</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.20712568813505</v>
+        <v>42.08655998100688</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>53.14783608708844</v>
+        <v>43.86373490909598</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.42406637084699</v>
+        <v>20.37033182988629</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>56.52656666562721</v>
+        <v>48.00276998168402</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>57.80566322418748</v>
+        <v>49.85234949120168</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.10842223194994</v>
+        <v>18.21668346724719</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>39.18872150271426</v>
+        <v>35.23542123329841</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.13520802639192</v>
+        <v>41.60431138143041</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3.736746578653115</v>
+        <v>7.67588307693639</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.56387299669998</v>
+        <v>36.59348423593786</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.93309584679002</v>
+        <v>41.146057833904</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.9785986920961</v>
+        <v>8.987816885082292</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>62.00289108404191</v>
+        <v>52.93952620316691</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>74.29626881082761</v>
+        <v>62.4096494724324</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>62.99552851685999</v>
+        <v>55.99376091254625</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>75.16849681089998</v>
+        <v>66.78568389915077</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>82.97745698237406</v>
+        <v>68.73490221820842</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.07502803779358</v>
+        <v>22.98439821922911</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>72.65499624332989</v>
+        <v>62.33340336971383</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>81.3588123245064</v>
+        <v>67.68490461678201</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.07113322175715</v>
+        <v>12.73443355224274</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.07819657569723</v>
+        <v>22.54841407037825</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>32.83557323936456</v>
+        <v>28.37413559962335</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-3.735632682058064</v>
+        <v>3.769794729498177</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.30226659840176</v>
+        <v>15.24174785080048</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.97461219353181</v>
+        <v>19.30088972050736</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.875388648876164</v>
+        <v>5.674044771257918</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>44.07545048778992</v>
+        <v>41.29298514462481</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.7705181223383</v>
+        <v>44.79831920184316</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.70492512194195</v>
+        <v>20.95262806345057</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.37325069499345</v>
+        <v>27.08672768179802</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.47173662014388</v>
+        <v>27.67575890975553</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>7.401499454946734</v>
+        <v>12.36143491036143</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.05153047205129</v>
+        <v>16.27875969255616</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.11093523042437</v>
+        <v>19.45663042208959</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.61815802358642</v>
+        <v>18.59321096388323</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.25826145760644</v>
+        <v>29.73886898359379</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.35503497089091</v>
+        <v>30.45985643883737</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.733315853234021</v>
+        <v>4.568837106686253</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.07867202713415</v>
+        <v>14.64164773722318</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.798668725698</v>
+        <v>18.84612813505935</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.526277919181235</v>
+        <v>5.959037502928897</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>37.64632736027649</v>
+        <v>31.23757481602333</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>18.06099941451427</v>
+        <v>20.20311923720646</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>41.95975129494583</v>
+        <v>38.39713628131262</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>41.51872289979163</v>
+        <v>36.71704216237493</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1.728780515414126</v>
+        <v>4.846621799764829</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.64017875588495</v>
+        <v>35.75233046327191</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.65294985857802</v>
+        <v>37.83150298965617</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>9.30229681106109</v>
+        <v>5.570522165343338</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>60.89089268198799</v>
+        <v>55.73535120668495</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>57.83528054992786</v>
+        <v>52.52716759884844</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.80146605080097</v>
+        <v>45.04244238872319</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>59.09602060556097</v>
+        <v>54.49998509118649</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.1745971026432</v>
+        <v>54.89251251073273</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>12.84764306201792</v>
+        <v>17.02716281160179</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.0536821157869</v>
+        <v>42.09477619366788</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.31270968310905</v>
+        <v>39.49740990247214</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.39325293721117</v>
+        <v>23.57915312511696</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>47.34607423468508</v>
+        <v>37.5350782526078</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.00998765142087</v>
+        <v>36.57533898408619</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>9.373521097586165</v>
+        <v>5.030889883151367</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>41.28384627663056</v>
+        <v>32.83773022821845</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.32899738558376</v>
+        <v>32.97751228781134</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>15.9886692273845</v>
+        <v>6.341360758953829</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>61.78251437311678</v>
+        <v>54.25420441946137</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.01397307287969</v>
+        <v>8.275598567183213</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.72193346209541</v>
+        <v>29.49725286773057</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>37.05947726074007</v>
+        <v>31.16850062722489</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>0.9032928146489354</v>
+        <v>3.402000669456786</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>38.78053357603213</v>
+        <v>33.79801345743728</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>37.90645235586234</v>
+        <v>36.51028464353428</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.771855355991784</v>
+        <v>5.171614048241544</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>59.07388136098804</v>
+        <v>53.30391411784188</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>57.85933562776691</v>
+        <v>51.51146080975617</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.94168494625798</v>
+        <v>49.07241091538588</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>59.18357722095078</v>
+        <v>55.0573740979105</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>58.17082946569244</v>
+        <v>55.43394013237959</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.443094548606428</v>
+        <v>3.670283710893386</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.66432169529153</v>
+        <v>27.49356050927027</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>37.2380618873541</v>
+        <v>24.77581147436279</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.48018954519205</v>
+        <v>17.84764237856694</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>41.80485267063509</v>
+        <v>35.26272148305274</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.25752175799036</v>
+        <v>35.3093309076542</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>7.151050971227978</v>
+        <v>4.71908566195539</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.86766054330334</v>
+        <v>30.12798111173682</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>40.26060835140649</v>
+        <v>33.0875004611764</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.32432620503733</v>
+        <v>5.30975297437644</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>57.95501891990996</v>
+        <v>49.16584291688567</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.069311223285055</v>
+        <v>8.137979442520017</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.43542660908128</v>
+        <v>30.02825817100565</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.12888760338829</v>
+        <v>33.81847291960877</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>3.802793567957032</v>
+        <v>5.118204195457864</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>39.03977064870124</v>
+        <v>36.9150907486345</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>43.98223823883836</v>
+        <v>43.6295102840041</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.00796663472785</v>
+        <v>5.059973654745519</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>58.40655245813842</v>
+        <v>57.31654895214174</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>62.37092621147598</v>
+        <v>57.21827991827391</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>50.40378989210943</v>
+        <v>47.53929273315732</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>58.55912635343829</v>
+        <v>54.89222714554011</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>59.01746015900129</v>
+        <v>56.67415666932267</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.188501868649098</v>
+        <v>7.842386082195844</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.22633914408031</v>
+        <v>36.5311247284445</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.17166574384783</v>
+        <v>34.56675263362232</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.71517873363975</v>
+        <v>13.92444141276511</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.91668847510969</v>
+        <v>33.01125438189008</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.09829859476865</v>
+        <v>34.37440059969276</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>8.745173278699998</v>
+        <v>5.382811485922289</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.5246432386627</v>
+        <v>30.80740825003793</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.51589834415347</v>
+        <v>35.69840117128427</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.29367417105071</v>
+        <v>5.622309019848288</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>53.689988018962</v>
+        <v>47.17009934691824</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>38.35003173265594</v>
+        <v>30.41658391633336</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>35.28951044676146</v>
+        <v>27.09919553188014</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>52.00824492138329</v>
+        <v>40.77528723958393</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>50.93504415776928</v>
+        <v>43.58296637684509</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>18.77827222255653</v>
+        <v>13.475344660439</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.21631301729866</v>
+        <v>25.21809133189761</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.45536282642755</v>
+        <v>31.8772540503123</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.80573833008204</v>
+        <v>18.62082896685207</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>37.3154056943476</v>
+        <v>32.60623997796363</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>41.66150917844195</v>
+        <v>37.19245467991043</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>2.307752553878565</v>
+        <v>4.21414901334364</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.72713603239938</v>
+        <v>15.20107800583388</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.59007179935801</v>
+        <v>23.15484640262363</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.079399834079098</v>
+        <v>6.54335430224814</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.6782432291574</v>
+        <v>34.13428581716973</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.15843815163781</v>
+        <v>51.7847127100527</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.6698295993265</v>
+        <v>31.05288971243318</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>56.75812097285066</v>
+        <v>46.9361774017972</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>59.39348716992815</v>
+        <v>52.93459451652247</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>18.09894282508712</v>
+        <v>13.97172244783373</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.33745042784213</v>
+        <v>30.02219333574712</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.721032732738</v>
+        <v>41.47988744967008</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>63.13997267728861</v>
+        <v>58.0749427602199</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>65.0406081440257</v>
+        <v>57.22632235486502</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>75.71423449483446</v>
+        <v>65.68640553453426</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>73.43715121860026</v>
+        <v>64.59325205864194</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.52748033407458</v>
+        <v>24.80811594259777</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>67.67513853061881</v>
+        <v>57.96780742366771</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>66.6844048378815</v>
+        <v>60.12133168427424</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.05261543377438</v>
+        <v>28.03544773378548</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>53.13633173230401</v>
+        <v>44.02058835481981</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>49.48266464259515</v>
+        <v>41.23182833665411</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.965937051397194</v>
+        <v>5.831929160894859</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.51423118432544</v>
+        <v>40.52108748085024</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>41.11922625859454</v>
+        <v>39.41516318482038</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.21891682627541</v>
+        <v>8.130953772721334</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>68.33124206578032</v>
+        <v>63.24724584195996</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>68.22899289431135</v>
+        <v>63.5255442787473</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>79.64749080824632</v>
+        <v>68.81964322005784</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>86.40627310914181</v>
+        <v>74.8713319876145</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>86.86424209501033</v>
+        <v>76.91185895025657</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.93683617971331</v>
+        <v>32.68445412509673</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>80.91816244810342</v>
+        <v>70.08460647494763</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>78.3730589079573</v>
+        <v>69.73519904285457</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>63.74469371443445</v>
+        <v>56.46303555070733</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>60.78750890954402</v>
+        <v>52.55673722588381</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>67.93393135457302</v>
+        <v>59.70532953654126</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>70.98916899570916</v>
+        <v>62.94851572816494</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.76518778290686</v>
+        <v>18.8926809855298</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>62.78377501436348</v>
+        <v>54.00914339433956</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>63.96180630576829</v>
+        <v>54.97246205514901</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.80340553623589</v>
+        <v>20.99630937940107</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>48.28929361726264</v>
+        <v>40.65799320227342</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>46.39392304121216</v>
+        <v>38.83636686034314</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>2.30909410289696</v>
+        <v>3.967626689897354</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.36983512274159</v>
+        <v>36.24708246566107</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>40.89908295634857</v>
+        <v>36.59075983534478</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>9.536488940594836</v>
+        <v>7.017625224486061</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>65.21171913683425</v>
+        <v>58.68721084174887</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>67.70935023394432</v>
+        <v>62.62853342517766</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>77.06268121006789</v>
+        <v>64.78285132615906</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>82.40912344239706</v>
+        <v>72.01410004996559</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>86.45065698862041</v>
+        <v>76.61176551745385</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.56236159717268</v>
+        <v>24.35138337551907</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>76.63550216813644</v>
+        <v>66.80387599998666</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>76.26539938235609</v>
+        <v>65.78323050970482</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>62.00558021053496</v>
+        <v>57.11684039766917</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>46.66917003387742</v>
+        <v>37.8619608210017</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>56.54100596497885</v>
+        <v>45.27664478489919</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>61.03089904678866</v>
+        <v>50.66682685821991</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.63521341418539</v>
+        <v>15.20317871206159</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>60.77649385902465</v>
+        <v>52.23210426956895</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>65.04155369757908</v>
+        <v>55.95590584028447</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.45572260191724</v>
+        <v>18.19007990759999</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>46.49047942392743</v>
+        <v>42.82098675817915</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.787456381713</v>
+        <v>42.27052118082704</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.500738040982686</v>
+        <v>5.279610622590408</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.56060471074646</v>
+        <v>39.80635531160983</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>48.39245865894617</v>
+        <v>43.43827210746586</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.91038968754595</v>
+        <v>6.564974153779026</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>61.91210012569228</v>
+        <v>57.77023166301299</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>72.68003419664331</v>
+        <v>65.16794873736009</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>66.1703743487851</v>
+        <v>61.009391548599</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>78.30863699658819</v>
+        <v>67.54423086810554</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>87.43889067839696</v>
+        <v>75.28151210997643</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.71217668603103</v>
+        <v>20.49519920964034</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>76.51975985566322</v>
+        <v>68.29558120098341</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>83.82303878431658</v>
+        <v>71.15522301793834</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.30582552205016</v>
+        <v>11.37773970288093</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.87426373401649</v>
+        <v>16.66089149226043</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.01527852667338</v>
+        <v>21.96526196762807</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-0.7488045151335037</v>
+        <v>1.564079899765211</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.83768531986112</v>
+        <v>11.4838877403418</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>12.79373299373568</v>
+        <v>13.69353814620571</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.076681926942751</v>
+        <v>4.04844042676261</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.81804861087519</v>
+        <v>27.96952967017624</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.38658899936954</v>
+        <v>31.19344010458121</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.96173260890995</v>
+        <v>14.45961126030172</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.88004041807513</v>
+        <v>17.96522355255235</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.65059950557173</v>
+        <v>18.5164240873099</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.86859325452981</v>
+        <v>10.53316077020873</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.96944041557988</v>
+        <v>14.28948093938022</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.24938458172453</v>
+        <v>22.61717400965018</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.9600768125498</v>
+        <v>9.173176958138654</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.8287588700306</v>
+        <v>19.92119695875784</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.16865358345085</v>
+        <v>22.39375018436682</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.4204646987586251</v>
+        <v>1.013476018732305</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.11220481409139</v>
+        <v>6.172243356760241</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.564806535527522</v>
+        <v>9.806698890823217</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-3.329194154561048</v>
+        <v>2.553491362842649</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.28427674213721</v>
+        <v>17.87866156966477</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.24969055287047</v>
+        <v>13.04853369133732</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.48139192678106</v>
+        <v>23.61092162677081</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.45159065726093</v>
+        <v>24.44662517140939</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.69440594031202</v>
+        <v>1.444357058044513</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.90197343580245</v>
+        <v>22.38758373473068</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.26350143599201</v>
+        <v>23.52412707218799</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.363595606277123</v>
+        <v>4.421837824525671</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>39.67383322754482</v>
+        <v>36.68300770223659</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.40096533419145</v>
+        <v>35.93873522333511</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>37.37052315645715</v>
+        <v>33.57466921764061</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>42.37445305765367</v>
+        <v>39.33445618993699</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>42.30547393159883</v>
+        <v>42.03041578927088</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>18.70802541300823</v>
+        <v>16.66126616160295</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.2662445269417</v>
+        <v>39.31040521577799</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.26160866347072</v>
+        <v>41.24735647226144</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.00561466155637</v>
+        <v>11.76924919688434</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.01673296816006</v>
+        <v>24.09673884135041</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.1510156584274</v>
+        <v>25.49638926636215</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>1.890305883611287</v>
+        <v>0.6850987390619601</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.48415378394074</v>
+        <v>20.05906153548768</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.77985162688874</v>
+        <v>22.61121844892628</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.899343926936272</v>
+        <v>2.224238890559818</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.68660770015323</v>
+        <v>35.58419018275535</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.1866570180144</v>
+        <v>5.851735331553765</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.17900639805744</v>
+        <v>18.39595237838687</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.01777936821622</v>
+        <v>22.27309066744186</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.6452519636923775</v>
+        <v>1.393816624777035</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.61808321194772</v>
+        <v>21.67791377505394</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.25541399672329</v>
+        <v>23.12243943833517</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.216489540992566</v>
+        <v>6.850254604896275</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.11424256953586</v>
+        <v>37.32518044746048</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.81836127061922</v>
+        <v>38.07350546630342</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.07800286800591</v>
+        <v>37.0979355128727</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.3306601810792</v>
+        <v>39.53688075535851</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.5540540892184</v>
+        <v>44.53154060559336</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>9.032903150568119</v>
+        <v>6.30021184763865</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.8023118974071</v>
+        <v>28.62277296878934</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.12379990014558</v>
+        <v>31.37203853859209</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.513998143352806</v>
+        <v>7.950442696545387</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.04560541891541</v>
+        <v>22.34959675952097</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.47652237140571</v>
+        <v>25.77586251982023</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-0.8497773428273447</v>
+        <v>0.756775835335695</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.62567383356678</v>
+        <v>15.59768162890433</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.97909683813301</v>
+        <v>23.42181558254491</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.357000326260145</v>
+        <v>3.582527302934626</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.06698820999797</v>
+        <v>30.71383092498433</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.331750693287272</v>
+        <v>4.861758423796697</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.60689371014099</v>
+        <v>14.58789326431112</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.00495887354519</v>
+        <v>21.51228960468645</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.002340349886711834</v>
+        <v>0.6680114025287089</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.50973499055011</v>
+        <v>21.14407154199449</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.12303715663571</v>
+        <v>26.82124431910803</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.939640433287817</v>
+        <v>1.274349646766588</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.88730295613497</v>
+        <v>32.53189521524254</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>41.09420074861715</v>
+        <v>37.84337694760509</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.11685607209565</v>
+        <v>30.02044540213097</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.31312364006412</v>
+        <v>34.03814134747955</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.24241564416567</v>
+        <v>39.474973549203</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.477802059951653</v>
+        <v>4.808855861766308</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.04028919794514</v>
+        <v>27.40658719366916</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.10765217047403</v>
+        <v>34.89904558208045</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.420273999630718</v>
+        <v>4.388661387913292</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.37231963629385</v>
+        <v>18.89532835723387</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.95450261776783</v>
+        <v>23.91049478406532</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1.052201067306701</v>
+        <v>0.5078321260525627</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.29204599001571</v>
+        <v>15.58750356265102</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.60645393220327</v>
+        <v>23.95587062142351</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.5798139604061454</v>
+        <v>1.208253677756328</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.73452821823107</v>
+        <v>26.15238578759858</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.5499944453176</v>
+        <v>18.20714152976635</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.78456973940779</v>
+        <v>14.51363657583189</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.91107141404807</v>
+        <v>24.36591364058787</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.6757109774084</v>
+        <v>26.34677324593649</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>4.878423352526728</v>
+        <v>5.921274291656808</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>12.5455915315789</v>
+        <v>12.42708889555636</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.15140854281746</v>
+        <v>17.65302951847769</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>18.74588425425901</v>
+        <v>15.27127047119028</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.11426923401102</v>
+        <v>26.00802312115556</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.25876975868653</v>
+        <v>32.20737855489988</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.2489668943118062</v>
+        <v>0.06263784610170475</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>8.709054839494772</v>
+        <v>7.557782142603141</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.4276560058102</v>
+        <v>15.11581882332678</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.372306296601277</v>
+        <v>3.896795405219585</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.46395268380396</v>
+        <v>24.7159643367796</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>37.06051720281687</v>
+        <v>40.10796805912138</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.44424151858386</v>
+        <v>21.41651957917492</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.76993621126218</v>
+        <v>32.56446831936238</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.93996262807025</v>
+        <v>38.34487465118274</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.548157972605452</v>
+        <v>7.297524218966362</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.3531601805941</v>
+        <v>19.94875568000496</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.51491344275473</v>
+        <v>29.94598683059204</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.78245485382378</v>
+        <v>39.91048640432554</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.14218994186011</v>
+        <v>37.07525501632772</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.69471375017527</v>
+        <v>44.8815757790935</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.47898405461198</v>
+        <v>43.36311631873458</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>14.82121493370507</v>
+        <v>13.34987675993535</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.77584836708204</v>
+        <v>39.59819177472572</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.20323411578843</v>
+        <v>42.27725413308501</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.23706042082631</v>
+        <v>23.83821574556033</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.29321778370188</v>
+        <v>35.40480625437041</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.89638588150196</v>
+        <v>37.34042042339767</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>7.109183203809213</v>
+        <v>2.450207925461754</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.42557887321216</v>
+        <v>32.82169162795878</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.77974495358018</v>
+        <v>34.02025388479277</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>11.74979169250884</v>
+        <v>9.256640879690465</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>57.19342010285996</v>
+        <v>55.40716839278144</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>58.67322831065184</v>
+        <v>55.01336676120901</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>70.88243333383186</v>
+        <v>64.76326469843211</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>71.51441572975536</v>
+        <v>68.69780002446736</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>71.33150807856136</v>
+        <v>69.78099023483455</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.87678674010399</v>
+        <v>31.95872605345035</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>68.5026060962921</v>
+        <v>60.85894437049033</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>68.69896208198368</v>
+        <v>63.68518890213493</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.20817143299364</v>
+        <v>40.8759995836099</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.67073236437122</v>
+        <v>31.03301721208645</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.45647192181966</v>
+        <v>38.41261148014692</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.01259395304905</v>
+        <v>42.31224475830076</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.972830362700785</v>
+        <v>7.74731542528011</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.34382558421265</v>
+        <v>36.69539910608847</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.63116001699287</v>
+        <v>39.92544065607186</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.99271299842675</v>
+        <v>17.13788359786089</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.44754484957446</v>
+        <v>32.66189272910826</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.02276781034836</v>
+        <v>36.54127525260257</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>4.022715226077668</v>
+        <v>1.092304260170188</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.91623785829316</v>
+        <v>29.62149569983769</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.53614306978361</v>
+        <v>33.17983808256373</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.40143074143597</v>
+        <v>9.18953764980045</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>56.40585919579415</v>
+        <v>52.9971761917171</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>60.77515499533021</v>
+        <v>57.42172754862067</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>69.82309472246142</v>
+        <v>61.72311297668042</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>69.9572255641079</v>
+        <v>67.44581242446017</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.63685037730819</v>
+        <v>71.68896264181191</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.2198371311353</v>
+        <v>23.35814623391095</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>66.50672832104904</v>
+        <v>59.65920245850226</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>69.35297011414404</v>
+        <v>63.892554720812</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.93543348772187</v>
+        <v>39.56996601345895</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.54369908888234</v>
+        <v>19.00006853440738</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.78828036447775</v>
+        <v>24.96217401083104</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.86726870627216</v>
+        <v>30.95134546434341</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>6.194791127685814</v>
+        <v>4.305435726895091</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.98158460770159</v>
+        <v>33.35784597514433</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.81383000808211</v>
+        <v>39.59405170018605</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.46269554901586</v>
+        <v>13.25709030740887</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.02113973822865</v>
+        <v>33.57974984588795</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>41.401820583885</v>
+        <v>38.00473901818009</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>4.122750937625568</v>
+        <v>1.408297678181953</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.88159341724231</v>
+        <v>31.10174108694541</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.11933307246753</v>
+        <v>37.30977395052895</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.082779874113683</v>
+        <v>4.850388537212623</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>51.2498964947258</v>
+        <v>50.03296017996809</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>62.47172010366144</v>
+        <v>58.59440970441322</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>55.68712864935938</v>
+        <v>53.67418338905306</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.90891775722959</v>
+        <v>59.85954570576234</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.88787452436418</v>
+        <v>67.05296947549698</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>17.54436417957784</v>
+        <v>12.23027586327924</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>61.75919962119799</v>
+        <v>55.39953430587472</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>70.61021837978832</v>
+        <v>65.15639652507704</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.47202910864074</v>
+        <v>9.90264380796282</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.46063463193093</v>
+        <v>16.59560707720432</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.97911091354038</v>
+        <v>26.78130568012169</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-0.4895089438577251</v>
+        <v>2.45492575540792</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.86127293446221</v>
+        <v>18.70485594964069</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.63957062365052</v>
+        <v>20.97784767277375</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.903852223545881</v>
+        <v>7.979189011479374</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.96944861865014</v>
+        <v>36.07332239091861</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>43.18453894009011</v>
+        <v>39.30086471942374</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.78820641277561</v>
+        <v>15.86660279767782</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.10798536870182</v>
+        <v>22.06306819949413</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.95231221702628</v>
+        <v>25.77392512407035</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>14.84248772184542</v>
+        <v>14.77827897646993</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.39354087520049</v>
+        <v>14.50627707623355</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.79592142425667</v>
+        <v>30.43934458086762</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>14.6328703878257</v>
+        <v>11.20826982592826</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.67009863083678</v>
+        <v>29.79290328091225</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.82559363599146</v>
+        <v>36.38006937044038</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-0.7329751129760886</v>
+        <v>2.23061914528467</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.86019796837811</v>
+        <v>11.52729682444281</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>17.29631586509623</v>
+        <v>15.63957706387628</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>0.1081962258385651</v>
+        <v>2.358815716693119</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>27.5052755470116</v>
+        <v>24.18372049442649</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>13.52210786799017</v>
+        <v>17.86546966199284</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>30.34858966359663</v>
+        <v>28.65583698333005</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>34.26140830026834</v>
+        <v>30.8064211803198</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.056368416344245</v>
+        <v>2.23644042241186</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.27641640811801</v>
+        <v>34.58140040675216</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.04326353959078</v>
+        <v>39.00533792624736</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.847252304213502</v>
+        <v>7.100951925503605</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>54.77102955758046</v>
+        <v>52.4600306546173</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>56.72402845699405</v>
+        <v>50.61994941085118</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.22603466033253</v>
+        <v>48.99490948952455</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>62.47067508470428</v>
+        <v>56.76577766008189</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>64.00426476235863</v>
+        <v>56.22286321089864</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.8981441835402</v>
+        <v>19.469041261127</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>51.49541474089462</v>
+        <v>40.18185652872323</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>55.65222909629524</v>
+        <v>45.03544291600902</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.80752120242094</v>
+        <v>20.01610344653002</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.15039667573355</v>
+        <v>40.57578034215815</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.26773729446067</v>
+        <v>43.59520878975067</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.095223803247293</v>
+        <v>4.023995343166973</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.93718433467434</v>
+        <v>35.44788331600335</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.82184192550044</v>
+        <v>43.69943872550594</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>9.586471148168823</v>
+        <v>3.698066763043403</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>56.80138393481711</v>
+        <v>58.62753228807865</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>7.021502302429045</v>
+        <v>6.73398876099855</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.0450482933441</v>
+        <v>19.98991784754509</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.62914872926608</v>
+        <v>26.58631185849139</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1.312902992125728</v>
+        <v>-0.1627772284838791</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.95206096081029</v>
+        <v>30.77645994146692</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>40.28686608690779</v>
+        <v>34.99487158800893</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.428618504360358</v>
+        <v>4.243018503574977</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>53.50770553280793</v>
+        <v>48.2745663717415</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>58.58940039287312</v>
+        <v>51.77005796756479</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>55.06540664302472</v>
+        <v>52.28177340065321</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.68488136332613</v>
+        <v>56.34144538581421</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>66.46422540459211</v>
+        <v>58.84343582050342</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>10.92987032953551</v>
+        <v>9.347118614339617</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>42.26152143968301</v>
+        <v>30.20048639382316</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>49.78110620882634</v>
+        <v>36.22503407606079</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>13.71081547128617</v>
+        <v>11.02835658418836</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.77907040242431</v>
+        <v>33.17555309920729</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.04242029484173</v>
+        <v>41.51993794210905</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>0.5306229343355255</v>
+        <v>2.176356459278988</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.62180361531316</v>
+        <v>27.52638435094304</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.21754723961187</v>
+        <v>42.67814974725764</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>6.86379835268888</v>
+        <v>1.174889657813928</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>53.60574359588962</v>
+        <v>49.87300133729484</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>0.5660097455924422</v>
+        <v>3.511421591774347</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.5276420415227</v>
+        <v>16.72872607079967</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.80194554913446</v>
+        <v>25.38624290434358</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-0.7506452639661418</v>
+        <v>0.4365978553060224</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.57268775971661</v>
+        <v>32.31203593537666</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>41.50338553728513</v>
+        <v>37.24912047552144</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>3.204314136192782</v>
+        <v>1.803713490777639</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.82977633880242</v>
+        <v>47.0723979157798</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.97902879072336</v>
+        <v>52.31583388759789</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.96414622002567</v>
+        <v>40.3685295832784</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.57021303613863</v>
+        <v>47.09132286413585</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.09332644703635</v>
+        <v>50.50890604770753</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>8.717495768886099</v>
+        <v>7.229494374230526</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.44179725236029</v>
+        <v>23.77543296770689</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>48.76833233941153</v>
+        <v>37.86512123816535</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.837842884381981</v>
+        <v>8.082776895150484</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.40696579600667</v>
+        <v>30.39771533808023</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.12294960948239</v>
+        <v>40.86997797326766</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-0.4768323991521974</v>
+        <v>2.192146298783324</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.03980350993717</v>
+        <v>25.81618167331369</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>44.69704249807654</v>
+        <v>41.44816768881504</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.834779004334163</v>
+        <v>-0.2011351581560561</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>46.40238296995287</v>
+        <v>42.05430181499256</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.41254297483278</v>
+        <v>30.22989004047968</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.67902589857879</v>
+        <v>24.40706386116944</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.35529681687852</v>
+        <v>49.30786168951828</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>52.47947141123005</v>
+        <v>57.28302527061396</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.820463523063447</v>
+        <v>6.628743419893404</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.68854689763445</v>
+        <v>19.79754519080424</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.4860530952298</v>
+        <v>30.73260594064239</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>17.70457346313185</v>
+        <v>14.1669942640052</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.03248645867266</v>
+        <v>30.06544451538856</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.15766432916737</v>
+        <v>41.38172485851489</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>0.2328537456567936</v>
+        <v>2.117788445718531</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>10.88210703204266</v>
+        <v>9.698892120467217</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.97131673960528</v>
+        <v>14.63824743124438</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.826004095585933</v>
+        <v>2.423202350991918</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.08196444979513</v>
+        <v>24.00199960704088</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>45.66146641959767</v>
+        <v>41.73715858443734</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.58048037636835</v>
+        <v>27.58466591660833</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>52.6083088284489</v>
+        <v>52.18683408505618</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>57.77475148764468</v>
+        <v>60.18663555212928</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.251575301429106</v>
+        <v>6.984874067117296</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.82891476828471</v>
+        <v>22.48036740550389</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>39.64057136123981</v>
+        <v>31.78394393710851</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>69.08556425069646</v>
+        <v>70.95785022713517</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.23547299351227</v>
+        <v>61.15564785960706</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>76.12820748196137</v>
+        <v>76.88968302642259</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>81.88596826135085</v>
+        <v>81.99675789852822</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.5061911117572</v>
+        <v>23.98800008916445</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>72.31670104345781</v>
+        <v>71.21002927318577</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>77.27874758074385</v>
+        <v>80.2312342914997</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.39762246295763</v>
+        <v>26.44188604025341</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.91915826933254</v>
+        <v>46.27479921221013</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>53.03041357737272</v>
+        <v>50.41432124822542</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>6.599172176440096</v>
+        <v>5.251887744220568</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.63923304863063</v>
+        <v>45.80036572097816</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.24212065816626</v>
+        <v>52.65470008821795</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>11.59355455652498</v>
+        <v>7.890647295352508</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>69.16817874397967</v>
+        <v>76.09082979243102</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>78.24729497830963</v>
+        <v>79.77953329857382</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>86.06783182724183</v>
+        <v>84.91104606731855</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>95.7492160388222</v>
+        <v>93.15826651804412</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>99.09342370802582</v>
+        <v>96.829984996549</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.02117882093265</v>
+        <v>34.10455823850957</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>88.97239370898865</v>
+        <v>92.15997485469711</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>94.28598988054695</v>
+        <v>93.78298319377089</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>71.41613663535389</v>
+        <v>72.36393309872682</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>56.88283636624836</v>
+        <v>51.21981147536864</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>65.37494515165189</v>
+        <v>62.64191415861021</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>78.10321505056439</v>
+        <v>78.81581156971046</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.82737161994491</v>
+        <v>13.753066999032</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>67.21292396981471</v>
+        <v>64.867880210647</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>76.89444658723151</v>
+        <v>76.05360570703601</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.03035619818633</v>
+        <v>13.28150630122582</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.9642594970358</v>
+        <v>38.19586820819666</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.40356084555607</v>
+        <v>45.79057043178862</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.395582789651115</v>
+        <v>3.034158217696749</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.26421916618044</v>
+        <v>42.28452841419074</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.29145547705164</v>
+        <v>53.00868041299977</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.748056399500875</v>
+        <v>3.81353048983528</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>68.43770163553496</v>
+        <v>68.94804585231873</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>81.35642061352956</v>
+        <v>81.31222682279704</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>83.56984371317927</v>
+        <v>79.94368640511946</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>91.70105691135491</v>
+        <v>89.56555474897476</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>99.28351302594605</v>
+        <v>95.25716795628085</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.14828073108705</v>
+        <v>20.84408126995129</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>84.63099090451377</v>
+        <v>85.59434078831451</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>95.09691498185482</v>
+        <v>92.79412087640489</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>66.19812477748191</v>
+        <v>69.08058765651319</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.32052245155386</v>
+        <v>33.15066232407064</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>50.26384845687964</v>
+        <v>45.66281047054142</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>64.90884719255061</v>
+        <v>62.83507307827615</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.24457585988808</v>
+        <v>9.638000866965417</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>57.51390243194471</v>
+        <v>57.10808774703692</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>73.06769967463178</v>
+        <v>71.78053937385917</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.29001122450345</v>
+        <v>11.66413804770816</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.87839961974647</v>
+        <v>38.81903885367376</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.55710155654315</v>
+        <v>51.489842154339</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>4.08168786470786</v>
+        <v>4.053445374506417</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.93463745500578</v>
+        <v>39.68134080252184</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.93406406590778</v>
+        <v>55.47270916010172</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.31775979089845</v>
+        <v>1.980161330518317</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>62.08889774890842</v>
+        <v>62.61202612021174</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>82.11857109632327</v>
+        <v>82.68374357499988</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>68.42643559744276</v>
+        <v>70.49079989162247</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>83.39092917350001</v>
+        <v>88.21906293160988</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>98.46589762621934</v>
+        <v>97.42569631186626</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>17.36735985367921</v>
+        <v>16.59847333469153</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>73.0269137641185</v>
+        <v>78.08548045283194</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>92.83903158295942</v>
+        <v>91.70408547627446</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.616</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.778</v>
+        <v>16.499</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.676</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.985</v>
+        <v>17.221</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.986</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.161</v>
+        <v>2.073</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.189016652063319</v>
+        <v>12.13119197748699</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.30174625295438</v>
+        <v>12.45078351876914</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.48154401460182</v>
+        <v>21.01751432259116</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.446263747142641</v>
+        <v>4.80971494086517</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.13938677496345</v>
+        <v>13.20442687462627</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.86770340963679</v>
+        <v>15.91316752879575</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.343308485685913</v>
+        <v>9.003286861924025</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.86983592861495</v>
+        <v>27.37731483060555</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.27028424996208</v>
+        <v>28.9945025999303</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.41629136811089</v>
+        <v>11.88047116706042</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.77369785193093</v>
+        <v>14.97970361659408</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.92107777193617</v>
+        <v>16.34975030306108</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.19828636231553</v>
+        <v>14.48010035069481</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.797296239179545</v>
+        <v>11.72016157884464</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.30690904037997</v>
+        <v>19.45781669347591</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.74278397588462</v>
+        <v>12.54863606059001</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.12702166119319</v>
+        <v>21.31029652171149</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.68721022104213</v>
+        <v>30.42735041185934</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.052508664199667</v>
+        <v>8.145600644330639</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.61608589226942</v>
+        <v>12.5723578125332</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.74920616258276</v>
+        <v>16.78757855674146</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.14735042789783</v>
+        <v>4.044158177845887</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.84753499461591</v>
+        <v>15.89064302562397</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.04294166570521</v>
+        <v>20.14433141674901</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.73600488559349</v>
+        <v>27.21383313594494</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.80147928078502</v>
+        <v>26.32184248575532</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.674788950854623</v>
+        <v>4.526046639435553</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.95862779273116</v>
+        <v>31.33459281142923</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.70306763272356</v>
+        <v>32.87109393305941</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.465446538793277</v>
+        <v>7.500456194417453</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.17640272954584</v>
+        <v>41.60878208853241</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.26006906405143</v>
+        <v>39.14614355598079</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.0936804773995</v>
+        <v>39.58831922868608</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.07963095671391</v>
+        <v>46.77820605481541</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.18304548153476</v>
+        <v>47.20023851362321</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.0347951349199</v>
+        <v>19.7149249846315</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.99657464217034</v>
+        <v>27.30234963615738</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.60643687786288</v>
+        <v>30.64977206615196</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.07754168161281</v>
+        <v>18.62216825129718</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.9909580989809</v>
+        <v>29.47835791519562</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30.30451658581304</v>
+        <v>32.47744950040775</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.167850519323167</v>
+        <v>8.484418853299374</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.69316505841904</v>
+        <v>27.46328775361751</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.77723045298288</v>
+        <v>36.43557625489221</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.04250025316159</v>
+        <v>41.10573356837825</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.920534860903533</v>
+        <v>11.02581919841165</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.1866640311141</v>
+        <v>22.7333036342258</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.78669768340859</v>
+        <v>26.31966123973724</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.794307014295775</v>
+        <v>3.04614623865751</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.41527921982594</v>
+        <v>28.27567738812891</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.04020655970566</v>
+        <v>33.00235879893597</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.828868101418063</v>
+        <v>8.711684162794992</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.1634135948299</v>
+        <v>42.84045256890945</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.66720731698467</v>
+        <v>45.23999401142205</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.61659370938451</v>
+        <v>43.45410651441169</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.66311885929171</v>
+        <v>49.13253733502602</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.01594326627735</v>
+        <v>52.71424277344936</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.24705738636996</v>
+        <v>13.58297301793536</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.42424264656018</v>
+        <v>27.97006442066049</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.61395039435368</v>
+        <v>31.68044333710275</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.25312982426608</v>
+        <v>13.4588987682807</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.83142628974511</v>
+        <v>27.31002303369873</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.29715926271825</v>
+        <v>32.57936115733968</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.864033959557077</v>
+        <v>7.974883042278123</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.38177683952993</v>
+        <v>23.61849767496729</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.78712370268757</v>
+        <v>36.56414465251975</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.876314094790576</v>
+        <v>5.841403352726928</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.75863014555823</v>
+        <v>38.81052460062018</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.824583448134184</v>
+        <v>7.422926684931543</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.70685252253818</v>
+        <v>18.20355954440672</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.15703029220061</v>
+        <v>23.50985015520622</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.728213911391691</v>
+        <v>3.218421326335847</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.30976576293289</v>
+        <v>28.38480685806999</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.90730962135594</v>
+        <v>33.18785311471999</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.297420951895077</v>
+        <v>4.241512980587995</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.89420891962255</v>
+        <v>39.25480633823861</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.66987046296489</v>
+        <v>43.13700145169646</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.85523149701562</v>
+        <v>33.82482326135419</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.71740937492029</v>
+        <v>38.12351344894039</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.5238650126596</v>
+        <v>43.05038037419779</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>9.215358656115633</v>
+        <v>10.1082019930174</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.44318266130043</v>
+        <v>19.05753072351433</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.73897348179784</v>
+        <v>33.30964403966205</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.936540159773894</v>
+        <v>10.54420561005405</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.05967425642138</v>
+        <v>24.9605708409313</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.23594557541778</v>
+        <v>31.34876068425683</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.247236645456002</v>
+        <v>8.462501946838213</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.58401736070454</v>
+        <v>24.87457873565149</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.62491258201429</v>
+        <v>35.74178248137711</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.097312316742588</v>
+        <v>2.633386608513771</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.16001896984345</v>
+        <v>35.18296877326202</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>17.88246070305639</v>
+        <v>20.06554776233943</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>15.48317743497066</v>
+        <v>17.48655395530431</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.24899715448612</v>
+        <v>35.64147463530114</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.64395522051354</v>
+        <v>39.70218692321347</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.183575754466972</v>
+        <v>7.665304721807331</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.11557214823167</v>
+        <v>14.33500135864115</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>18.1835928573745</v>
+        <v>20.43893096974995</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.58364421972904</v>
+        <v>14.17882509802354</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.14158479448129</v>
+        <v>22.6769655525326</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.73833480793179</v>
+        <v>32.31470328821147</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.727452252030112</v>
+        <v>7.733932449425769</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.51568877781579</v>
+        <v>11.39907354367569</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.50038596184007</v>
+        <v>13.89134954708677</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.570406224662463</v>
+        <v>4.771033353452115</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.71302398036682</v>
+        <v>17.10054520417398</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.52473404735935</v>
+        <v>31.47971844638981</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>17.63199360929037</v>
+        <v>19.88822368982174</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.4201348731327</v>
+        <v>40.1297253847384</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>43.67773866589484</v>
+        <v>45.30592394393089</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.568790420731521</v>
+        <v>7.343667553103572</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.88291513985642</v>
+        <v>15.27304474550209</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.14325529476187</v>
+        <v>24.4464466329982</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.4898383625607</v>
+        <v>50.58981864477514</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.1756161266381</v>
+        <v>43.57368698767507</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.27564657714353</v>
+        <v>56.17465624306426</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.91802801223454</v>
+        <v>59.68002336593945</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.17792907341901</v>
+        <v>21.93130046663746</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>47.08463767831455</v>
+        <v>50.12352078320964</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>52.7539139520279</v>
+        <v>54.84585136947986</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.52342302848355</v>
+        <v>26.15274623861728</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.55135431107379</v>
+        <v>35.64845187891328</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.22537642296479</v>
+        <v>41.7809408497804</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.482627489707181</v>
+        <v>9.772761118619147</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.51892263342435</v>
+        <v>35.54132679164363</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.32079328349496</v>
+        <v>43.09091501234033</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.586551275580355</v>
+        <v>8.997697287667805</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.55867478725696</v>
+        <v>56.69835818149046</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.8363581363015</v>
+        <v>64.32758490899103</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.9171280114596</v>
+        <v>67.15244029616167</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.63840312922656</v>
+        <v>76.08790192309812</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.81676726698473</v>
+        <v>81.39130250642336</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.65153508276366</v>
+        <v>33.75160618058483</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>68.08374544579939</v>
+        <v>69.78125730250503</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.83178445103806</v>
+        <v>73.14952805220878</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>52.62327587194243</v>
+        <v>55.56611580070492</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.68814417181755</v>
+        <v>38.20431015998034</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.62524043340543</v>
+        <v>44.41040330185631</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.98263178872703</v>
+        <v>58.58509562239072</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.28550721448534</v>
+        <v>17.33468833287229</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>44.53306993414413</v>
+        <v>47.42537591418078</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.18263674162655</v>
+        <v>53.68555408009667</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.56179274273802</v>
+        <v>17.51019334580587</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.29021435016594</v>
+        <v>32.32432032909315</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.6756931772717</v>
+        <v>40.28564956070554</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>7.534993366518471</v>
+        <v>8.562546841802366</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.92564869261619</v>
+        <v>34.41262939149598</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.31226347146257</v>
+        <v>44.21138672678752</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.6535123679271</v>
+        <v>8.979597270082444</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.11695080981586</v>
+        <v>54.10787800093102</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.49692337678071</v>
+        <v>68.48951371318688</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>66.52613785595116</v>
+        <v>65.23584243371116</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.30239389838472</v>
+        <v>72.1365370392393</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.99466042967506</v>
+        <v>81.23602143723522</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.80412526052947</v>
+        <v>24.83348998710759</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>61.82247380218839</v>
+        <v>62.50788234509304</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.34363260845123</v>
+        <v>71.0908806899714</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.68284494466877</v>
+        <v>50.0915720099856</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>23.00486058999627</v>
+        <v>25.29337755952537</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.70746249638198</v>
+        <v>32.46670066985038</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.60336438035476</v>
+        <v>42.77121656311137</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.73077280741519</v>
+        <v>12.3317310419559</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.08898145103459</v>
+        <v>43.31257855699248</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.86964964417443</v>
+        <v>51.18974919100494</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.85267161526809</v>
+        <v>15.15494547488546</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.7590540372351</v>
+        <v>33.14438080993946</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.0694196865966</v>
+        <v>44.38949467518143</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.906847544442108</v>
+        <v>9.552737169672561</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.45025851476912</v>
+        <v>34.55979398122088</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.00743218550235</v>
+        <v>46.65630953356857</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.77081156963774</v>
+        <v>4.116451271193025</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.73707488286584</v>
+        <v>49.76541119256198</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>69.0430753592203</v>
+        <v>68.87941786848418</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.71894946066328</v>
+        <v>56.35401737055435</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.47286984150684</v>
+        <v>64.12655205159794</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.23050004135723</v>
+        <v>80.82012534059967</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.31364240473306</v>
+        <v>16.97828105282559</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>52.84545167657866</v>
+        <v>56.39046734308757</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>70.79727769662372</v>
+        <v>71.0345662033548</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.63427540790696</v>
+        <v>16.88703659995706</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.47671094723923</v>
+        <v>20.83599450644292</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.79494585865028</v>
+        <v>29.01065769526043</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.481808437111692</v>
+        <v>13.79935153093439</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.98149777404456</v>
+        <v>25.56204618210948</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.72900260196409</v>
+        <v>27.74699899660632</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.90051317063947</v>
+        <v>16.09036944348784</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>45.46972460592102</v>
+        <v>39.52552050576661</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>48.72715710990069</v>
+        <v>41.48527936829478</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.70651860229638</v>
+        <v>23.1956132681256</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.22095794572947</v>
+        <v>24.47042943795603</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.74275228886164</v>
+        <v>26.19423668347896</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.19934641874073</v>
+        <v>24.83070394673333</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.41440101173047</v>
+        <v>24.72967467741319</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.73778530181395</v>
+        <v>36.35325139397769</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.84763384100837</v>
+        <v>17.82603923759546</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.82109538948483</v>
+        <v>27.88478076198403</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.31677690116981</v>
+        <v>28.69955020197568</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>7.167003783993209</v>
+        <v>13.11698479044254</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.16120198286594</v>
+        <v>20.15354074719991</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.27871329176595</v>
+        <v>22.79323173799184</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>8.606038371599169</v>
+        <v>14.41831730761184</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.86053141588824</v>
+        <v>29.48983743143725</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.4132288233566</v>
+        <v>22.14440049683218</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.4934657161155</v>
+        <v>31.48786713624672</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.93442992134818</v>
+        <v>33.53320599879621</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7.882297955885853</v>
+        <v>14.09635587094526</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.20526234036566</v>
+        <v>35.12377581423306</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.56391377971901</v>
+        <v>36.92170224899844</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.5799626162172</v>
+        <v>16.46396469914056</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>55.84709374940268</v>
+        <v>47.86488443708107</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>54.35882334722805</v>
+        <v>45.99195033227056</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.98345035029959</v>
+        <v>41.69634082572341</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>53.79231539770743</v>
+        <v>46.67910173957068</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.16965160600606</v>
+        <v>45.75149272611309</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.12687090028124</v>
+        <v>24.89835141956301</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.1111980966811</v>
+        <v>35.95205957012393</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>39.31085279897262</v>
+        <v>37.36736669333959</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.24608175053761</v>
+        <v>24.70551808559037</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.79649932659068</v>
+        <v>33.36673802677119</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.46669714056129</v>
+        <v>32.56563416236861</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>7.863677095537749</v>
+        <v>13.56919964590554</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.14991248017913</v>
+        <v>31.62666138369667</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.04935491442617</v>
+        <v>31.869705015788</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.43192091897972</v>
+        <v>15.33030212410207</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>51.15979889709858</v>
+        <v>44.53278117438915</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.305903592916131</v>
+        <v>15.42703265843254</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.28574055090117</v>
+        <v>25.54174083984647</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.36483191385712</v>
+        <v>30.42883588373588</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.840223402978829</v>
+        <v>13.39885523879046</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.16137306211429</v>
+        <v>32.85658434973832</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.95647852768212</v>
+        <v>35.36045437143729</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.32083687206631</v>
+        <v>14.83271551669765</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.31611459201855</v>
+        <v>44.86770001514465</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>54.48713877525566</v>
+        <v>46.00458459368222</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.65639829845986</v>
+        <v>47.13972203865719</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>57.40429532900234</v>
+        <v>51.47700180875378</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>58.34333528311866</v>
+        <v>50.6236684737743</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>11.48191927248583</v>
+        <v>15.927879304629</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.91554141988326</v>
+        <v>28.02792134048738</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.87550784457852</v>
+        <v>32.56479977634575</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>18.53840306764796</v>
+        <v>20.78190703649685</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.98714737899688</v>
+        <v>31.10846187967445</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.33339613635925</v>
+        <v>31.71370672184431</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>7.101920193448215</v>
+        <v>13.15973308409697</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.62226717160589</v>
+        <v>29.27426770773727</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.28083650765873</v>
+        <v>31.24613168421019</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9.976172269495805</v>
+        <v>14.98870633733845</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.86641796688334</v>
+        <v>40.93204830612279</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>7.418638268224473</v>
+        <v>14.10018923079555</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.88434660181362</v>
+        <v>24.7859351449658</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.01102524926168</v>
+        <v>30.89512993412474</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.148915744038387</v>
+        <v>13.84284867134351</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>38.25578361514145</v>
+        <v>33.57854919696582</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>41.1756108912414</v>
+        <v>36.69959390654275</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8.031643304175848</v>
+        <v>14.24700164670835</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>53.50169777268503</v>
+        <v>44.56096382025741</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>55.46373198985726</v>
+        <v>46.2277729228863</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.03067232625516</v>
+        <v>44.32442541225316</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>54.81517319728432</v>
+        <v>47.80676597278478</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>56.46775037894989</v>
+        <v>49.50460051243574</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>9.884408930886467</v>
+        <v>15.01244037740772</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.13016741169146</v>
+        <v>24.92856033043495</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.09143758204468</v>
+        <v>33.75447161212509</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.9743721070692</v>
+        <v>18.93900953897574</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.76016646060646</v>
+        <v>29.96123591370347</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.83262990589834</v>
+        <v>31.45620733696438</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>7.447260281384757</v>
+        <v>13.52245574291938</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.91155305489845</v>
+        <v>28.25121489171234</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.93595163593804</v>
+        <v>31.07560279971609</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>8.496461050034988</v>
+        <v>14.40317815274784</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>43.48502121085711</v>
+        <v>37.9503726268773</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.41108078054636</v>
+        <v>28.90571304954399</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.68091918466208</v>
+        <v>26.57077859145325</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>40.05346662222802</v>
+        <v>36.31694515251947</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.61695938583751</v>
+        <v>37.86461848605131</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.66714760049088</v>
+        <v>19.18256866385435</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.52623550051458</v>
+        <v>28.18326455740942</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.82833979192276</v>
+        <v>31.87253046060235</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.00686426424674</v>
+        <v>21.05233052692146</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.76216894573947</v>
+        <v>28.87482773439662</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.53195035970427</v>
+        <v>33.87747516899967</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6.814950047455653</v>
+        <v>12.89820353353376</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.23354627603231</v>
+        <v>18.82955838379302</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.4786906843232</v>
+        <v>24.52786833606356</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.345802805330106</v>
+        <v>15.08823816911012</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.93787906757458</v>
+        <v>30.47375110178361</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>48.96079604910869</v>
+        <v>43.17031899735875</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.39898205711845</v>
+        <v>28.90297087092539</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>48.24683128763651</v>
+        <v>41.92695360490232</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.51494670937554</v>
+        <v>43.62618782735399</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.91835752540396</v>
+        <v>18.59726578281203</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.89945843771409</v>
+        <v>28.86427799436881</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.90339275456765</v>
+        <v>36.80922446392722</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>52.02020330432627</v>
+        <v>45.46303060869924</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.80588733642553</v>
+        <v>44.34188128952523</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>57.57989495921556</v>
+        <v>48.68111678011995</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>57.30053691162689</v>
+        <v>49.37452759606978</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.98378998028813</v>
+        <v>27.34826395434035</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>54.86457178435735</v>
+        <v>46.79701310191096</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.54856890692935</v>
+        <v>45.89225905552964</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.56663303113478</v>
+        <v>25.26826682482234</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>8.189821624916377</v>
+        <v>13.83804765759779</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.81656924204539</v>
+        <v>36.81964041780011</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.60425390513825</v>
+        <v>37.32213695724609</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.30073210184714</v>
+        <v>15.81866224335751</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>59.19859049076371</v>
+        <v>50.40211644676624</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>61.47408392320748</v>
+        <v>52.28437462172356</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>60.40444559701569</v>
+        <v>51.19032740204645</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>66.90305679407736</v>
+        <v>56.04397690644417</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.3136721048636</v>
+        <v>57.85215675939315</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.44641717201917</v>
+        <v>30.67863551682063</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>64.88276311632177</v>
+        <v>54.68642204569313</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>64.9130458675186</v>
+        <v>54.95161554038045</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.31982328506604</v>
+        <v>46.25495044699892</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.62469689178721</v>
+        <v>42.47818991399394</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>53.93709472052643</v>
+        <v>46.23607632718927</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.18580206728707</v>
+        <v>48.44500926061402</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.97540356986519</v>
+        <v>23.7322317794905</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>50.91403394825144</v>
+        <v>44.21375963959741</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.48551875261108</v>
+        <v>44.36710249359523</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.05997517506971</v>
+        <v>20.63665828476433</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.81007907039952</v>
+        <v>31.72236611928873</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.13283534679433</v>
+        <v>35.21308337975724</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>7.193555442055903</v>
+        <v>13.17137617652413</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.38645661863582</v>
+        <v>34.00920086545916</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.69067216348652</v>
+        <v>35.45356591894807</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.34511667644935</v>
+        <v>16.48529048135635</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>55.4884508812828</v>
+        <v>47.56143841886127</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>61.29043001499689</v>
+        <v>52.39910005019166</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>59.52527740339579</v>
+        <v>50.73279788065076</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.23503358005601</v>
+        <v>55.7662781511108</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>68.84015518640332</v>
+        <v>58.07362844626009</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.11398347578604</v>
+        <v>24.41055389243033</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>63.61053682944673</v>
+        <v>53.42964980717375</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.39076750326913</v>
+        <v>54.29485254834107</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>49.43368591110536</v>
+        <v>43.60335929859053</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.95911522003233</v>
+        <v>33.05249560724547</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.08655998100688</v>
+        <v>37.05403534428406</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.86373490909598</v>
+        <v>39.55514542712518</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.37033182988629</v>
+        <v>21.11628979985915</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>48.00276998168402</v>
+        <v>40.91392419116494</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.85234949120168</v>
+        <v>43.91342469495548</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.21668346724719</v>
+        <v>20.38623402568327</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.23542123329841</v>
+        <v>32.2434726980154</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.60431138143041</v>
+        <v>37.59824392214833</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.67588307693639</v>
+        <v>13.64495172937949</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.59348423593786</v>
+        <v>33.757744226132</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.146057833904</v>
+        <v>37.99001459309692</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>8.987816885082292</v>
+        <v>14.69376629219413</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>52.93952620316691</v>
+        <v>45.37772334075653</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>62.4096494724324</v>
+        <v>52.83829925027943</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>55.99376091254625</v>
+        <v>48.23405189537254</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.78568389915077</v>
+        <v>55.39500490735367</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>68.73490221820842</v>
+        <v>57.66342321568466</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.98439821922911</v>
+        <v>22.51549397129885</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>62.33340336971383</v>
+        <v>52.01938245806637</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.68490461678201</v>
+        <v>56.46291453240734</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.73443355224274</v>
+        <v>15.9141796625944</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.54841407037825</v>
+        <v>21.98988857515461</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.37413559962335</v>
+        <v>28.45567793890871</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.769794729498177</v>
+        <v>7.293080089333966</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.24174785080048</v>
+        <v>16.23519376105106</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.30088972050736</v>
+        <v>19.29712192874289</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.674044771257918</v>
+        <v>8.325931821812826</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.29298514462481</v>
+        <v>38.07563649736967</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.79831920184316</v>
+        <v>41.32875886984119</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.95262806345057</v>
+        <v>22.11420311394023</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.08672768179802</v>
+        <v>25.63307961790286</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.67575890975553</v>
+        <v>26.98345174786341</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.36143491036143</v>
+        <v>14.13889864791217</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.27875969255616</v>
+        <v>19.96501734026759</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.45663042208959</v>
+        <v>23.29175981841171</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.59321096388323</v>
+        <v>18.56823723292584</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.73886898359379</v>
+        <v>28.34470952056216</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.45985643883737</v>
+        <v>29.96299723730304</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.568837106686253</v>
+        <v>7.587916168017014</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.64164773722318</v>
+        <v>15.99437807606596</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.84612813505935</v>
+        <v>18.91935198248241</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.959037502928897</v>
+        <v>8.91994148619521</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.23757481602333</v>
+        <v>29.19506017577186</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.20311923720646</v>
+        <v>23.39650507177785</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>38.39713628131262</v>
+        <v>36.57065004863654</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.71704216237493</v>
+        <v>35.01182850642239</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>4.846621799764829</v>
+        <v>8.007020060792478</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.75233046327191</v>
+        <v>33.76152798637551</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.83150298965617</v>
+        <v>35.06349981404427</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.570522165343338</v>
+        <v>8.980828198287224</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>55.73535120668495</v>
+        <v>50.36707807898019</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>52.52716759884844</v>
+        <v>47.72699818833896</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.04244238872319</v>
+        <v>42.82429886759932</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>54.49998509118649</v>
+        <v>50.24562712596275</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.89251251073273</v>
+        <v>50.48684250452634</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>17.02716281160179</v>
+        <v>20.68038503982251</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.09477619366788</v>
+        <v>41.92911643556092</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.49740990247214</v>
+        <v>42.24481767285184</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.57915312511696</v>
+        <v>22.78498121686122</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.5350782526078</v>
+        <v>34.47318072990462</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.57533898408619</v>
+        <v>34.63788601589176</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.030889883151367</v>
+        <v>7.834404010624937</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.83773022821845</v>
+        <v>30.68575370444644</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.97751228781134</v>
+        <v>31.45193575749245</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.341360758953829</v>
+        <v>8.976340420367915</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>54.25420441946137</v>
+        <v>49.60925284419524</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>8.275598567183213</v>
+        <v>11.36518945118177</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.49725286773057</v>
+        <v>27.50217252446899</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.16850062722489</v>
+        <v>30.23376746539448</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.402000669456786</v>
+        <v>7.17225800457355</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.79801345743728</v>
+        <v>32.23094723372799</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.51028464353428</v>
+        <v>34.30672851632538</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.171614048241544</v>
+        <v>9.253462124779105</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>53.30391411784188</v>
+        <v>48.284878119308</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>51.51146080975617</v>
+        <v>47.27436884388841</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>49.07241091538588</v>
+        <v>46.91048944193052</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>55.0573740979105</v>
+        <v>53.35652954993164</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.43394013237959</v>
+        <v>51.88029495218018</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.670283710893386</v>
+        <v>8.620948974199923</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.49356050927027</v>
+        <v>29.44894962769227</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.77581147436279</v>
+        <v>28.01962320308426</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.84764237856694</v>
+        <v>17.69050146618994</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.26272148305274</v>
+        <v>32.91321781517499</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.3093309076542</v>
+        <v>33.90134813987967</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>4.71908566195539</v>
+        <v>7.560513446817549</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.12798111173682</v>
+        <v>28.38211844811033</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.0875004611764</v>
+        <v>32.14673349226217</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.30975297437644</v>
+        <v>8.106806167043164</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>49.16584291688567</v>
+        <v>44.20041968461366</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.137979442520017</v>
+        <v>11.02072152559831</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.02825817100565</v>
+        <v>27.54478464239253</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.81847291960877</v>
+        <v>31.93844546263619</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.118204195457864</v>
+        <v>7.944649635696166</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.9150907486345</v>
+        <v>32.62918343300699</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>43.6295102840041</v>
+        <v>39.59302307351275</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.059973654745519</v>
+        <v>8.288707096405521</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>57.31654895214174</v>
+        <v>49.93620244379225</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>57.21827991827391</v>
+        <v>50.90046548322327</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>47.53929273315732</v>
+        <v>44.83666727350342</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>54.89222714554011</v>
+        <v>50.35484662308494</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>56.67415666932267</v>
+        <v>52.54693699579214</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.842386082195844</v>
+        <v>10.9508954626087</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.5311247284445</v>
+        <v>35.28320398592289</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.56675263362232</v>
+        <v>34.92455032048737</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.92444141276511</v>
+        <v>14.46156899347638</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.01125438189008</v>
+        <v>30.15265986524649</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.37440059969276</v>
+        <v>33.03652985913435</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.382811485922289</v>
+        <v>7.825001303171746</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.80740825003793</v>
+        <v>28.08896200143436</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.69840117128427</v>
+        <v>32.65106586178189</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.622309019848288</v>
+        <v>8.188247298521144</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>47.17009934691824</v>
+        <v>41.75169643093616</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.41658391633336</v>
+        <v>27.70973065903626</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.09919553188014</v>
+        <v>25.78844469595174</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.77528723958393</v>
+        <v>37.21764077215911</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>43.58296637684509</v>
+        <v>39.8545220463848</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.475344660439</v>
+        <v>14.42841232591283</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.21809133189761</v>
+        <v>23.36699802908072</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.8772540503123</v>
+        <v>29.46701790016632</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.62082896685207</v>
+        <v>18.7531003090374</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.60623997796363</v>
+        <v>30.41379264217163</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>37.19245467991043</v>
+        <v>34.71413600835911</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.21414901334364</v>
+        <v>7.350582158854355</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.20107800583388</v>
+        <v>15.39494541769226</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>23.15484640262363</v>
+        <v>22.89150672315278</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.54335430224814</v>
+        <v>9.608655747914327</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.13428581716973</v>
+        <v>31.49695075868089</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.7847127100527</v>
+        <v>47.6752310106867</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.05288971243318</v>
+        <v>29.55796263123822</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>46.9361774017972</v>
+        <v>42.92454511169694</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>52.93459451652247</v>
+        <v>48.58570694129702</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.97172244783373</v>
+        <v>14.24204669581874</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.02219333574712</v>
+        <v>27.80391495415842</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.47988744967008</v>
+        <v>38.1543170298067</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.0749427602199</v>
+        <v>54.53615113465251</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.22632235486502</v>
+        <v>50.63530649749129</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>65.68640553453426</v>
+        <v>58.13081717966833</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.59325205864194</v>
+        <v>56.92709283077951</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.80811594259777</v>
+        <v>22.45648508209194</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.96780742366771</v>
+        <v>51.56651333971687</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.12133168427424</v>
+        <v>53.71823610634874</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.03544773378548</v>
+        <v>29.49077131825082</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.02058835481981</v>
+        <v>40.69647680678935</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.23182833665411</v>
+        <v>39.41375693302107</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.831929160894859</v>
+        <v>8.681030462000244</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.52108748085024</v>
+        <v>38.21467435496661</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>39.41516318482038</v>
+        <v>37.64923276210356</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.130953772721334</v>
+        <v>10.66115620444404</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>63.24724584195996</v>
+        <v>57.53292990414736</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>63.5255442787473</v>
+        <v>58.01745215648928</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>68.81964322005784</v>
+        <v>62.79452713990313</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>74.8713319876145</v>
+        <v>67.66353507187029</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.91185895025657</v>
+        <v>70.04677962769867</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.68445412509673</v>
+        <v>29.97900532523958</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>70.08460647494763</v>
+        <v>63.06923272884565</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.73519904285457</v>
+        <v>63.5492559574471</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>56.46303555070733</v>
+        <v>51.45173128173811</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.55673722588381</v>
+        <v>46.55375984909129</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>59.70532953654126</v>
+        <v>52.86036328126463</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.94851572816494</v>
+        <v>56.2399032534763</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.8926809855298</v>
+        <v>17.79669374928748</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>54.00914339433956</v>
+        <v>48.88150274709116</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>54.97246205514901</v>
+        <v>50.58442031137847</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.99630937940107</v>
+        <v>20.9003595859772</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>40.65799320227342</v>
+        <v>36.99944616729262</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.83636686034314</v>
+        <v>36.57584951340532</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>3.967626689897354</v>
+        <v>7.137139273681857</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.24708246566107</v>
+        <v>34.14191979406957</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.59075983534478</v>
+        <v>35.87522089939803</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>7.017625224486061</v>
+        <v>10.35700607090101</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>58.68721084174887</v>
+        <v>53.97979308265647</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>62.62853342517766</v>
+        <v>57.91239210149298</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>64.78285132615906</v>
+        <v>59.58678980908717</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>72.01410004996559</v>
+        <v>65.84560234117696</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>76.61176551745385</v>
+        <v>69.92850541436675</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.35138337551907</v>
+        <v>22.80287899638129</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>66.80387599998666</v>
+        <v>60.50294175448843</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>65.78323050970482</v>
+        <v>60.82174101420391</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>57.11684039766917</v>
+        <v>51.32530506148359</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.8619608210017</v>
+        <v>32.76890766350709</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>45.27664478489919</v>
+        <v>39.58402595260343</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>50.66682685821991</v>
+        <v>45.63237863634191</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>15.20317871206159</v>
+        <v>14.60779795269534</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>52.23210426956895</v>
+        <v>45.19664907869661</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>55.95590584028447</v>
+        <v>50.37224226042561</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.19007990759999</v>
+        <v>17.9187284168727</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.82098675817915</v>
+        <v>38.54092287283446</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.27052118082704</v>
+        <v>39.76971615417862</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.279610622590408</v>
+        <v>8.363059934197196</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.80635531160983</v>
+        <v>36.66662683047226</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>43.43827210746586</v>
+        <v>40.95996845129926</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.564974153779026</v>
+        <v>9.597603484808491</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>57.77023166301299</v>
+        <v>52.03492155659357</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>65.16794873736009</v>
+        <v>59.25677459952185</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>61.009391548599</v>
+        <v>56.64430265921133</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>67.54423086810554</v>
+        <v>61.04427112935807</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>75.28151210997643</v>
+        <v>68.5522437410668</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>20.49519920964034</v>
+        <v>18.79377050835684</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>68.29558120098341</v>
+        <v>60.64006412407259</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>71.15522301793834</v>
+        <v>64.67581486213163</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.37773970288093</v>
+        <v>12.71094839550946</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.66089149226043</v>
+        <v>17.67897514962932</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.96526196762807</v>
+        <v>22.25817206809719</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.564079899765211</v>
+        <v>4.23219652742263</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.4838877403418</v>
+        <v>13.49623636403583</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.69353814620571</v>
+        <v>15.88280304747424</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.04844042676261</v>
+        <v>5.936675025854598</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>27.96952967017624</v>
+        <v>28.63514372049517</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.19344010458121</v>
+        <v>31.35996397814207</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.45961126030172</v>
+        <v>16.45891815006451</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.96522355255235</v>
+        <v>19.86877888454248</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.5164240873099</v>
+        <v>21.66802639277874</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.53316077020873</v>
+        <v>12.07963880204933</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.28948093938022</v>
+        <v>15.26979969218438</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.61717400965018</v>
+        <v>23.27698285553231</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.173176958138654</v>
+        <v>11.34412044216714</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.92119695875784</v>
+        <v>20.87956810133188</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.39375018436682</v>
+        <v>23.1644480320441</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.013476018732305</v>
+        <v>3.676114211361984</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>6.172243356760241</v>
+        <v>9.179445563679174</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.806698890823217</v>
+        <v>11.96497978917805</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.553491362842649</v>
+        <v>4.760029562160778</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.87866156966477</v>
+        <v>19.55210041344513</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.04853369133732</v>
+        <v>14.94257831908143</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.61092162677081</v>
+        <v>24.9950356221496</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.44662517140939</v>
+        <v>25.08569280886891</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.444357058044513</v>
+        <v>4.286931535163387</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.38758373473068</v>
+        <v>23.68872517632203</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.52412707218799</v>
+        <v>24.94425053298273</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.421837824525671</v>
+        <v>6.60648901734638</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.68300770223659</v>
+        <v>36.42697536546348</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.93873522333511</v>
+        <v>35.93179510383806</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.57466921764061</v>
+        <v>33.69324825985233</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.33445618993699</v>
+        <v>38.52117845494044</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>42.03041578927088</v>
+        <v>41.01071557874522</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.66126616160295</v>
+        <v>17.39687966589873</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.31040521577799</v>
+        <v>36.55261301333258</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.24735647226144</v>
+        <v>38.78883284280822</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.76924919688434</v>
+        <v>13.99226425791424</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.09673884135041</v>
+        <v>25.19178709036977</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.49638926636215</v>
+        <v>26.87075951724307</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.6850987390619601</v>
+        <v>3.570485454950465</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.05906153548768</v>
+        <v>21.98715780309926</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.61121844892628</v>
+        <v>24.36550752603885</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.224238890559818</v>
+        <v>4.676611795497262</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.58419018275535</v>
+        <v>36.93347338515531</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>5.851735331553765</v>
+        <v>7.581423659079473</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.39595237838687</v>
+        <v>18.78978218129116</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.27309066744186</v>
+        <v>22.61656523353287</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.393816624777035</v>
+        <v>4.085908741365941</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.67791377505394</v>
+        <v>23.3246979987262</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.12243943833517</v>
+        <v>24.53327128786692</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.850254604896275</v>
+        <v>8.466910478350471</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.32518044746048</v>
+        <v>36.76651799292496</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.07350546630342</v>
+        <v>37.58769545077595</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.0979355128727</v>
+        <v>37.22105185305216</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.53688075535851</v>
+        <v>40.20380471027386</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.53154060559336</v>
+        <v>42.80320822424545</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.30021184763865</v>
+        <v>7.377562686249931</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.62277296878934</v>
+        <v>27.0651518169348</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.37203853859209</v>
+        <v>29.17693037165515</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.950442696545387</v>
+        <v>9.531913199052756</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.34959675952097</v>
+        <v>23.40029907547301</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.77586251982023</v>
+        <v>26.65002746662755</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>0.756775835335695</v>
+        <v>3.116496563718016</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.59768162890433</v>
+        <v>17.68073792408902</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.42181558254491</v>
+        <v>24.9518305817308</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.582527302934626</v>
+        <v>5.13068434710091</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.71383092498433</v>
+        <v>30.91681983549178</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.861758423796697</v>
+        <v>6.734971078351052</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.58789326431112</v>
+        <v>16.60846950498074</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.51228960468645</v>
+        <v>22.20743053648649</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.6680114025287089</v>
+        <v>3.524663690812989</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.14407154199449</v>
+        <v>22.71850281056565</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.82124431910803</v>
+        <v>27.77508232325189</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.274349646766588</v>
+        <v>3.83467125542705</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.53189521524254</v>
+        <v>33.19651719198699</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.84337694760509</v>
+        <v>37.40707019104787</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.02044540213097</v>
+        <v>30.75957877973023</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.03814134747955</v>
+        <v>34.43174704609719</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.474973549203</v>
+        <v>38.95786095666536</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.808855861766308</v>
+        <v>6.730351137388663</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.40658719366916</v>
+        <v>27.34512139963884</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.89904558208045</v>
+        <v>34.5249447313202</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.388661387913292</v>
+        <v>7.089499199969072</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>18.89532835723387</v>
+        <v>20.3544846667847</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.91049478406532</v>
+        <v>25.39805319035085</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.5078321260525627</v>
+        <v>3.413443475480197</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.58750356265102</v>
+        <v>17.43550155856096</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.95587062142351</v>
+        <v>24.58027648630276</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.208253677756328</v>
+        <v>3.795753371370285</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.15238578759858</v>
+        <v>27.61366920074782</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.20714152976635</v>
+        <v>18.9697257364864</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.51363657583189</v>
+        <v>16.93407195211523</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.36591364058787</v>
+        <v>26.53996761728197</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.34677324593649</v>
+        <v>28.19335801234772</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.921274291656808</v>
+        <v>8.286318924598074</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>12.42708889555636</v>
+        <v>14.72911762210487</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.65302951847769</v>
+        <v>19.63732828101273</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.27127047119028</v>
+        <v>15.6612747109381</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.00802312115556</v>
+        <v>26.10447553283436</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.20737855489988</v>
+        <v>31.27210191782107</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.06263784610170475</v>
+        <v>3.404821848746938</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.557782142603141</v>
+        <v>10.15193038541352</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>15.11581882332678</v>
+        <v>16.87070974606314</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.896795405219585</v>
+        <v>6.278521249311133</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.7159643367796</v>
+        <v>25.27197831853306</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>40.10796805912138</v>
+        <v>39.59970509612457</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.41651957917492</v>
+        <v>22.55366845907909</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.56446831936238</v>
+        <v>33.67651485032892</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.34487465118274</v>
+        <v>38.84632105680016</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.297524218966362</v>
+        <v>9.523158507748324</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.94875568000496</v>
+        <v>21.25523121741644</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.94598683059204</v>
+        <v>30.47597375902212</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>39.91048640432554</v>
+        <v>41.67076218256872</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.07525501632772</v>
+        <v>37.68271360158346</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.8815757790935</v>
+        <v>44.890162506642</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.36311631873458</v>
+        <v>43.26864519464738</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.34987675993535</v>
+        <v>14.36969259308501</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.59819177472572</v>
+        <v>39.55341833109998</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.27725413308501</v>
+        <v>41.68492050481776</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.83821574556033</v>
+        <v>25.08165417876859</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.40480625437041</v>
+        <v>35.21744681211892</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.34042042339767</v>
+        <v>36.97554536564407</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>2.450207925461754</v>
+        <v>5.395812333576895</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.82169162795878</v>
+        <v>33.33900021090398</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.02025388479277</v>
+        <v>34.3852626386378</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.256640879690465</v>
+        <v>10.79073994834654</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>55.40716839278144</v>
+        <v>52.95948016321987</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>55.01336676120901</v>
+        <v>53.60814299052147</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>64.76326469843211</v>
+        <v>61.80604720281029</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>68.69780002446736</v>
+        <v>65.44888261105788</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>69.78099023483455</v>
+        <v>68.15803321581306</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.95872605345035</v>
+        <v>30.68082559163254</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>60.85894437049033</v>
+        <v>58.36448057047628</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>63.68518890213493</v>
+        <v>61.05004130793451</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>40.8759995836099</v>
+        <v>41.1460959303698</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.03301721208645</v>
+        <v>32.09797088264112</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.41261148014692</v>
+        <v>38.59012486738992</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.31224475830076</v>
+        <v>42.69686787091673</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.74731542528011</v>
+        <v>9.235644976060819</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.69539910608847</v>
+        <v>37.0406619122811</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.92544065607186</v>
+        <v>40.19682592498013</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.13788359786089</v>
+        <v>17.45974095378603</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.66189272910826</v>
+        <v>31.75399509248776</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.54127525260257</v>
+        <v>35.23325419820007</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1.092304260170188</v>
+        <v>3.808009023726839</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.62149569983769</v>
+        <v>29.78769574785483</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.17983808256373</v>
+        <v>33.4785219494215</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.18953764980045</v>
+        <v>10.68224863072249</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>52.9971761917171</v>
+        <v>50.09689122827862</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>57.42172754862067</v>
+        <v>55.48607912690535</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>61.72311297668042</v>
+        <v>57.88580498424218</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>67.44581242446017</v>
+        <v>63.61667920628407</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>71.68896264181191</v>
+        <v>68.16316831743777</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.35814623391095</v>
+        <v>22.15219783752713</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>59.65920245850226</v>
+        <v>56.68529162043258</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>63.892554720812</v>
+        <v>60.87314168611918</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.56996601345895</v>
+        <v>39.63223744184897</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.00006853440738</v>
+        <v>20.3586793276154</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.96217401083104</v>
+        <v>26.52254712552433</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.95134546434341</v>
+        <v>32.7301353792779</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>4.305435726895091</v>
+        <v>6.801192268552871</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.35784597514433</v>
+        <v>33.29991527069025</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.59405170018605</v>
+        <v>39.02942685957773</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.25709030740887</v>
+        <v>14.40091377204351</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.57974984588795</v>
+        <v>32.76066492373205</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.00473901818009</v>
+        <v>37.47729336617202</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1.408297678181953</v>
+        <v>4.927468698391003</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.10174108694541</v>
+        <v>30.68909262911733</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.30977395052895</v>
+        <v>37.12319193782233</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.850388537212623</v>
+        <v>7.315360425897591</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.03296017996809</v>
+        <v>47.40108474692687</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>58.59440970441322</v>
+        <v>56.32118865283343</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.67418338905306</v>
+        <v>51.29205087854688</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>59.85954570576234</v>
+        <v>57.1580463738053</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>67.05296947549698</v>
+        <v>64.27871484455213</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>12.23027586327924</v>
+        <v>13.96007166284639</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.39953430587472</v>
+        <v>52.87157375576416</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>65.15639652507704</v>
+        <v>62.21129282468079</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>9.90264380796282</v>
+        <v>10.71316581007487</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.59560707720432</v>
+        <v>13.95779096764805</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.78130568012169</v>
+        <v>25.28083565867445</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.45492575540792</v>
+        <v>2.562921782550529</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.70485594964069</v>
+        <v>15.48583893751324</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.97784767277375</v>
+        <v>18.3516293823821</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.979189011479374</v>
+        <v>7.920353506117223</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.07332239091861</v>
+        <v>33.71658024530358</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.30086471942374</v>
+        <v>36.26344353933261</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.86660279767782</v>
+        <v>13.4210725185295</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.06306819949413</v>
+        <v>17.80097183481599</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.77392512407035</v>
+        <v>21.19539867404507</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>14.77827897646993</v>
+        <v>16.23666548786692</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.50627707623355</v>
+        <v>15.25455054355905</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.43934458086762</v>
+        <v>28.2858191777064</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.20826982592826</v>
+        <v>11.31090840346014</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.79290328091225</v>
+        <v>28.64051926785729</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.38006937044038</v>
+        <v>35.66373776362956</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2.23061914528467</v>
+        <v>2.535819951947481</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.52729682444281</v>
+        <v>11.19526758514965</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.63957706387628</v>
+        <v>15.33390451278709</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.358815716693119</v>
+        <v>1.724535638844145</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.18372049442649</v>
+        <v>22.98952456133888</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.86546966199284</v>
+        <v>19.18943797619241</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.65583698333005</v>
+        <v>29.17677301776749</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.8064211803198</v>
+        <v>29.13426986719657</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2.23644042241186</v>
+        <v>2.606183493712546</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.58140040675216</v>
+        <v>33.54731002666184</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.00533792624736</v>
+        <v>36.78104998372719</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>7.100951925503605</v>
+        <v>6.60134074962146</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>52.4600306546173</v>
+        <v>49.82877524273599</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.61994941085118</v>
+        <v>46.99610346061759</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>48.99490948952455</v>
+        <v>45.94765553094675</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.76577766008189</v>
+        <v>54.32718867000418</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.22286321089864</v>
+        <v>53.75270852932059</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.469041261127</v>
+        <v>18.90822556019606</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.18185652872323</v>
+        <v>36.64446568820301</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.03544291600902</v>
+        <v>40.34405583559418</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.01610344653002</v>
+        <v>20.46890947140007</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.57578034215815</v>
+        <v>39.77523866950236</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.59520878975067</v>
+        <v>42.11182459290573</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.023995343166973</v>
+        <v>4.111644508036189</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.44788331600335</v>
+        <v>35.44623796799689</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.69943872550594</v>
+        <v>42.26898862375599</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3.698066763043403</v>
+        <v>3.520055805419943</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.62753228807865</v>
+        <v>57.37351714634739</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.73398876099855</v>
+        <v>6.978836369692452</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.98991784754509</v>
+        <v>19.77124067130724</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.58631185849139</v>
+        <v>24.87151636719485</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-0.1627772284838791</v>
+        <v>-0.002673797624805019</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.77645994146692</v>
+        <v>28.55006269794353</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.99487158800893</v>
+        <v>33.21097623684844</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>4.243018503574977</v>
+        <v>3.647326265940588</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.2745663717415</v>
+        <v>44.80219880788712</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.77005796756479</v>
+        <v>48.59319612177053</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.28177340065321</v>
+        <v>49.69162442645373</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>56.34144538581421</v>
+        <v>55.90068617870062</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>58.84343582050342</v>
+        <v>57.86613118198932</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>9.347118614339617</v>
+        <v>8.03075082181763</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.20048639382316</v>
+        <v>27.44161164919221</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.22503407606079</v>
+        <v>32.59989997690865</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>11.02835658418836</v>
+        <v>11.2679849852266</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.17555309920729</v>
+        <v>32.03244372465996</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.51993794210905</v>
+        <v>41.07568064407621</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.176356459278988</v>
+        <v>2.605146081506799</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.52638435094304</v>
+        <v>26.46798007820861</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.67814974725764</v>
+        <v>41.22567270926001</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1.174889657813928</v>
+        <v>1.517906532514797</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>49.87300133729484</v>
+        <v>46.80447602438363</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.511421591774347</v>
+        <v>4.028866390138937</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.72872607079967</v>
+        <v>16.54890014697016</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.38624290434358</v>
+        <v>24.00807663642273</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.4365978553060224</v>
+        <v>0.9268309323896489</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.31203593537666</v>
+        <v>29.67141650711691</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>37.24912047552144</v>
+        <v>35.50455035741982</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.803713490777639</v>
+        <v>2.113209467926382</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.0723979157798</v>
+        <v>44.14033927246845</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.31583388759789</v>
+        <v>48.81974987214659</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>40.3685295832784</v>
+        <v>40.85507317071622</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.09132286413585</v>
+        <v>46.74549145237188</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.50890604770753</v>
+        <v>50.3639236501486</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.229494374230526</v>
+        <v>6.454683409811217</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.77543296770689</v>
+        <v>19.57681265222423</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.86512123816535</v>
+        <v>33.09196810193718</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.082776895150484</v>
+        <v>8.653165057380217</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.39771533808023</v>
+        <v>29.1725273827051</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.86997797326766</v>
+        <v>39.30729353659666</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2.192146298783324</v>
+        <v>3.798294752682082</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.81618167331369</v>
+        <v>25.90862174541319</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.44816768881504</v>
+        <v>40.82449012917061</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-0.2011351581560561</v>
+        <v>0.4077157512973848</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.05430181499256</v>
+        <v>41.22821366531336</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.22989004047968</v>
+        <v>28.13965422834545</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.40706386116944</v>
+        <v>23.73543363801586</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>49.30786168951828</v>
+        <v>47.24182528442707</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>57.28302527061396</v>
+        <v>54.46084333699566</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.628743419893404</v>
+        <v>6.73184217975728</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.79754519080424</v>
+        <v>19.06317503651367</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.73260594064239</v>
+        <v>29.59974612133978</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.1669942640052</v>
+        <v>14.55712068703384</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.06544451538856</v>
+        <v>28.78565620662055</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>41.38172485851489</v>
+        <v>39.54324829483253</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>2.117788445718531</v>
+        <v>2.240292739730318</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.698892120467217</v>
+        <v>8.436809911236832</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.63824743124438</v>
+        <v>14.3118932599804</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.423202350991918</v>
+        <v>2.892037437247122</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.00199960704088</v>
+        <v>22.4999846946418</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.73715858443734</v>
+        <v>38.63241073402365</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.58466591660833</v>
+        <v>26.38140303237557</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>52.18683408505618</v>
+        <v>50.31840239537312</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>60.18663555212928</v>
+        <v>58.15309594300842</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.984874067117296</v>
+        <v>6.725519657644544</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.48036740550389</v>
+        <v>20.37716114764255</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.78394393710851</v>
+        <v>29.97841416740335</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.95785022713517</v>
+        <v>68.00654520261517</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>61.15564785960706</v>
+        <v>60.11135461745092</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>76.88968302642259</v>
+        <v>75.7455273043646</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>81.99675789852822</v>
+        <v>77.95864620229767</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>23.98800008916445</v>
+        <v>23.6376504368444</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.21002927318577</v>
+        <v>70.37676592439708</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>80.2312342914997</v>
+        <v>76.97137753763732</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.44188604025341</v>
+        <v>27.17803204188928</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.27479921221013</v>
+        <v>45.63409404557773</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.41432124822542</v>
+        <v>49.05457107079808</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>5.251887744220568</v>
+        <v>5.420845664982313</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.80036572097816</v>
+        <v>41.71135678736873</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.65470008821795</v>
+        <v>51.12743615559555</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>7.890647295352508</v>
+        <v>8.699868576229949</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>76.09082979243102</v>
+        <v>73.41483861122236</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>79.77953329857382</v>
+        <v>77.50995534404186</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>84.91104606731855</v>
+        <v>81.91341082518431</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>93.15826651804412</v>
+        <v>90.99635139875238</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>96.829984996549</v>
+        <v>95.00978509276703</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.10455823850957</v>
+        <v>35.26009258499007</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>92.15997485469711</v>
+        <v>90.61760819661301</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.78298319377089</v>
+        <v>91.3746545120965</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.36393309872682</v>
+        <v>70.454677308426</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.21981147536864</v>
+        <v>48.19541932197505</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>62.64191415861021</v>
+        <v>58.8993010254292</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>78.81581156971046</v>
+        <v>77.15865150623429</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.753066999032</v>
+        <v>14.15797744118654</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>64.867880210647</v>
+        <v>61.96730166706791</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>76.05360570703601</v>
+        <v>73.0371241325184</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.28150630122582</v>
+        <v>13.34770086198691</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.19586820819666</v>
+        <v>37.47777012242634</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.79057043178862</v>
+        <v>45.19309426805511</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>3.034158217696749</v>
+        <v>3.182974827481321</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.28452841419074</v>
+        <v>40.1216316151403</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>53.00868041299977</v>
+        <v>51.68554567590289</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3.81353048983528</v>
+        <v>3.217395471168235</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>68.94804585231873</v>
+        <v>64.06320425791621</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>81.31222682279704</v>
+        <v>78.40294513790674</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>79.94368640511946</v>
+        <v>74.76576101835361</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>89.56555474897476</v>
+        <v>86.53140795812379</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>95.25716795628085</v>
+        <v>93.29785318536857</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.84408126995129</v>
+        <v>22.23150826700074</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>85.59434078831451</v>
+        <v>82.36359640016823</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>92.79412087640489</v>
+        <v>88.99020654276524</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>69.08058765651319</v>
+        <v>67.77932536264134</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.15066232407064</v>
+        <v>32.0363648071088</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>45.66281047054142</v>
+        <v>43.53612965561422</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>62.83507307827615</v>
+        <v>59.33027793773903</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.638000866965417</v>
+        <v>10.0065852967865</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>57.10808774703692</v>
+        <v>54.04020059781879</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>71.78053937385917</v>
+        <v>68.62017387189377</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.66413804770816</v>
+        <v>12.49437958539437</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.81903885367376</v>
+        <v>37.92435215036195</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.489842154339</v>
+        <v>50.41754230451681</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>4.053445374506417</v>
+        <v>4.454831845858983</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.68134080252184</v>
+        <v>39.21952680615863</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.47270916010172</v>
+        <v>53.53902631204516</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.980161330518317</v>
+        <v>1.653793710833259</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>62.61202612021174</v>
+        <v>61.09380601583078</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>82.68374357499988</v>
+        <v>80.49332816106637</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>70.49079989162247</v>
+        <v>69.1670381643855</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>88.21906293160988</v>
+        <v>84.23281467606758</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>97.42569631186626</v>
+        <v>95.03915171700403</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.59847333469153</v>
+        <v>17.02642208511059</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>78.08548045283194</v>
+        <v>80.57351938965863</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.70408547627446</v>
+        <v>88.88190709857646</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.587</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.499</v>
+        <v>15.682</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.624</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.221</v>
+        <v>15.603</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.073</v>
+        <v>5.021</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.13119197748699</v>
+        <v>12.20476828359979</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.45078351876914</v>
+        <v>9.266589047508168</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.01751432259116</v>
+        <v>16.96402383268791</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.80971494086517</v>
+        <v>1.191277340148698</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.20442687462627</v>
+        <v>9.251725795991883</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.91316752879575</v>
+        <v>11.08614326235344</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.003286861924025</v>
+        <v>6.785365949061138</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.37731483060555</v>
+        <v>23.29178366726266</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.9945025999303</v>
+        <v>24.48617962697655</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.88047116706042</v>
+        <v>7.777491263554033</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.97970361659408</v>
+        <v>11.63515282869417</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.34975030306108</v>
+        <v>13.22397892473385</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.48010035069481</v>
+        <v>14.38107121230422</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.72016157884464</v>
+        <v>4.320860008919492</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.45781669347591</v>
+        <v>13.59516591644121</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.54863606059001</v>
+        <v>12.92126388095844</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.31029652171149</v>
+        <v>20.08323587578531</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.42735041185934</v>
+        <v>25.48864083288247</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.145600644330639</v>
+        <v>5.59562472783405</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.5723578125332</v>
+        <v>9.176737928471168</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.78757855674146</v>
+        <v>12.53965311427501</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.044158177845887</v>
+        <v>0.7028927122089783</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.89064302562397</v>
+        <v>13.7891752605448</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.14433141674901</v>
+        <v>16.27009923416087</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.21383313594494</v>
+        <v>20.92724900887218</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.32184248575532</v>
+        <v>22.7476188577462</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.526046639435553</v>
+        <v>2.092135153645682</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.33459281142923</v>
+        <v>27.16901821875248</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.87109393305941</v>
+        <v>27.91091526444662</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.500456194417453</v>
+        <v>6.073902664703859</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41.60878208853241</v>
+        <v>37.45189895788596</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.14614355598079</v>
+        <v>34.94418793152767</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.58831922868608</v>
+        <v>34.77108472084144</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.77820605481541</v>
+        <v>42.71355489168694</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.20023851362321</v>
+        <v>44.00484147934125</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.7149249846315</v>
+        <v>20.34236527096947</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.30234963615738</v>
+        <v>29.06311545163673</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.64977206615196</v>
+        <v>32.91107408564169</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.62216825129718</v>
+        <v>17.10495806145188</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.47835791519562</v>
+        <v>27.04961066583977</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.47744950040775</v>
+        <v>29.7236792358684</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.484418853299374</v>
+        <v>7.077264164875249</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.46328775361751</v>
+        <v>22.64389576274552</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.43557625489221</v>
+        <v>32.61046858512788</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.10573356837825</v>
+        <v>36.0300688299034</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.02581919841165</v>
+        <v>10.43390346996576</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.7333036342258</v>
+        <v>19.17333312239325</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.31966123973724</v>
+        <v>22.69211028863047</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.04614623865751</v>
+        <v>0.6291902725722238</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.27567738812891</v>
+        <v>26.69812889873532</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.00235879893597</v>
+        <v>30.56540834606136</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.711684162794992</v>
+        <v>6.618950965659977</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.84045256890945</v>
+        <v>39.81769973475186</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.23999401142205</v>
+        <v>40.32900554321202</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43.45410651441169</v>
+        <v>38.78364714033633</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.13253733502602</v>
+        <v>43.05379894960893</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.71424277344936</v>
+        <v>47.57415056007869</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.58297301793536</v>
+        <v>11.4384902728548</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.97006442066049</v>
+        <v>24.11659603392799</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.68044333710275</v>
+        <v>30.59487740674583</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.4588987682807</v>
+        <v>12.59177207480671</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.31002303369873</v>
+        <v>23.45485961493853</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.57936115733968</v>
+        <v>28.37145314615989</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.974883042278123</v>
+        <v>5.18369561258211</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.61849767496729</v>
+        <v>19.09082407949101</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.56414465251975</v>
+        <v>34.89435622193047</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.841403352726928</v>
+        <v>3.37893783074303</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.81052460062018</v>
+        <v>33.4030381850767</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7.422926684931543</v>
+        <v>4.319760275684722</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>18.20355954440672</v>
+        <v>14.3892645737212</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.50985015520622</v>
+        <v>20.33444742212328</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.218421326335847</v>
+        <v>-0.1340470579567956</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.38480685806999</v>
+        <v>26.09637039672834</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.18785311471999</v>
+        <v>29.95760888755812</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.241512980587995</v>
+        <v>1.060269379864771</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.25480633823861</v>
+        <v>35.45678586668256</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.13700145169646</v>
+        <v>38.59323461254441</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.82482326135419</v>
+        <v>28.54265915990484</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.12351344894039</v>
+        <v>32.16839855645949</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.05038037419779</v>
+        <v>36.30508795476325</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.1082019930174</v>
+        <v>7.568334177131305</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.05753072351433</v>
+        <v>15.13234195576426</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.30964403966205</v>
+        <v>28.63616162060751</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10.54420561005405</v>
+        <v>7.652455082270301</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.9605708409313</v>
+        <v>23.96258297678343</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.34876068425683</v>
+        <v>30.30169523545341</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>8.462501946838213</v>
+        <v>5.259553005451529</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.87457873565149</v>
+        <v>19.91507796044369</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.74178248137711</v>
+        <v>33.07215574550735</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.633386608513771</v>
+        <v>0.2398018785631244</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.18296877326202</v>
+        <v>31.57915872476154</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>20.06554776233943</v>
+        <v>18.13800881507091</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.48655395530431</v>
+        <v>13.01639988395339</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.64147463530114</v>
+        <v>32.29892389751135</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.70218692321347</v>
+        <v>34.54644089455107</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.665304721807331</v>
+        <v>4.849796198328882</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.33500135864115</v>
+        <v>11.11801549808792</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.43893096974995</v>
+        <v>16.42431200234149</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.17882509802354</v>
+        <v>13.84131498574546</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.6769655525326</v>
+        <v>18.68539972246831</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.31470328821147</v>
+        <v>28.27931909328242</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.733932449425769</v>
+        <v>4.167133268709957</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.39907354367569</v>
+        <v>7.285590658460592</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>13.89134954708677</v>
+        <v>10.57894852770335</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.771033353452115</v>
+        <v>0.9074600975694729</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.10054520417398</v>
+        <v>16.62261479448012</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.47971844638981</v>
+        <v>29.5580774962076</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.88822368982174</v>
+        <v>18.18550333023655</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.1297253847384</v>
+        <v>37.13685539547851</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.30592394393089</v>
+        <v>41.46872740028142</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>7.343667553103572</v>
+        <v>4.826120118727289</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.27304474550209</v>
+        <v>11.77322344517503</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.4464466329982</v>
+        <v>22.33665594587978</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.58981864477514</v>
+        <v>45.93549333246118</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.57368698767507</v>
+        <v>40.02994475823262</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.17465624306426</v>
+        <v>51.81562674960458</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.68002336593945</v>
+        <v>57.50888527715435</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.93130046663746</v>
+        <v>19.46086555923473</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>50.12352078320964</v>
+        <v>48.36071218239802</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.84585136947986</v>
+        <v>50.34073937300139</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.15274623861728</v>
+        <v>24.14770516680581</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.64845187891328</v>
+        <v>35.51769657885499</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.7809408497804</v>
+        <v>40.74310162303291</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.772761118619147</v>
+        <v>10.42871917851164</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.54132679164363</v>
+        <v>33.68227963432552</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.09091501234033</v>
+        <v>39.16833291785782</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.997697287667805</v>
+        <v>8.952288980657599</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.69835818149046</v>
+        <v>53.27281104246727</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.32758490899103</v>
+        <v>62.48389917160419</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.15244029616167</v>
+        <v>67.57311718178859</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.08790192309812</v>
+        <v>74.82553831328464</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.39130250642336</v>
+        <v>79.85642141658089</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.75160618058483</v>
+        <v>33.57815319795549</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.78125730250503</v>
+        <v>66.72350502938507</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.14952805220878</v>
+        <v>71.08010390638741</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>55.56611580070492</v>
+        <v>50.86561858232773</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.20431015998034</v>
+        <v>34.22074530149449</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.41040330185631</v>
+        <v>40.67083877897166</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>58.58509562239072</v>
+        <v>54.11716435534109</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.33468833287229</v>
+        <v>13.68766605944998</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>47.42537591418078</v>
+        <v>44.3703062551774</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.68555408009667</v>
+        <v>50.16598980462378</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.51019334580587</v>
+        <v>17.40104183090613</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.32432032909315</v>
+        <v>31.07866004673052</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.28564956070554</v>
+        <v>39.01559428985473</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8.562546841802366</v>
+        <v>8.122431467615453</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.41262939149598</v>
+        <v>32.46579435748696</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.21138672678752</v>
+        <v>43.23364738148282</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.979597270082444</v>
+        <v>6.958858637038016</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.10787800093102</v>
+        <v>51.94534943542986</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.48951371318688</v>
+        <v>67.27041171706738</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>65.23584243371116</v>
+        <v>64.53055407179468</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.1365370392393</v>
+        <v>69.93616116298193</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.23602143723522</v>
+        <v>81.38049654922915</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.83348998710759</v>
+        <v>23.9726975537861</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.50788234509304</v>
+        <v>60.30158608924917</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>71.0908806899714</v>
+        <v>71.07680258190842</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.0915720099856</v>
+        <v>45.87896818491603</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.29337755952537</v>
+        <v>21.28445905754882</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.46670066985038</v>
+        <v>29.53464821854326</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.77121656311137</v>
+        <v>39.50761247469529</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12.3317310419559</v>
+        <v>10.28385791474494</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43.31257855699248</v>
+        <v>38.93728188650708</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>51.18974919100494</v>
+        <v>45.84319131051589</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>15.15494547488546</v>
+        <v>13.41228797043801</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.14438080993946</v>
+        <v>33.13044043086556</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.38949467518143</v>
+        <v>44.70152964280194</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>9.552737169672561</v>
+        <v>9.07004924852458</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.55979398122088</v>
+        <v>32.34100894038025</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.65630953356857</v>
+        <v>45.16639537588245</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4.116451271193025</v>
+        <v>3.730869960199009</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.76541119256198</v>
+        <v>46.69515939990494</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>68.87941786848418</v>
+        <v>66.73692905871233</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>56.35401737055435</v>
+        <v>52.07260149827078</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.12655205159794</v>
+        <v>61.55313316121918</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.82012534059967</v>
+        <v>79.07676769473092</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.97828105282559</v>
+        <v>16.02869475256843</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.39046734308757</v>
+        <v>52.88090381775257</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.0345662033548</v>
+        <v>69.69869917833003</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>16.88703659995706</v>
+        <v>8.853018328198843</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.83599450644292</v>
+        <v>19.99740141959722</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.01065769526043</v>
+        <v>29.89848711468618</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>13.79935153093439</v>
+        <v>4.737592307130868</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.56204618210948</v>
+        <v>24.87293158894683</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.74699899660632</v>
+        <v>29.16624247849463</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.09036944348784</v>
+        <v>9.790436244209715</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>39.52552050576661</v>
+        <v>47.79085520684295</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.48527936829478</v>
+        <v>51.28240300378005</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.1956132681256</v>
+        <v>24.335054711838</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.47042943795603</v>
+        <v>29.56101355979269</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.19423668347896</v>
+        <v>32.48625372231371</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>24.83070394673333</v>
+        <v>18.99095761429984</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.72967467741319</v>
+        <v>18.95979720141225</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.35325139397769</v>
+        <v>37.15143388240848</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.82603923759546</v>
+        <v>13.0276311373764</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.88478076198403</v>
+        <v>29.56909631733721</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.69955020197568</v>
+        <v>28.84512057851037</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>13.11698479044254</v>
+        <v>2.783715322000305</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.15354074719991</v>
+        <v>19.7428743549564</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.79323173799184</v>
+        <v>19.38647049321898</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.41831730761184</v>
+        <v>4.476567626180415</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.48983743143725</v>
+        <v>34.59847312536047</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.14440049683218</v>
+        <v>15.59581053891607</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.48786713624672</v>
+        <v>32.85839508348424</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.53320599879621</v>
+        <v>36.71449913682202</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>14.09635587094526</v>
+        <v>8.279515701879927</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.12377581423306</v>
+        <v>41.61201512782038</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.92170224899844</v>
+        <v>43.09405177473901</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.46396469914056</v>
+        <v>12.0938744542934</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>47.86488443708107</v>
+        <v>61.06232984282502</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.99195033227056</v>
+        <v>59.58756381495297</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.69634082572341</v>
+        <v>53.07402382439117</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.67910173957068</v>
+        <v>58.27745998472207</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>45.75149272611309</v>
+        <v>58.70099225551463</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.89835141956301</v>
+        <v>21.36591900103365</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.95205957012393</v>
+        <v>39.39200391836296</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.36736669333959</v>
+        <v>46.80754154177474</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.70551808559037</v>
+        <v>24.17369187307372</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.36673802677119</v>
+        <v>41.26203909312939</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.56563416236861</v>
+        <v>38.53107097549595</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>13.56919964590554</v>
+        <v>7.097931253950438</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.62666138369667</v>
+        <v>34.69417578804557</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.869705015788</v>
+        <v>34.64443313957317</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>15.33030212410207</v>
+        <v>11.54068087935459</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>44.53278117438915</v>
+        <v>55.7383577826991</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.42703265843254</v>
+        <v>7.745767259786067</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.54174083984647</v>
+        <v>26.50862171789469</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.42883588373588</v>
+        <v>31.72010220553438</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>13.39885523879046</v>
+        <v>5.338443825811058</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>32.85658434973832</v>
+        <v>37.84584071147196</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.36045437143729</v>
+        <v>41.79808963711655</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.83271551669765</v>
+        <v>9.484897029264083</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>44.86770001514465</v>
+        <v>57.74376680436184</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.00458459368222</v>
+        <v>58.5169258287454</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.13972203865719</v>
+        <v>56.93675914243526</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.47700180875378</v>
+        <v>59.74499874014346</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.6236684737743</v>
+        <v>61.37084094521042</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.927879304629</v>
+        <v>9.414604343098357</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.02792134048738</v>
+        <v>29.75998942007536</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.56479977634575</v>
+        <v>37.70238223546298</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.78190703649685</v>
+        <v>19.76013021907564</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.10846187967445</v>
+        <v>36.01594612835518</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.71370672184431</v>
+        <v>36.08197887468368</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.15973308409697</v>
+        <v>5.389548885461945</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.27426770773727</v>
+        <v>30.58853978512403</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.24613168421019</v>
+        <v>34.82872996143941</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.98870633733845</v>
+        <v>10.1170041019129</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.93204830612279</v>
+        <v>50.74251278268615</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14.10018923079555</v>
+        <v>3.993890390571991</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.7859351449658</v>
+        <v>22.94363631257747</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.89512993412474</v>
+        <v>31.72120788440938</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.84284867134351</v>
+        <v>7.409625609629455</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.57854919696582</v>
+        <v>38.01308078975518</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.69959390654275</v>
+        <v>44.36230605142256</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>14.24700164670835</v>
+        <v>8.537209029936049</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>44.56096382025741</v>
+        <v>57.0179143375757</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.2277729228863</v>
+        <v>61.08732823425234</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.32442541225316</v>
+        <v>52.08485689133199</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.80676597278478</v>
+        <v>56.83565608734526</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.50460051243574</v>
+        <v>59.04813879883427</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.01244037740772</v>
+        <v>9.026799906698329</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.92856033043495</v>
+        <v>25.63143911758735</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.75447161212509</v>
+        <v>41.27969589587693</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>18.93900953897574</v>
+        <v>12.45478819541598</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.96123591370347</v>
+        <v>32.7521153280925</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.45620733696438</v>
+        <v>34.39281081778655</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>13.52245574291938</v>
+        <v>4.895956992880823</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.25121489171234</v>
+        <v>28.80345491069455</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.07560279971609</v>
+        <v>33.8502652494949</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>14.40317815274784</v>
+        <v>6.776839159032651</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>37.9503726268773</v>
+        <v>46.32573713004345</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.90571304954399</v>
+        <v>32.59834036925047</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.57077859145325</v>
+        <v>28.85740228163038</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.31694515251947</v>
+        <v>42.96021028128807</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.86461848605131</v>
+        <v>42.99919882963388</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.18256866385435</v>
+        <v>18.76637804162906</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.18326455740942</v>
+        <v>32.51802167188477</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.87253046060235</v>
+        <v>36.51756723954252</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.05233052692146</v>
+        <v>16.37924218896844</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.87482773439662</v>
+        <v>27.9250249046092</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.87747516899967</v>
+        <v>36.12541424289459</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.89820353353376</v>
+        <v>3.054142204671628</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.82955838379302</v>
+        <v>18.75085713906836</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.52786833606356</v>
+        <v>24.17561284639666</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.08823816911012</v>
+        <v>7.886954377777883</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.47375110178361</v>
+        <v>38.04731351031045</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.17031899735875</v>
+        <v>52.07625716472186</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.90297087092539</v>
+        <v>34.26656290921421</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.92695360490232</v>
+        <v>49.74178980068277</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.62618782735399</v>
+        <v>52.78928288894839</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18.59726578281203</v>
+        <v>18.84110189066289</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.86427799436881</v>
+        <v>35.30761440179774</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.80922446392722</v>
+        <v>46.64807497655391</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.46303060869924</v>
+        <v>55.8862779027714</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.34188128952523</v>
+        <v>55.34752347395941</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.68111678011995</v>
+        <v>63.07782232246707</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>49.37452759606978</v>
+        <v>61.98839985352882</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.34826395434035</v>
+        <v>29.6298565415843</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>46.79701310191096</v>
+        <v>59.84295043028992</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>45.89225905552964</v>
+        <v>56.99921881669178</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.26826682482234</v>
+        <v>24.3079882647914</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>13.83804765759779</v>
+        <v>7.939258089508293</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.81964041780011</v>
+        <v>40.88543464111794</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.32213695724609</v>
+        <v>41.25174368737486</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.81866224335751</v>
+        <v>12.54571486366491</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>50.40211644676624</v>
+        <v>64.76984786876143</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>52.28437462172356</v>
+        <v>69.52764487009784</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.19032740204645</v>
+        <v>68.33247278446206</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>56.04397690644417</v>
+        <v>74.03106841652479</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.85215675939315</v>
+        <v>75.9964385298854</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.67863551682063</v>
+        <v>34.0636386586832</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>54.68642204569313</v>
+        <v>70.24025378712354</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>54.95161554038045</v>
+        <v>71.2303795914619</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>46.25495044699892</v>
+        <v>57.31163934861235</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>42.47818991399394</v>
+        <v>52.53219590887143</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>46.23607632718927</v>
+        <v>56.88423570593787</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.44500926061402</v>
+        <v>60.12216255466957</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.7322317794905</v>
+        <v>23.90709151739012</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.21375963959741</v>
+        <v>55.68957769572984</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.36710249359523</v>
+        <v>55.11463464446486</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.63665828476433</v>
+        <v>18.04202261788375</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.72236611928873</v>
+        <v>36.40222101320663</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.21308337975724</v>
+        <v>39.75524934672824</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.17137617652413</v>
+        <v>5.250356891463728</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.00920086545916</v>
+        <v>38.51011419548396</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.45356591894807</v>
+        <v>41.82202390647301</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.48529048135635</v>
+        <v>9.365821592458591</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>47.56143841886127</v>
+        <v>61.07014162803677</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>52.39910005019166</v>
+        <v>69.36709292736232</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>50.73279788065076</v>
+        <v>66.66441148914748</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>55.7662781511108</v>
+        <v>71.4075161453067</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>58.07362844626009</v>
+        <v>76.71281348088195</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.41055389243033</v>
+        <v>25.47011557999713</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.42964980717375</v>
+        <v>65.81587853907362</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>54.29485254834107</v>
+        <v>69.08427396210745</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>43.60335929859053</v>
+        <v>52.49845025984519</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.05249560724547</v>
+        <v>38.86703313984161</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.05403534428406</v>
+        <v>45.89763314399245</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.55514542712518</v>
+        <v>47.58343524699428</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.11628979985915</v>
+        <v>20.48344504685933</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>40.91392419116494</v>
+        <v>51.40046456643104</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.91342469495548</v>
+        <v>54.39367455298068</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.38623402568327</v>
+        <v>15.55013655466025</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.2434726980154</v>
+        <v>38.09266183278007</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.59824392214833</v>
+        <v>44.93220355566572</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.64495172937949</v>
+        <v>6.622328625151933</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.757744226132</v>
+        <v>39.00266701401794</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.99001459309692</v>
+        <v>45.65023761773578</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.69376629219413</v>
+        <v>9.124352708865121</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.37772334075653</v>
+        <v>58.61517507910273</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>52.83829925027943</v>
+        <v>71.73956530686208</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.23405189537254</v>
+        <v>60.01478373613709</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.39500490735367</v>
+        <v>70.2621124671582</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>57.66342321568466</v>
+        <v>77.50732598829184</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.51549397129885</v>
+        <v>22.94525624988874</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.01938245806637</v>
+        <v>66.94637040216521</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.46291453240734</v>
+        <v>75.12843470219309</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.9141796625944</v>
+        <v>12.20430755366343</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.98988857515461</v>
+        <v>25.374818467842</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.45567793890871</v>
+        <v>31.56252461959208</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.293080089333966</v>
+        <v>-0.9894771057350127</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.23519376105106</v>
+        <v>16.63137028545371</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.29712192874289</v>
+        <v>20.74945798683729</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>8.325931821812826</v>
+        <v>3.315912963073693</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.07563649736967</v>
+        <v>43.90976713860674</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.32875886984119</v>
+        <v>44.32245537797053</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.11420311394023</v>
+        <v>21.9808716819626</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.63307961790286</v>
+        <v>28.99968413439793</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.98345174786341</v>
+        <v>28.71392659692691</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.13889864791217</v>
+        <v>8.841736108438745</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.96501734026759</v>
+        <v>16.80925571068451</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.29175981841171</v>
+        <v>21.66033292524171</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.56823723292584</v>
+        <v>16.72352360707437</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.34470952056216</v>
+        <v>32.17166723166994</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.96299723730304</v>
+        <v>32.31064030110587</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7.587916168017014</v>
+        <v>2.423881022882156</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15.99437807606596</v>
+        <v>18.12560707297669</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.91935198248241</v>
+        <v>20.01610538187435</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.91994148619521</v>
+        <v>2.51088248022382</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.19506017577186</v>
+        <v>34.73059869228777</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.39650507177785</v>
+        <v>21.01132793078098</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.57065004863654</v>
+        <v>40.83562386756839</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.01182850642239</v>
+        <v>40.67605850214504</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.007020060792478</v>
+        <v>5.672004055781869</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.76152798637551</v>
+        <v>37.98005688206099</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.06349981404427</v>
+        <v>38.68341276705597</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.980828198287224</v>
+        <v>8.893330560304809</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>50.36707807898019</v>
+        <v>60.49741211295556</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>47.72699818833896</v>
+        <v>56.29289107424816</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.82429886759932</v>
+        <v>51.61209605102306</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>50.24562712596275</v>
+        <v>58.16454786306471</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.48684250452634</v>
+        <v>55.08273483810343</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.68038503982251</v>
+        <v>15.66974699808151</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.92911643556092</v>
+        <v>42.33074212213684</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.24481767285184</v>
+        <v>40.65252344361133</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.78498121686122</v>
+        <v>24.59653624887562</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.47318072990462</v>
+        <v>44.1566177072279</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.63788601589176</v>
+        <v>42.54653607002231</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>7.834404010624937</v>
+        <v>6.518139293969476</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.68575370444644</v>
+        <v>35.9842646412493</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.45193575749245</v>
+        <v>38.23701108770679</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.976340420367915</v>
+        <v>8.536940171834978</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>49.60925284419524</v>
+        <v>58.56940643675254</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.36518945118177</v>
+        <v>11.97621956876731</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.50217252446899</v>
+        <v>33.0330925826171</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.23376746539448</v>
+        <v>34.08057288603274</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.17225800457355</v>
+        <v>2.838268805589404</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.23094723372799</v>
+        <v>34.18616175591244</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.30672851632538</v>
+        <v>37.19982501786955</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.253462124779105</v>
+        <v>6.80445840360505</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>48.284878119308</v>
+        <v>56.95288107575558</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>47.27436884388841</v>
+        <v>54.823526708975</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>46.91048944193052</v>
+        <v>53.66244772441034</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.35652954993164</v>
+        <v>57.51930896947788</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>51.88029495218018</v>
+        <v>55.46320380105435</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>8.620948974199923</v>
+        <v>3.739513438459756</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.44894962769227</v>
+        <v>31.27043155161823</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.01962320308426</v>
+        <v>29.12878173178071</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.69050146618994</v>
+        <v>19.08175944442289</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.91321781517499</v>
+        <v>37.74641530413312</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.90134813987967</v>
+        <v>39.20556159598181</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>7.560513446817549</v>
+        <v>4.915922682126169</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.38211844811033</v>
+        <v>31.73048276145331</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.14673349226217</v>
+        <v>38.4863774480316</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.106806167043164</v>
+        <v>7.396713350829536</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>44.20041968461366</v>
+        <v>52.98390616810518</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>11.02072152559831</v>
+        <v>9.048825041970721</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.54478464239253</v>
+        <v>31.39050205935926</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.93844546263619</v>
+        <v>35.79127497009313</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.944649635696166</v>
+        <v>6.086614872991564</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.62918343300699</v>
+        <v>35.80512869173231</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.59302307351275</v>
+        <v>42.49796376994151</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.288707096405521</v>
+        <v>6.790783245556323</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>49.93620244379225</v>
+        <v>59.29197024824371</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>50.90046548322327</v>
+        <v>59.55138823448083</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>44.83666727350342</v>
+        <v>51.29299490803385</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.35484662308494</v>
+        <v>57.74123756268025</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>52.54693699579214</v>
+        <v>57.89649505505079</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.9508954626087</v>
+        <v>7.925415596244815</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.28320398592289</v>
+        <v>35.43560847040229</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.92455032048737</v>
+        <v>35.10996374268888</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.46156899347638</v>
+        <v>15.01349906373519</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.15265986524649</v>
+        <v>35.84713637806315</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.03652985913435</v>
+        <v>38.71431474983815</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>7.825001303171746</v>
+        <v>6.659857618073776</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.08896200143436</v>
+        <v>30.56740516193501</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.65106586178189</v>
+        <v>38.45368137707899</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.188247298521144</v>
+        <v>6.893326035211722</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>41.75169643093616</v>
+        <v>49.38593790948048</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.70973065903626</v>
+        <v>34.28998555931321</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.78844469595174</v>
+        <v>29.93419156368781</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>37.21764077215911</v>
+        <v>46.07076711977001</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>39.8545220463848</v>
+        <v>45.08432846336679</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.42841232591283</v>
+        <v>12.98053590448381</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.36699802908072</v>
+        <v>29.35747820810392</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.46701790016632</v>
+        <v>34.16281299788531</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.7531003090374</v>
+        <v>20.73997571616329</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.41379264217163</v>
+        <v>33.82163954252634</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.71413600835911</v>
+        <v>39.28798146798564</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.350582158854355</v>
+        <v>1.374882778007677</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.39494541769226</v>
+        <v>17.73305951083155</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.89150672315278</v>
+        <v>22.97535054206181</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.608655747914327</v>
+        <v>5.781831658202432</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.49695075868089</v>
+        <v>38.99904785872926</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>47.6752310106867</v>
+        <v>52.63822055888053</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.55796263123822</v>
+        <v>36.80068424209007</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.92454511169694</v>
+        <v>51.44582077272933</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.58570694129702</v>
+        <v>54.42743603568334</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.24204669581874</v>
+        <v>15.66428830666824</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.80391495415842</v>
+        <v>34.9418103836805</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.1543170298067</v>
+        <v>44.99106800457575</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.53615113465251</v>
+        <v>61.62303681648291</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>50.63530649749129</v>
+        <v>58.11386383264529</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.13081717966833</v>
+        <v>69.09553110216629</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.92709283077951</v>
+        <v>66.70127810077466</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.45648508209194</v>
+        <v>23.74599752286727</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.56651333971687</v>
+        <v>60.66846209611938</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>53.71823610634874</v>
+        <v>60.80374299129417</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.49077131825082</v>
+        <v>29.38712035210531</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>40.69647680678935</v>
+        <v>50.03816063010824</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.41375693302107</v>
+        <v>47.08564338692965</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>8.681030462000244</v>
+        <v>7.341993464339286</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.21467435496661</v>
+        <v>43.34446651701144</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.64923276210356</v>
+        <v>41.6131768216092</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.66115620444404</v>
+        <v>10.74374031625783</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>57.53292990414736</v>
+        <v>68.67087763942213</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>58.01745215648928</v>
+        <v>70.81360573547349</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>62.79452713990313</v>
+        <v>75.57373121454637</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>67.66353507187029</v>
+        <v>80.88320215173275</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.04677962769867</v>
+        <v>82.65931250329528</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.97900532523958</v>
+        <v>32.88697063622931</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>63.06923272884565</v>
+        <v>74.38057837998151</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>63.5492559574471</v>
+        <v>73.95394065557069</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>51.45173128173811</v>
+        <v>62.99995663692192</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.55375984909129</v>
+        <v>54.48726850634755</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>52.86036328126463</v>
+        <v>61.73870930216755</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>56.2399032534763</v>
+        <v>65.07730904031658</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.79669374928748</v>
+        <v>18.13220088755251</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>48.88150274709116</v>
+        <v>56.64461883976666</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.58442031137847</v>
+        <v>58.62635729049265</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.9003595859772</v>
+        <v>21.55445138721149</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.99944616729262</v>
+        <v>43.32010050344596</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.57584951340532</v>
+        <v>42.57027797802758</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>7.137139273681857</v>
+        <v>4.290184894253557</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.14191979406957</v>
+        <v>40.39595410768884</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.87522089939803</v>
+        <v>41.80372492399113</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.35700607090101</v>
+        <v>6.994339330445381</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>53.97979308265647</v>
+        <v>63.8484271544571</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>57.91239210149298</v>
+        <v>69.95644610938304</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>59.58678980908717</v>
+        <v>73.22490496680405</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>65.84560234117696</v>
+        <v>77.15093325683023</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>69.92850541436675</v>
+        <v>83.4004226212318</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.80287899638129</v>
+        <v>24.73667690836048</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>60.50294175448843</v>
+        <v>69.96059122189533</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>60.82174101420391</v>
+        <v>71.47964989269661</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>51.32530506148359</v>
+        <v>58.408494868517</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.76890766350709</v>
+        <v>41.17591756289825</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.58402595260343</v>
+        <v>50.47857840627037</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>45.63237863634191</v>
+        <v>53.32615859322687</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.60779795269534</v>
+        <v>17.63814048760552</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.19664907869661</v>
+        <v>54.28423416659696</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.37224226042561</v>
+        <v>57.71939460723549</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.9187284168727</v>
+        <v>19.0164678640127</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.54092287283446</v>
+        <v>44.30163751318341</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.76971615417862</v>
+        <v>47.75920916046925</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.363059934197196</v>
+        <v>6.523755134585731</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.66662683047226</v>
+        <v>41.13230946127442</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>40.95996845129926</v>
+        <v>46.91870178918994</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.597603484808491</v>
+        <v>7.666734474089239</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>52.03492155659357</v>
+        <v>61.44324264219655</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>59.25677459952185</v>
+        <v>73.17328299307692</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>56.64430265921133</v>
+        <v>65.1390280453297</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.04427112935807</v>
+        <v>74.02064160100392</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>68.5522437410668</v>
+        <v>82.79965878749877</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>18.79377050835684</v>
+        <v>21.59698754527797</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>60.64006412407259</v>
+        <v>71.9747773127509</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>64.67581486213163</v>
+        <v>77.79503714870415</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.71094839550946</v>
+        <v>12.21039983251278</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.67897514962932</v>
+        <v>16.73026465386553</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.25817206809719</v>
+        <v>23.67197476243127</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.23219652742263</v>
+        <v>-1.198305400678276</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.49623636403583</v>
+        <v>10.29441251894004</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.88280304747424</v>
+        <v>13.55302782651453</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.936675025854598</v>
+        <v>3.535583765684915</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.63514372049517</v>
+        <v>28.8020758652645</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.35996397814207</v>
+        <v>30.8298089870991</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.45891815006451</v>
+        <v>11.74583390240158</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.86877888454248</v>
+        <v>16.44405390279772</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.66802639277874</v>
+        <v>18.91415529399525</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.07963880204933</v>
+        <v>10.39260449489714</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.26979969218438</v>
+        <v>14.02512655451651</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.27698285553231</v>
+        <v>23.91144418325216</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.34412044216714</v>
+        <v>9.098132184559528</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.87956810133188</v>
+        <v>18.56771521511576</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.1644480320441</v>
+        <v>20.96887832507312</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.676114211361984</v>
+        <v>-2.78343672255226</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.179445563679174</v>
+        <v>4.099703940117248</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.96497978917805</v>
+        <v>7.062062743073554</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.760029562160778</v>
+        <v>-2.637383907146731</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.55210041344513</v>
+        <v>15.40753568281089</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.94257831908143</v>
+        <v>14.84587533440009</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.9950356221496</v>
+        <v>23.92035665372289</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.08569280886891</v>
+        <v>26.6167711491281</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.286931535163387</v>
+        <v>0.6263261232999078</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.68872517632203</v>
+        <v>23.23799563052187</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.94425053298273</v>
+        <v>24.2640682381736</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.60648901734638</v>
+        <v>5.860161450954394</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.42697536546348</v>
+        <v>38.83746966027834</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.93179510383806</v>
+        <v>38.28360528519865</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.69324825985233</v>
+        <v>36.39629727342167</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.52117845494044</v>
+        <v>40.94282789163139</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>41.01071557874522</v>
+        <v>41.89105788066576</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.39687966589873</v>
+        <v>16.53344928807421</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.55261301333258</v>
+        <v>38.60398419994803</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.78883284280822</v>
+        <v>41.82742317268082</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.99226425791424</v>
+        <v>13.152229344543</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.19178709036977</v>
+        <v>25.66655796007451</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.87075951724307</v>
+        <v>27.54129985491902</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>3.570485454950465</v>
+        <v>-0.3244929903652825</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.98715780309926</v>
+        <v>18.39494145026545</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.36550752603885</v>
+        <v>23.27713042540473</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.676611795497262</v>
+        <v>1.655467826793743</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.93347338515531</v>
+        <v>35.45234420195916</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7.581423659079473</v>
+        <v>7.443544083649432</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.78978218129116</v>
+        <v>17.3690957946126</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.61656523353287</v>
+        <v>21.76914088649819</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.085908741365941</v>
+        <v>-1.272671847118598</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.3246979987262</v>
+        <v>20.11531900892846</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.53327128786692</v>
+        <v>23.84030761356554</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>8.466910478350471</v>
+        <v>5.205712798755794</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.76651799292496</v>
+        <v>36.36972243789882</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.58769545077595</v>
+        <v>38.67561857710253</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.22105185305216</v>
+        <v>38.39491233469351</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.20380471027386</v>
+        <v>40.58902855463165</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.80320822424545</v>
+        <v>43.49202694692762</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>7.377562686249931</v>
+        <v>5.322280488747271</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.0651518169348</v>
+        <v>29.02889076054532</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.17693037165515</v>
+        <v>32.35149591901252</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.531913199052756</v>
+        <v>7.996871353884039</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.40029907547301</v>
+        <v>19.19149229530325</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.65002746662755</v>
+        <v>24.69069551169099</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>3.116496563718016</v>
+        <v>-2.19715058718533</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.68073792408902</v>
+        <v>13.67329277714947</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.9518305817308</v>
+        <v>23.75797578180499</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.13068434710091</v>
+        <v>0.793794155684072</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.91681983549178</v>
+        <v>29.67969867170705</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>6.734971078351052</v>
+        <v>2.518860938886338</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.60846950498074</v>
+        <v>13.24366169220296</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.20743053648649</v>
+        <v>21.33087426007547</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.524663690812989</v>
+        <v>-1.343339319424405</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.71850281056565</v>
+        <v>18.79080552909591</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.77508232325189</v>
+        <v>26.99757507426049</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.83467125542705</v>
+        <v>-0.3213183042983125</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.19651719198699</v>
+        <v>32.9412857613946</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.40707019104787</v>
+        <v>38.7010635779973</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.75957877973023</v>
+        <v>31.75231353559714</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.43174704609719</v>
+        <v>36.27513282676349</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.95786095666536</v>
+        <v>41.2079221100107</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.730351137388663</v>
+        <v>3.306895660368792</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.34512139963884</v>
+        <v>25.81835526872597</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.5249447313202</v>
+        <v>33.40446373363104</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.089499199969072</v>
+        <v>4.943544681785696</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.3544846667847</v>
+        <v>17.69228321519046</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.39805319035085</v>
+        <v>25.16440362942834</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>3.413443475480197</v>
+        <v>-0.949146746968335</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.43550155856096</v>
+        <v>11.96516948327604</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.58027648630276</v>
+        <v>23.70776429120036</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.795753371370285</v>
+        <v>-0.256302628900098</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.61366920074782</v>
+        <v>25.19004689435307</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.9697257364864</v>
+        <v>15.97170891185149</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.93407195211523</v>
+        <v>11.79297756982998</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.53996761728197</v>
+        <v>23.07605791109389</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.19335801234772</v>
+        <v>22.85752101463794</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>8.286318924598074</v>
+        <v>1.1834582861717</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.72911762210487</v>
+        <v>10.72308864911723</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.63732828101273</v>
+        <v>15.54185609351563</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.6612747109381</v>
+        <v>16.16602264772829</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.10447553283436</v>
+        <v>23.70306864133708</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.27210191782107</v>
+        <v>31.42959857735566</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>3.404821848746938</v>
+        <v>-2.0530202663792</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>10.15193038541352</v>
+        <v>7.019918261926374</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.87070974606314</v>
+        <v>12.8116104133419</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.278521249311133</v>
+        <v>2.310854688371325</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.27197831853306</v>
+        <v>24.99965220264315</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.59970509612457</v>
+        <v>37.213604546886</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.55366845907909</v>
+        <v>24.40406925695907</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.67651485032892</v>
+        <v>34.40539214111055</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.84632105680016</v>
+        <v>37.81929151280222</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.523158507748324</v>
+        <v>7.63968039926819</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.25523121741644</v>
+        <v>19.23216573703218</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.47597375902212</v>
+        <v>29.5329311585905</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.67076218256872</v>
+        <v>40.32570966000266</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.68271360158346</v>
+        <v>36.25516966804015</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.890162506642</v>
+        <v>43.90454299428863</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.26864519464738</v>
+        <v>42.31273644920533</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>14.36969259308501</v>
+        <v>11.16900113826678</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.55341833109998</v>
+        <v>39.92072001505375</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.68492050481776</v>
+        <v>42.08472986182713</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.08165417876859</v>
+        <v>23.2968004157374</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.21744681211892</v>
+        <v>38.01327414807486</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.97554536564407</v>
+        <v>39.26857925908082</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>5.395812333576895</v>
+        <v>5.443094358558344</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.33900021090398</v>
+        <v>33.27852187353137</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.3852626386378</v>
+        <v>34.49527832456364</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.79073994834654</v>
+        <v>9.835709670711125</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>52.95948016321987</v>
+        <v>56.14966421044365</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>53.60814299052147</v>
+        <v>58.89801366364487</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>61.80604720281029</v>
+        <v>67.47124229497174</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.44888261105788</v>
+        <v>68.88810159493833</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>68.15803321581306</v>
+        <v>70.63054981446611</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.68082559163254</v>
+        <v>31.16968835456333</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>58.36448057047628</v>
+        <v>62.86512124484187</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>61.05004130793451</v>
+        <v>66.37290065491304</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.1460959303698</v>
+        <v>42.45882356963229</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.09797088264112</v>
+        <v>31.42075573681799</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.59012486738992</v>
+        <v>36.39304711653254</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.69686787091673</v>
+        <v>41.17231863555682</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.235644976060819</v>
+        <v>5.389240400523644</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.0406619122811</v>
+        <v>35.96523466761708</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.19682592498013</v>
+        <v>40.98624203415055</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.45974095378603</v>
+        <v>16.20683946206129</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.75399509248776</v>
+        <v>32.29571003968232</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.23325419820007</v>
+        <v>36.14697273100236</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3.808009023726839</v>
+        <v>3.057057115377045</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.78769574785483</v>
+        <v>31.39775498849042</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.4785219494215</v>
+        <v>36.17193665151687</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.68224863072249</v>
+        <v>7.191486338004939</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>50.09689122827862</v>
+        <v>52.87711919030917</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>55.48607912690535</v>
+        <v>60.36820915231547</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>57.88580498424218</v>
+        <v>65.39000375345746</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>63.61667920628407</v>
+        <v>66.62125022343059</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>68.16316831743777</v>
+        <v>73.08295531302024</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.15219783752713</v>
+        <v>23.34485218299837</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>56.68529162043258</v>
+        <v>59.8425831019818</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>60.87314168611918</v>
+        <v>66.31733303453888</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.63223744184897</v>
+        <v>38.70373904552086</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.3586793276154</v>
+        <v>18.64516555731893</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.52254712552433</v>
+        <v>24.91010695144994</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.7301353792779</v>
+        <v>29.76202195289544</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>6.801192268552871</v>
+        <v>3.27766320707023</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.29991527069025</v>
+        <v>32.24708224933666</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.02942685957773</v>
+        <v>39.12526401348664</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>14.40091377204351</v>
+        <v>13.27566017190668</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.76066492373205</v>
+        <v>32.33947985433259</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.47729336617202</v>
+        <v>40.16409549455165</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>4.927468698391003</v>
+        <v>3.108920032876579</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.68909262911733</v>
+        <v>28.89583617606635</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.12319193782233</v>
+        <v>38.20295637017826</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.315360425897591</v>
+        <v>5.045057060241902</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.40108474692687</v>
+        <v>47.62618956053731</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>56.32118865283343</v>
+        <v>61.22326609288115</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.29205087854688</v>
+        <v>52.62914926785268</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>57.1580463738053</v>
+        <v>58.90144340597264</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>64.27871484455213</v>
+        <v>68.61147832547134</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>13.96007166284639</v>
+        <v>12.88183805329136</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.87157375576416</v>
+        <v>56.48436511912325</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>62.21129282468079</v>
+        <v>66.573818460448</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.71316581007487</v>
+        <v>13.0819602015136</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.95779096764805</v>
+        <v>15.7144735513867</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.28083565867445</v>
+        <v>26.82422424234761</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.562921782550529</v>
+        <v>2.468625102479827</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>15.48583893751324</v>
+        <v>18.03434790966893</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.3516293823821</v>
+        <v>20.28478967634882</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.920353506117223</v>
+        <v>8.975821520943873</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.71658024530358</v>
+        <v>37.58584595973107</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.26344353933261</v>
+        <v>41.88550907692942</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.4210725185295</v>
+        <v>16.61153516666014</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>17.80097183481599</v>
+        <v>22.50913548389963</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.19539867404507</v>
+        <v>26.35939653754685</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.23666548786692</v>
+        <v>17.27057932187986</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.25455054355905</v>
+        <v>16.00577903095179</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.2858191777064</v>
+        <v>30.60366624906797</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.31090840346014</v>
+        <v>11.57636548497693</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.64051926785729</v>
+        <v>28.20148058114634</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.66373776362956</v>
+        <v>35.52012625017084</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2.535819951947481</v>
+        <v>0.7555759222388332</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.19526758514965</v>
+        <v>13.30560617263642</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.33390451278709</v>
+        <v>17.45688273083484</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.724535638844145</v>
+        <v>0.1304398499791333</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.98952456133888</v>
+        <v>25.67229510337205</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.18943797619241</v>
+        <v>15.83227079187021</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.17677301776749</v>
+        <v>27.68444846252056</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.13426986719657</v>
+        <v>31.75578449554095</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2.606183493712546</v>
+        <v>3.023939109018265</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.54731002666184</v>
+        <v>37.74053816758506</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.78104998372719</v>
+        <v>37.97395408716334</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.60134074962146</v>
+        <v>6.114931330988504</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>49.82877524273599</v>
+        <v>52.36033663321341</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>46.99610346061759</v>
+        <v>51.33981221501931</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>45.94765553094675</v>
+        <v>50.6663503244696</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.32718867000418</v>
+        <v>58.98928452355564</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>53.75270852932059</v>
+        <v>60.11440096515497</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>18.90822556019606</v>
+        <v>21.82662744253471</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.64446568820301</v>
+        <v>46.81637993411677</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.34405583559418</v>
+        <v>51.08625710280248</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.46890947140007</v>
+        <v>20.29415417950138</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.77523866950236</v>
+        <v>40.82522583685563</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.11182459290573</v>
+        <v>45.35549150612228</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.111644508036189</v>
+        <v>6.934111810371537</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.44623796799689</v>
+        <v>34.8156383907614</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.26898862375599</v>
+        <v>44.94679450188674</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3.520055805419943</v>
+        <v>7.814616139364428</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>57.37351714634739</v>
+        <v>56.53964175588465</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.978836369692452</v>
+        <v>6.786781292896137</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.77124067130724</v>
+        <v>22.48582455097644</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.87151636719485</v>
+        <v>28.5744195480563</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-0.002673797624805019</v>
+        <v>-0.7899641697519435</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.55006269794353</v>
+        <v>34.43397272539156</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.21097623684844</v>
+        <v>38.30720075137263</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3.647326265940588</v>
+        <v>3.25899750111051</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>44.80219880788712</v>
+        <v>50.82291741784482</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>48.59319612177053</v>
+        <v>53.2748372715748</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.69162442645373</v>
+        <v>53.83749764828655</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.90068617870062</v>
+        <v>58.31356046639641</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.86613118198932</v>
+        <v>62.1237479598089</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.03075082181763</v>
+        <v>8.192575404482884</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.44161164919221</v>
+        <v>37.43131168662693</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.59989997690865</v>
+        <v>44.30307980830383</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>11.2679849852266</v>
+        <v>13.44247995968361</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.03244372465996</v>
+        <v>34.4793187659403</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.07568064407621</v>
+        <v>42.23215336559301</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.605146081506799</v>
+        <v>3.029956045590236</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.46798007820861</v>
+        <v>28.9471181171301</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.22567270926001</v>
+        <v>45.93213596188495</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1.517906532514797</v>
+        <v>4.557929824938437</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.80447602438363</v>
+        <v>50.34236742801613</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.028866390138937</v>
+        <v>2.526432305044462</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.54890014697016</v>
+        <v>18.15715174859452</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.00807663642273</v>
+        <v>27.85492078950228</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.9268309323896489</v>
+        <v>0.5934858841972215</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.67141650711691</v>
+        <v>34.44976495839324</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.50455035741982</v>
+        <v>39.56735906962134</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.113209467926382</v>
+        <v>1.902027736046605</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>44.14033927246845</v>
+        <v>48.57946101976545</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.81974987214659</v>
+        <v>55.00986740911814</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>40.85507317071622</v>
+        <v>43.51935721548235</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>46.74549145237188</v>
+        <v>49.47760758455009</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.3639236501486</v>
+        <v>52.78488693245978</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.454683409811217</v>
+        <v>6.478999980179079</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>19.57681265222423</v>
+        <v>26.49842197881649</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.09196810193718</v>
+        <v>43.38520534942744</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.653165057380217</v>
+        <v>7.144868548982931</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.1725273827051</v>
+        <v>32.40300402736825</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.30729353659666</v>
+        <v>43.29168192006075</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>3.798294752682082</v>
+        <v>2.312787664638634</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.90862174541319</v>
+        <v>26.73111292094491</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.82449012917061</v>
+        <v>43.05238611178696</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.4077157512973848</v>
+        <v>1.121988208000339</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.22821366531336</v>
+        <v>45.00297037812638</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.13965422834545</v>
+        <v>34.4689122513584</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.73543363801586</v>
+        <v>25.17823829968959</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.24182528442707</v>
+        <v>47.68973877315919</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>54.46084333699566</v>
+        <v>55.12230435885083</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.73184217975728</v>
+        <v>5.524645931994094</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.06317503651367</v>
+        <v>24.67923928585308</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.59974612133978</v>
+        <v>35.19720950198831</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.55712068703384</v>
+        <v>13.75098671284622</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.78565620662055</v>
+        <v>26.26020813671906</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.54324829483253</v>
+        <v>37.51025883704821</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>2.240292739730318</v>
+        <v>0.02758599526259431</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.436809911236832</v>
+        <v>11.66730072144864</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.3118932599804</v>
+        <v>16.41415744217021</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.892037437247122</v>
+        <v>0.4300366133296691</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.4999846946418</v>
+        <v>28.87212052669179</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.63241073402365</v>
+        <v>43.18132659829742</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.38140303237557</v>
+        <v>29.16062402902072</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>50.31840239537312</v>
+        <v>53.88430565468676</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>58.15309594300842</v>
+        <v>57.79005208517935</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.725519657644544</v>
+        <v>4.745994674844081</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.37716114764255</v>
+        <v>26.26566053574467</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.97841416740335</v>
+        <v>37.31947328549412</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>68.00654520261517</v>
+        <v>70.11571082206899</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.11135461745092</v>
+        <v>62.52216761700338</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>75.7455273043646</v>
+        <v>77.19686297696848</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>77.95864620229767</v>
+        <v>85.52704459336259</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>23.6376504368444</v>
+        <v>25.19918452933342</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>70.37676592439708</v>
+        <v>75.42567106573051</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>76.97137753763732</v>
+        <v>79.11768525233333</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.17803204188928</v>
+        <v>23.80765394403048</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>45.63409404557773</v>
+        <v>46.14913134875527</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>49.05457107079808</v>
+        <v>50.95098061528432</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>5.420845664982313</v>
+        <v>7.778097257380562</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.71135678736873</v>
+        <v>44.58786944542511</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.12743615559555</v>
+        <v>49.22984867388969</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.699868576229949</v>
+        <v>8.952761107828234</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>73.41483861122236</v>
+        <v>72.29317426256533</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>77.50995534404186</v>
+        <v>79.36071353807314</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>81.91341082518431</v>
+        <v>84.37110423971428</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>90.99635139875238</v>
+        <v>96.87642230619478</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>95.00978509276703</v>
+        <v>98.85818784048975</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.26009258499007</v>
+        <v>34.74093612289906</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>90.61760819661301</v>
+        <v>92.35196706413416</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>91.3746545120965</v>
+        <v>93.22662941091068</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>70.454677308426</v>
+        <v>72.892369870015</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>48.19541932197505</v>
+        <v>54.43846601182702</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.8993010254292</v>
+        <v>64.21717522254478</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>77.15865150623429</v>
+        <v>80.67464033884735</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.15797744118654</v>
+        <v>16.44065566108574</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.96730166706791</v>
+        <v>69.48072737274357</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>73.0371241325184</v>
+        <v>77.36780247164656</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.34770086198691</v>
+        <v>14.67798847037912</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.47777012242634</v>
+        <v>39.6687516429598</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.19309426805511</v>
+        <v>47.24159332127289</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>3.182974827481321</v>
+        <v>3.748441665873941</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.1216316151403</v>
+        <v>42.14276168515677</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.68554567590289</v>
+        <v>52.12265975762476</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3.217395471168235</v>
+        <v>4.211664169003118</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>64.06320425791621</v>
+        <v>68.45121033375659</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>78.40294513790674</v>
+        <v>81.81185347736165</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>74.76576101835361</v>
+        <v>79.85397302636174</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>86.53140795812379</v>
+        <v>91.18843471672595</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>93.29785318536857</v>
+        <v>99.24676500156265</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.23150826700074</v>
+        <v>22.29338744080225</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>82.36359640016823</v>
+        <v>85.35333688657705</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>88.99020654276524</v>
+        <v>92.16238183455951</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>67.77932536264134</v>
+        <v>67.50354124833932</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.0363648071088</v>
+        <v>36.94201633144183</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.53612965561422</v>
+        <v>49.68827059014866</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>59.33027793773903</v>
+        <v>63.74102575272633</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.0065852967865</v>
+        <v>12.2335608273293</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>54.04020059781879</v>
+        <v>58.71813479437598</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>68.62017387189377</v>
+        <v>71.27366326663045</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.49437958539437</v>
+        <v>12.45813908314103</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.92435215036195</v>
+        <v>41.60915651999431</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.41754230451681</v>
+        <v>53.99201177208444</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>4.454831845858983</v>
+        <v>6.146663529786078</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.21952680615863</v>
+        <v>41.01817872261377</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>53.53902631204516</v>
+        <v>54.25166528549661</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.653793710833259</v>
+        <v>3.61681566374418</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>61.09380601583078</v>
+        <v>61.94216049019266</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>80.49332816106637</v>
+        <v>82.12797935786242</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>69.1670381643855</v>
+        <v>68.15137058911235</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>84.23281467606758</v>
+        <v>85.29558298799408</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>95.03915171700403</v>
+        <v>99.72242566146306</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>17.02642208511059</v>
+        <v>16.86573607550906</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>80.57351938965863</v>
+        <v>76.76583790982357</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>88.88190709857646</v>
+        <v>90.7448477713631</v>
       </c>
     </row>
   </sheetData>
